--- a/RawData/FR_RawData_VPython.xlsx
+++ b/RawData/FR_RawData_VPython.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\01_MFA_GlassIndustry\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BF94FF-3667-4B85-8E66-EEBEC2465467}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF20BDAF-1587-4603-87DE-44D9E73C50E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="19650" windowHeight="13860" tabRatio="681" activeTab="2" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="19650" windowHeight="13860" tabRatio="681" activeTab="2" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
   </bookViews>
   <sheets>
     <sheet name="stock" sheetId="17" r:id="rId1"/>
@@ -8609,9 +8609,6 @@
     <t>LSG &amp; TSG for cars, "000 m²</t>
   </si>
   <si>
-    <t>architectural glass/flat glass, %</t>
-  </si>
-  <si>
     <t>cast glass, kt</t>
   </si>
   <si>
@@ -8703,6 +8700,9 @@
   </si>
   <si>
     <t>sodium sulfate, kg/kg</t>
+  </si>
+  <si>
+    <t>bldg glass/flat glass, %</t>
   </si>
 </sst>
 </file>
@@ -10529,31 +10529,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -11984,34 +11984,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="E1" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="F1" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="G1" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="68" t="s">
+      <c r="H1" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="68" t="s">
+      <c r="I1" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="68" t="s">
+      <c r="J1" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="68" t="s">
+      <c r="K1" s="68" t="s">
         <v>60</v>
-      </c>
-      <c r="K1" s="68" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -13898,10 +13898,10 @@
   <dimension ref="A1:BZ181"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O85" sqref="O85"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13917,34 +13917,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="73" t="s">
-        <v>47</v>
-      </c>
       <c r="D1" s="73" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="H1" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>1</v>
@@ -13962,7 +13962,7 @@
         <v>11</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>30</v>
@@ -17431,7 +17431,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -18546,7 +18546,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -19745,10 +19745,10 @@
         <v>16</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
@@ -23254,7 +23254,7 @@
       </c>
       <c r="J1" s="62"/>
       <c r="K1" s="55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L1" s="55" t="s">
         <v>21</v>
@@ -25702,7 +25702,7 @@
         <v>18</v>
       </c>
       <c r="F1" s="55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G1" s="55" t="s">
         <v>19</v>
@@ -25715,7 +25715,7 @@
       </c>
       <c r="J1" s="62"/>
       <c r="K1" s="55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L1" s="55" t="s">
         <v>21</v>

--- a/RawData/FR_RawData_VPython.xlsx
+++ b/RawData/FR_RawData_VPython.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\01_MFA_GlassIndustry\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF20BDAF-1587-4603-87DE-44D9E73C50E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D70B84B-FF6D-4B21-8F9F-8B4DE51FFB5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="19650" windowHeight="13860" tabRatio="681" activeTab="2" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="19650" windowHeight="13860" tabRatio="681" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
   </bookViews>
   <sheets>
     <sheet name="stock" sheetId="17" r:id="rId1"/>
@@ -2012,6 +2012,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="N4" authorId="0" shapeId="0" xr:uid="{B5E4E444-EE96-4E94-ADDD-B7C40FCFAB07}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Production of the first insulated glazing
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B5" authorId="0" shapeId="0" xr:uid="{D0F0A926-45AD-4F46-A281-09B0ADE2742B}">
       <text>
         <r>
@@ -5470,23 +5484,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>jean:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Rapport d'activité 2013, Fédération des industries du verre.
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rapport d'activité 2013, Fédération des industries du verre.
 http://www.verre-avenir.fr/Espace-Communication/Espace-Presse/Communiques-de-presse</t>
         </r>
       </text>
@@ -5536,27 +5539,16 @@
         </r>
       </text>
     </comment>
-    <comment ref="C67" authorId="0" shapeId="0" xr:uid="{22789D38-1379-40C5-868E-8E77CC513627}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>jean:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Rapport d'activité 2013, Fédération des industries du verre.
+    <comment ref="C67" authorId="0" shapeId="0" xr:uid="{608A7745-0C78-45B1-833C-6C0D36CA011B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rapport d'activité 2013, Fédération des industries du verre.
 http://www.verre-avenir.fr/Espace-Communication/Espace-Presse/Communiques-de-presse</t>
         </r>
       </text>
@@ -5606,7 +5598,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C68" authorId="0" shapeId="0" xr:uid="{BFC6D6EF-1C34-4040-94F3-E4608FD6C59D}">
+    <comment ref="C68" authorId="0" shapeId="0" xr:uid="{FC3C3D2F-67B1-4D19-A39D-9BD6077DD7CE}">
       <text>
         <r>
           <rPr>
@@ -5665,7 +5657,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C69" authorId="0" shapeId="0" xr:uid="{9A3AA04C-B996-4B37-B89B-784B8716E3FD}">
+    <comment ref="C69" authorId="0" shapeId="0" xr:uid="{E3811405-77BA-4DD8-AC23-4AA09F95ABB0}">
       <text>
         <r>
           <rPr>
@@ -5724,27 +5716,16 @@
         </r>
       </text>
     </comment>
-    <comment ref="C70" authorId="0" shapeId="0" xr:uid="{00233CE8-CA0C-4301-A2A2-945B2C6265DA}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>jean:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Rapport d'activité 2013, Fédération des industries du verre.
+    <comment ref="C70" authorId="0" shapeId="0" xr:uid="{19A382A2-03F2-4AB8-9018-C64E8C1DBD0F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rapport d'activité 2013, Fédération des industries du verre.
 http://www.verre-avenir.fr/Espace-Communication/Espace-Presse/Communiques-de-presse</t>
         </r>
       </text>
@@ -6074,6 +6055,34 @@
     <author>jean</author>
   </authors>
   <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{C0D3187C-153D-4037-A087-EEFF64AB0835}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Unless otherwise indicated in a note attached to the cell, all data collected in this column comes from: 
+PRODCOM, Eurostat, 2020
+Hypothesis: glass thickness = 4mm
+Calculation: sum of data corresponding to codes (see Eurostat website):
+23111110
+23111150
+23111212
+23111214
+23111217
+23111230
+23111290
+23121210
+23121230
+23121250
+23121270
+23121330</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C1" authorId="0" shapeId="0" xr:uid="{092B2D38-F203-45B3-89B0-CD046436BD54}">
       <text>
         <r>
@@ -6135,6 +6144,20 @@
 PRODCOM, Eurostat, 2020
 Code: 23111217 
 Label: Non-wired sheets, of float, surface ground or polished glass, having an absorbent or reflecting layer, not otherwise worked, of a thickness &gt; 3,5 mm </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{3C693CB5-C9EB-40D5-99B2-0668E248FC82}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Production of the first insulated glazing
+</t>
         </r>
       </text>
     </comment>
@@ -6244,6 +6267,71 @@
 Glace polie: 318.491
 Verre de sécurité: 72.092
 Verre plat travaillé: 14.557</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B66" authorId="0" shapeId="0" xr:uid="{8728395A-A4CB-43D9-ADC3-4377E06C8ED9}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B67" authorId="0" shapeId="0" xr:uid="{41453F47-5E7D-4E52-83E9-8A19F775A3D0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B68" authorId="0" shapeId="0" xr:uid="{7F15893F-29B4-416E-94A4-B4D4413303AF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B69" authorId="0" shapeId="0" xr:uid="{0C500F11-6A7A-4B23-807B-6B22282B2547}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B70" authorId="0" shapeId="0" xr:uid="{690F4194-C9FC-48CA-9778-3629FDFA8E72}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
         </r>
       </text>
     </comment>
@@ -6266,12 +6354,26 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Unless otherwise indicated in a note attached to the cell, all data collected in this column comes from:
-Production industrielle: industrie du verre, Service des études et des statistiques </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{DED84609-F5DE-4EE6-ADC7-7892F3135651}">
+          <t>Unless otherwise indicated in a note attached to the cell, all data collected in this column comes from:
+Production industrielle: industrie du verre, Service des études et des statistiques industrielles</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{69022945-C36F-496D-9864-EF109AF58281}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Unless otherwise indicated in a note attached to the cell, all data collected in this column comes from:
+Production industrielle: industrie du verre, Service des études et des statistiques industrielles</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{DED84609-F5DE-4EE6-ADC7-7892F3135651}">
       <text>
         <r>
           <rPr>
@@ -6287,7 +6389,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{407598A0-3D89-47C8-8CF4-0D6CE7B79293}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{407598A0-3D89-47C8-8CF4-0D6CE7B79293}">
       <text>
         <r>
           <rPr>
@@ -6303,7 +6405,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{9EA51376-C50E-4D36-9F77-D4B90BC1DEA0}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{9EA51376-C50E-4D36-9F77-D4B90BC1DEA0}">
       <text>
         <r>
           <rPr>
@@ -6319,7 +6421,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{20A40AEC-088F-456D-B9FF-D171E1DE5793}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{20A40AEC-088F-456D-B9FF-D171E1DE5793}">
       <text>
         <r>
           <rPr>
@@ -6335,6 +6437,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{2C0F0FC7-5636-4A84-BF97-CF1C61531217}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Production of the first insulated glazing
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B9" authorId="0" shapeId="0" xr:uid="{FAB4F540-1E97-45DC-9849-D2DB30BEA9AC}">
       <text>
         <r>
@@ -6439,68 +6555,68 @@
         </r>
       </text>
     </comment>
-    <comment ref="D46" authorId="0" shapeId="0" xr:uid="{CA437B3E-2577-4FB8-97EB-F2E96B917164}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Production industrielle: industrie du verre, Service des études et des statistiques </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D47" authorId="0" shapeId="0" xr:uid="{2E09A6A6-B08F-4E2D-91AE-668B44571A2A}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Production industrielle: industrie du verre, Service des études et des statistiques </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D48" authorId="0" shapeId="0" xr:uid="{9CFE04C8-9E1F-434B-8A69-39BBB8206F02}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Production industrielle: industrie du verre, Service des études et des statistiques </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D49" authorId="0" shapeId="0" xr:uid="{A75FE1BB-DB88-443E-B41F-75CC108A65F0}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Production industrielle: industrie du verre, Service des études et des statistiques </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D50" authorId="0" shapeId="0" xr:uid="{66C2F4FD-9754-4BFE-A2E2-738CE462C82E}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Production industrielle: industrie du verre, Service des études et des statistiques </t>
+    <comment ref="E46" authorId="0" shapeId="0" xr:uid="{516FDB64-E6E6-437C-BE19-0F84123477E8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Production industrielle: industrie du verre, Service des études et des statistiques industrielles</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E47" authorId="0" shapeId="0" xr:uid="{5AFAB1EF-A477-4384-9DC2-488F8906D1B0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Production industrielle: industrie du verre, Service des études et des statistiques industrielles</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E48" authorId="0" shapeId="0" xr:uid="{AD40C842-AD8D-4E6B-845B-BC9211B52AA8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Production industrielle: industrie du verre, Service des études et des statistiques industrielles</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E49" authorId="0" shapeId="0" xr:uid="{F9AF2EF0-8C4C-4135-B58E-0A03212FE5B6}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Production industrielle: industrie du verre, Service des études et des statistiques industrielles</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E50" authorId="0" shapeId="0" xr:uid="{B9ADD180-AD61-413E-9212-0B32B77557E4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Production industrielle: industrie du verre, Service des études et des statistiques industrielles</t>
         </r>
       </text>
     </comment>
@@ -6521,24 +6637,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="B53" authorId="0" shapeId="0" xr:uid="{C55ED228-8C8B-4E48-8DCC-99D2F9F5BA4F}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>"Statistiques de l'industrie verrière fançaise en 1996", Verre, vol. 3, n° 2, mars-avril 1997, p. 32-33
-Verre coulé : 2.83
-Verre à vitres: 5.818
-Glace polie: 539.536
-Verre de sécurité: 64.541
-Verre plat travaillé: 13.795</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B60" authorId="0" shapeId="0" xr:uid="{9C8087EA-38B0-42B7-ADBE-47AC3090B2B9}">
       <text>
         <r>
@@ -6604,6 +6702,71 @@
           </rPr>
           <t>"L'évolution générale de l'industrie du verre en 2008", Verre, vol. 15, n°5, nov. 2009, p. 37-9
 36% of total prod</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B66" authorId="0" shapeId="0" xr:uid="{5FD09EEB-22BA-4737-A711-A6B13F315DCB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B67" authorId="0" shapeId="0" xr:uid="{72E12E4C-0291-4019-94E3-6F774E2F2138}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B68" authorId="0" shapeId="0" xr:uid="{F84C44C0-3163-45FA-AF1E-BC289AFDF3BF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B69" authorId="0" shapeId="0" xr:uid="{FF17CB94-9ADD-43BE-8DCE-C01B5E871937}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B70" authorId="0" shapeId="0" xr:uid="{205A0229-AAC8-4B77-A8A5-01F104DC8C01}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated according to PRODCOM data, Eurostat, 2020</t>
         </r>
       </text>
     </comment>
@@ -8514,7 +8677,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="64">
   <si>
     <t>year</t>
   </si>
@@ -8704,16 +8867,21 @@
   <si>
     <t>bldg glass/flat glass, %</t>
   </si>
+  <si>
+    <t>IGU and safety glass, "000 m²</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -8844,7 +9012,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -9069,6 +9237,21 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -9388,8 +9571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7034B4F-80B1-4C57-93D3-427AF9C86EA4}">
   <dimension ref="A1:BT88"/>
   <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9610,16 +9793,6 @@
         <v>1966</v>
       </c>
       <c r="B23" s="26"/>
-      <c r="C23" s="27">
-        <v>322000</v>
-      </c>
-      <c r="D23" s="27">
-        <f>171000</f>
-        <v>171000</v>
-      </c>
-      <c r="E23" s="27">
-        <v>151000</v>
-      </c>
     </row>
     <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25">
@@ -9646,7 +9819,7 @@
       <c r="B26" s="26"/>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
+      <c r="E26" s="80"/>
     </row>
     <row r="27" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25">
@@ -9846,7 +10019,7 @@
       <c r="D48" s="27"/>
       <c r="E48" s="27"/>
     </row>
-    <row r="49" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="25">
         <v>1992</v>
       </c>
@@ -9855,7 +10028,7 @@
       <c r="D49" s="27"/>
       <c r="E49" s="27"/>
     </row>
-    <row r="50" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="25">
         <v>1993</v>
       </c>
@@ -9864,7 +10037,7 @@
       <c r="D50" s="27"/>
       <c r="E50" s="27"/>
     </row>
-    <row r="51" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="25">
         <v>1994</v>
       </c>
@@ -9873,25 +10046,33 @@
       <c r="D51" s="27"/>
       <c r="E51" s="27"/>
     </row>
-    <row r="52" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="25">
         <v>1995</v>
       </c>
-      <c r="B52" s="26"/>
+      <c r="B52" s="28"/>
       <c r="C52" s="27"/>
       <c r="D52" s="27"/>
       <c r="E52" s="27"/>
     </row>
-    <row r="53" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="25">
         <v>1996</v>
       </c>
       <c r="B53" s="26"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-    </row>
-    <row r="54" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="27">
+        <v>322000</v>
+      </c>
+      <c r="D53" s="27">
+        <f>171000</f>
+        <v>171000</v>
+      </c>
+      <c r="E53" s="27">
+        <v>151000</v>
+      </c>
+      <c r="F53" s="81"/>
+    </row>
+    <row r="54" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="25">
         <v>1997</v>
       </c>
@@ -9900,25 +10081,24 @@
       <c r="D54" s="27"/>
       <c r="E54" s="27"/>
     </row>
-    <row r="55" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="25">
         <v>1998</v>
       </c>
       <c r="B55" s="26"/>
-      <c r="C55" s="27"/>
+      <c r="C55" s="80"/>
       <c r="D55" s="27"/>
       <c r="E55" s="27"/>
     </row>
-    <row r="56" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="25">
         <v>1999</v>
       </c>
       <c r="B56" s="26"/>
-      <c r="C56" s="27"/>
       <c r="D56" s="27"/>
       <c r="E56" s="27"/>
     </row>
-    <row r="57" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="25">
         <v>2000</v>
       </c>
@@ -9927,16 +10107,16 @@
       <c r="D57" s="27"/>
       <c r="E57" s="27"/>
     </row>
-    <row r="58" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="25">
         <v>2001</v>
       </c>
       <c r="B58" s="26"/>
       <c r="C58" s="27"/>
       <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-    </row>
-    <row r="59" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E58" s="80"/>
+    </row>
+    <row r="59" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="25">
         <v>2002</v>
       </c>
@@ -9945,7 +10125,7 @@
       <c r="D59" s="27"/>
       <c r="E59" s="27"/>
     </row>
-    <row r="60" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="25">
         <v>2003</v>
       </c>
@@ -9954,7 +10134,7 @@
       <c r="D60" s="27"/>
       <c r="E60" s="27"/>
     </row>
-    <row r="61" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="25">
         <v>2004</v>
       </c>
@@ -9963,7 +10143,7 @@
       <c r="D61" s="27"/>
       <c r="E61" s="27"/>
     </row>
-    <row r="62" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="25">
         <v>2005</v>
       </c>
@@ -9972,7 +10152,7 @@
       <c r="D62" s="27"/>
       <c r="E62" s="27"/>
     </row>
-    <row r="63" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="25">
         <v>2006</v>
       </c>
@@ -9984,7 +10164,7 @@
       <c r="D63" s="27"/>
       <c r="E63" s="27"/>
     </row>
-    <row r="64" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="25">
         <v>2007</v>
       </c>
@@ -13053,7 +13233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA130FDF-0775-4091-8CBF-83ED2B322FDF}">
   <dimension ref="A1:BN88"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
@@ -13897,11 +14077,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{984B49BA-6D54-42C1-84EE-7F8663080B50}">
   <dimension ref="A1:BZ181"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="60" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14062,7 +14242,7 @@
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
-      <c r="N4" s="6">
+      <c r="N4" s="1">
         <v>0</v>
       </c>
       <c r="O4" s="9"/>
@@ -14156,10 +14336,7 @@
       <c r="K7" s="9">
         <v>64.5</v>
       </c>
-      <c r="L7" s="9">
-        <f>SUM(J7:K7)+H7</f>
-        <v>190.39999999999998</v>
-      </c>
+      <c r="L7" s="9"/>
       <c r="M7" s="9"/>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
@@ -14192,10 +14369,7 @@
       <c r="K8" s="9">
         <v>78.099999999999994</v>
       </c>
-      <c r="L8" s="9">
-        <f t="shared" ref="L8:L39" si="0">SUM(J8:K8)+H8</f>
-        <v>222.7</v>
-      </c>
+      <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
@@ -14238,10 +14412,7 @@
       <c r="K9" s="31">
         <v>67.8</v>
       </c>
-      <c r="L9" s="9">
-        <f t="shared" si="0"/>
-        <v>191.6</v>
-      </c>
+      <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
@@ -14283,10 +14454,7 @@
       <c r="K10" s="31">
         <v>71.3</v>
       </c>
-      <c r="L10" s="9">
-        <f t="shared" si="0"/>
-        <v>212.6</v>
-      </c>
+      <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
@@ -14328,10 +14496,7 @@
       <c r="K11" s="9">
         <v>71.599999999999994</v>
       </c>
-      <c r="L11" s="9">
-        <f t="shared" si="0"/>
-        <v>214.59999999999997</v>
-      </c>
+      <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
@@ -14372,10 +14537,7 @@
       <c r="K12" s="8">
         <v>88</v>
       </c>
-      <c r="L12" s="9">
-        <f t="shared" si="0"/>
-        <v>260.60000000000002</v>
-      </c>
+      <c r="L12" s="9"/>
       <c r="M12" s="9"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
@@ -14416,10 +14578,7 @@
       <c r="K13" s="8">
         <v>85.9</v>
       </c>
-      <c r="L13" s="9">
-        <f t="shared" si="0"/>
-        <v>292.89999999999998</v>
-      </c>
+      <c r="L13" s="9"/>
       <c r="M13" s="9"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
@@ -14447,7 +14606,7 @@
         <v>1853</v>
       </c>
       <c r="G14" s="8">
-        <f t="shared" ref="G14:G15" si="1">F14-1700</f>
+        <f t="shared" ref="G14:G15" si="0">F14-1700</f>
         <v>153</v>
       </c>
       <c r="H14" s="8">
@@ -14460,10 +14619,7 @@
       <c r="K14" s="8">
         <v>96.6</v>
       </c>
-      <c r="L14" s="9">
-        <f t="shared" si="0"/>
-        <v>329.6</v>
-      </c>
+      <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
@@ -14491,7 +14647,7 @@
         <v>2207</v>
       </c>
       <c r="G15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>507</v>
       </c>
       <c r="H15" s="8">
@@ -14504,10 +14660,7 @@
       <c r="K15" s="8">
         <v>97</v>
       </c>
-      <c r="L15" s="9">
-        <f t="shared" si="0"/>
-        <v>361.2</v>
-      </c>
+      <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
@@ -14548,10 +14701,7 @@
       <c r="K16" s="8">
         <v>97.7</v>
       </c>
-      <c r="L16" s="9">
-        <f t="shared" si="0"/>
-        <v>415.5</v>
-      </c>
+      <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
@@ -14594,10 +14744,7 @@
       <c r="K17" s="8">
         <v>90</v>
       </c>
-      <c r="L17" s="9">
-        <f t="shared" si="0"/>
-        <v>416.6</v>
-      </c>
+      <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
@@ -14638,10 +14785,7 @@
       <c r="K18" s="8">
         <v>102.7</v>
       </c>
-      <c r="L18" s="9">
-        <f t="shared" si="0"/>
-        <v>402.8</v>
-      </c>
+      <c r="L18" s="9"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
@@ -14684,10 +14828,7 @@
       <c r="K19" s="8">
         <v>108.4</v>
       </c>
-      <c r="L19" s="9">
-        <f t="shared" si="0"/>
-        <v>474.3</v>
-      </c>
+      <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
@@ -14728,10 +14869,7 @@
       <c r="K20" s="8">
         <v>99.8</v>
       </c>
-      <c r="L20" s="9">
-        <f t="shared" si="0"/>
-        <v>491.2</v>
-      </c>
+      <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
@@ -14772,10 +14910,7 @@
       <c r="K21" s="8">
         <v>125.6</v>
       </c>
-      <c r="L21" s="9">
-        <f t="shared" si="0"/>
-        <v>543.09999999999991</v>
-      </c>
+      <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
@@ -14818,10 +14953,7 @@
       <c r="K22" s="8">
         <v>118.3</v>
       </c>
-      <c r="L22" s="9">
-        <f t="shared" si="0"/>
-        <v>563.79999999999995</v>
-      </c>
+      <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
@@ -14862,10 +14994,7 @@
       <c r="K23" s="8">
         <v>126.1</v>
       </c>
-      <c r="L23" s="9">
-        <f t="shared" si="0"/>
-        <v>575.20000000000005</v>
-      </c>
+      <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
@@ -14899,10 +15028,7 @@
       <c r="K24" s="8">
         <v>121.5</v>
       </c>
-      <c r="L24" s="9">
-        <f t="shared" si="0"/>
-        <v>523</v>
-      </c>
+      <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
@@ -14929,7 +15055,7 @@
       <c r="F25" s="9"/>
       <c r="G25" s="9">
         <f>L25+H25+J25</f>
-        <v>990</v>
+        <v>442.1</v>
       </c>
       <c r="H25" s="8">
         <v>244.3</v>
@@ -14941,10 +15067,7 @@
       <c r="K25" s="8">
         <v>105.8</v>
       </c>
-      <c r="L25" s="9">
-        <f t="shared" si="0"/>
-        <v>547.90000000000009</v>
-      </c>
+      <c r="L25" s="9"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
@@ -14968,8 +15091,8 @@
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9">
-        <f t="shared" ref="G26:G34" si="2">L26+H26+J26</f>
-        <v>1077.5</v>
+        <f t="shared" ref="G26:G34" si="1">L26+H26+J26</f>
+        <v>491.1</v>
       </c>
       <c r="H26" s="8">
         <v>278.3</v>
@@ -14981,10 +15104,7 @@
       <c r="K26" s="8">
         <v>95.3</v>
       </c>
-      <c r="L26" s="9">
-        <f t="shared" si="0"/>
-        <v>586.40000000000009</v>
-      </c>
+      <c r="L26" s="9"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
@@ -15010,8 +15130,8 @@
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9">
-        <f t="shared" si="2"/>
-        <v>971.7</v>
+        <f t="shared" si="1"/>
+        <v>435.3</v>
       </c>
       <c r="H27" s="8">
         <v>219.8</v>
@@ -15025,10 +15145,7 @@
       <c r="K27" s="8">
         <v>101.1</v>
       </c>
-      <c r="L27" s="9">
-        <f t="shared" si="0"/>
-        <v>536.40000000000009</v>
-      </c>
+      <c r="L27" s="9"/>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
       <c r="O27" s="9"/>
@@ -15052,8 +15169,8 @@
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9">
-        <f t="shared" si="2"/>
-        <v>966.6</v>
+        <f t="shared" si="1"/>
+        <v>431.2</v>
       </c>
       <c r="H28" s="8">
         <v>207.1</v>
@@ -15065,10 +15182,7 @@
       <c r="K28" s="8">
         <v>104.2</v>
       </c>
-      <c r="L28" s="9">
-        <f t="shared" si="0"/>
-        <v>535.4</v>
-      </c>
+      <c r="L28" s="9"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
@@ -15091,8 +15205,8 @@
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9">
-        <f t="shared" si="2"/>
-        <v>1043.2</v>
+        <f t="shared" si="1"/>
+        <v>474</v>
       </c>
       <c r="H29" s="8">
         <v>254.4</v>
@@ -15104,10 +15218,7 @@
       <c r="K29" s="8">
         <v>95.2</v>
       </c>
-      <c r="L29" s="9">
-        <f t="shared" si="0"/>
-        <v>569.20000000000005</v>
-      </c>
+      <c r="L29" s="9"/>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
       <c r="O29" s="9"/>
@@ -15131,8 +15242,8 @@
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9">
-        <f t="shared" si="2"/>
-        <v>1246.0999999999999</v>
+        <f t="shared" si="1"/>
+        <v>573.79999999999995</v>
       </c>
       <c r="H30" s="8">
         <v>347</v>
@@ -15144,10 +15255,7 @@
       <c r="K30" s="8">
         <v>98.5</v>
       </c>
-      <c r="L30" s="9">
-        <f t="shared" si="0"/>
-        <v>672.3</v>
-      </c>
+      <c r="L30" s="9"/>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
@@ -15171,8 +15279,8 @@
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9">
-        <f t="shared" si="2"/>
-        <v>1216.2</v>
+        <f t="shared" si="1"/>
+        <v>561.20000000000005</v>
       </c>
       <c r="H31" s="8">
         <v>300</v>
@@ -15184,10 +15292,7 @@
       <c r="K31" s="8">
         <v>93.8</v>
       </c>
-      <c r="L31" s="9">
-        <f t="shared" si="0"/>
-        <v>655</v>
-      </c>
+      <c r="L31" s="9"/>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
@@ -15213,8 +15318,8 @@
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9">
-        <f t="shared" si="2"/>
-        <v>947.90000000000009</v>
+        <f t="shared" si="1"/>
+        <v>437.29999999999995</v>
       </c>
       <c r="H32" s="8">
         <v>251.6</v>
@@ -15228,10 +15333,7 @@
       <c r="K32" s="8">
         <v>73.3</v>
       </c>
-      <c r="L32" s="9">
-        <f t="shared" si="0"/>
-        <v>510.6</v>
-      </c>
+      <c r="L32" s="9"/>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
       <c r="O32" s="9"/>
@@ -15255,8 +15357,8 @@
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9">
-        <f t="shared" si="2"/>
-        <v>1155.2</v>
+        <f t="shared" si="1"/>
+        <v>533.6</v>
       </c>
       <c r="H33" s="8">
         <v>334.3</v>
@@ -15268,10 +15370,7 @@
       <c r="K33" s="8">
         <v>88</v>
       </c>
-      <c r="L33" s="9">
-        <f t="shared" si="0"/>
-        <v>621.6</v>
-      </c>
+      <c r="L33" s="9"/>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
@@ -15296,8 +15395,8 @@
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9">
-        <f t="shared" si="2"/>
-        <v>1103</v>
+        <f t="shared" si="1"/>
+        <v>502.5</v>
       </c>
       <c r="H34" s="8">
         <v>303.39999999999998</v>
@@ -15311,10 +15410,7 @@
       <c r="K34" s="8">
         <v>98</v>
       </c>
-      <c r="L34" s="9">
-        <f t="shared" si="0"/>
-        <v>600.5</v>
-      </c>
+      <c r="L34" s="9"/>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
@@ -15345,10 +15441,7 @@
       <c r="K35" s="8">
         <v>84.1</v>
       </c>
-      <c r="L35" s="9">
-        <f t="shared" si="0"/>
-        <v>532.6</v>
-      </c>
+      <c r="L35" s="9"/>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
       <c r="O35" s="9"/>
@@ -15382,10 +15475,7 @@
       <c r="K36" s="8">
         <v>54.9</v>
       </c>
-      <c r="L36" s="9">
-        <f t="shared" si="0"/>
-        <v>675.5</v>
-      </c>
+      <c r="L36" s="9"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
@@ -15421,10 +15511,7 @@
       <c r="K37" s="8">
         <v>58.2</v>
       </c>
-      <c r="L37" s="9">
-        <f t="shared" si="0"/>
-        <v>752.2</v>
-      </c>
+      <c r="L37" s="9"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
@@ -15458,10 +15545,7 @@
       <c r="K38" s="8">
         <v>40.1</v>
       </c>
-      <c r="L38" s="9">
-        <f t="shared" si="0"/>
-        <v>713.30000000000007</v>
-      </c>
+      <c r="L38" s="9"/>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
@@ -15495,10 +15579,7 @@
       <c r="K39" s="8">
         <v>37.9</v>
       </c>
-      <c r="L39" s="9">
-        <f t="shared" si="0"/>
-        <v>721.8</v>
-      </c>
+      <c r="L39" s="9"/>
       <c r="M39" s="9"/>
       <c r="N39" s="8">
         <v>4184</v>
@@ -16049,7 +16130,7 @@
       <c r="C55" s="8">
         <v>852</v>
       </c>
-      <c r="D55" s="8"/>
+      <c r="D55" s="78"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
@@ -17403,8 +17484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B1BC36-79CC-403E-BDAB-F4ACF4DC04E2}">
   <dimension ref="A1:BR88"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17448,6 +17529,9 @@
       <c r="A4" s="14">
         <v>1947</v>
       </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
@@ -17535,7 +17619,7 @@
       <c r="A19" s="14">
         <v>1962</v>
       </c>
-      <c r="B19" s="29">
+      <c r="B19" s="8">
         <v>16.399999999999999</v>
       </c>
     </row>
@@ -17561,7 +17645,7 @@
       <c r="A23" s="14">
         <v>1966</v>
       </c>
-      <c r="B23" s="29">
+      <c r="B23" s="8">
         <v>34.299999999999997</v>
       </c>
     </row>
@@ -17575,7 +17659,7 @@
       <c r="A25" s="14">
         <v>1968</v>
       </c>
-      <c r="B25" s="29">
+      <c r="B25" s="8">
         <v>60.3</v>
       </c>
     </row>
@@ -17694,36 +17778,31 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
         <v>1992</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
         <v>1993</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>1994</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
         <v>1995</v>
       </c>
-      <c r="C52" s="9">
-        <v>3342.9110000000001</v>
-      </c>
-      <c r="D52" s="9">
-        <v>1118.7159999999999</v>
-      </c>
-      <c r="E52" s="9">
-        <v>1011.47</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+    </row>
+    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
         <v>1996</v>
       </c>
@@ -17731,203 +17810,215 @@
         <f>34.119+13.615+318.491+72.092+14.557</f>
         <v>452.87399999999997</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C53" s="8">
         <v>1260.895</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D53" s="8">
         <v>1189.998</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E53" s="8">
         <v>1004.845</v>
       </c>
-      <c r="F53" s="9">
+      <c r="F53" s="8">
         <v>2784.5149999999999</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H53" s="77"/>
+    </row>
+    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14">
         <v>1997</v>
       </c>
-      <c r="C54" s="9">
+      <c r="B54" s="8"/>
+      <c r="C54" s="8">
         <v>907.14300000000003</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D54" s="8">
         <v>1785.8679999999999</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E54" s="8">
         <v>805.77300000000002</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F54" s="8">
         <v>2963.442</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="14">
         <v>1998</v>
       </c>
-      <c r="C55" s="9">
+      <c r="B55" s="8"/>
+      <c r="C55" s="8">
         <v>905.85</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D55" s="8">
         <v>2802.2809999999999</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E55" s="8">
         <v>921.94200000000001</v>
       </c>
-      <c r="F55" s="9">
+      <c r="F55" s="8">
         <v>2466.5990000000002</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="14">
         <v>1999</v>
       </c>
-      <c r="C56" s="9">
+      <c r="B56" s="8"/>
+      <c r="C56" s="8">
         <v>1316.0060000000001</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D56" s="8">
         <v>3123.2429999999999</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E56" s="8">
         <v>1182.327</v>
       </c>
-      <c r="F56" s="9">
+      <c r="F56" s="8">
         <v>1875.9639999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="14">
         <v>2000</v>
       </c>
-      <c r="C57" s="9">
+      <c r="B57" s="8"/>
+      <c r="C57" s="8">
         <v>1522.134</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57" s="8">
         <v>3855.817</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E57" s="8">
         <v>1221.732</v>
       </c>
-      <c r="F57" s="9">
+      <c r="F57" s="8">
         <v>1870.4659999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="14">
         <v>2001</v>
       </c>
-      <c r="C58" s="9">
+      <c r="B58" s="8"/>
+      <c r="C58" s="8">
         <v>1334.1020000000001</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D58" s="8">
         <v>3597.0790000000002</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E58" s="8">
         <v>1316.9829999999999</v>
       </c>
-      <c r="F58" s="9">
+      <c r="F58" s="8">
         <v>2695.3890000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="14">
         <v>2002</v>
       </c>
-      <c r="C59" s="9">
+      <c r="B59" s="8"/>
+      <c r="C59" s="8">
         <v>1448.894</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D59" s="8">
         <v>3548.6179999999999</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E59" s="8">
         <v>1368.0340000000001</v>
       </c>
-      <c r="F59" s="9">
+      <c r="F59" s="8">
         <v>3039.223</v>
       </c>
     </row>
-    <row r="60" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="14">
         <v>2003</v>
       </c>
-      <c r="C60" s="9">
+      <c r="B60" s="8"/>
+      <c r="C60" s="8">
         <v>1797.1279999999999</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D60" s="8">
         <v>3896.3139999999999</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E60" s="8">
         <v>1194.9259999999999</v>
       </c>
-      <c r="F60" s="9">
+      <c r="F60" s="8">
         <v>3882.6909999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="14">
         <v>2004</v>
       </c>
-      <c r="C61" s="9">
+      <c r="B61" s="8"/>
+      <c r="C61" s="8">
         <v>1249.3679999999999</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D61" s="8">
         <v>4279.7560000000003</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E61" s="8">
         <v>1320.597</v>
       </c>
-      <c r="F61" s="9">
+      <c r="F61" s="8">
         <v>3659.049</v>
       </c>
     </row>
-    <row r="62" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="14">
         <v>2005</v>
       </c>
-      <c r="C62" s="9">
+      <c r="B62" s="8"/>
+      <c r="C62" s="8">
         <v>1161.8030000000001</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D62" s="8">
         <v>4499.4750000000004</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E62" s="8">
         <v>4045.0520000000001</v>
       </c>
-      <c r="F62" s="9">
+      <c r="F62" s="8">
         <v>4483.7669999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="14">
         <v>2006</v>
       </c>
-      <c r="C63" s="9">
+      <c r="B63" s="8"/>
+      <c r="C63" s="8">
         <v>1276.7460000000001</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D63" s="8">
         <v>5367.95</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E63" s="8">
         <v>2544.9380000000001</v>
       </c>
-      <c r="F63" s="9">
+      <c r="F63" s="8">
         <v>5951.0630000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="14">
         <v>2007</v>
       </c>
-      <c r="C64" s="9">
+      <c r="B64" s="8"/>
+      <c r="C64" s="8">
         <v>1605.365</v>
       </c>
-      <c r="D64" s="9">
+      <c r="D64" s="8">
         <v>5439.1580000000004</v>
       </c>
-      <c r="E64" s="9">
+      <c r="E64" s="8">
         <v>2970.2950000000001</v>
       </c>
-      <c r="F64" s="9">
+      <c r="F64" s="8">
         <v>6146.1189999999997</v>
       </c>
     </row>
@@ -17935,16 +18026,17 @@
       <c r="A65" s="14">
         <v>2008</v>
       </c>
-      <c r="C65" s="9">
+      <c r="B65" s="8"/>
+      <c r="C65" s="8">
         <v>1534.673</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D65" s="8">
         <v>6083.4660000000003</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E65" s="8">
         <v>2929.0509999999999</v>
       </c>
-      <c r="F65" s="9">
+      <c r="F65" s="8">
         <v>6952.1270000000004</v>
       </c>
     </row>
@@ -17952,16 +18044,19 @@
       <c r="A66" s="14">
         <v>2009</v>
       </c>
-      <c r="C66" s="9">
+      <c r="B66" s="8">
+        <v>176.51494914600244</v>
+      </c>
+      <c r="C66" s="8">
         <v>1130.6949999999999</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D66" s="8">
         <v>6320.268</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E66" s="8">
         <v>2827.9140000000002</v>
       </c>
-      <c r="F66" s="9">
+      <c r="F66" s="8">
         <v>6910.9979999999996</v>
       </c>
     </row>
@@ -17969,16 +18064,19 @@
       <c r="A67" s="14">
         <v>2010</v>
       </c>
-      <c r="C67" s="9">
+      <c r="B67" s="8">
+        <v>211.23224547907401</v>
+      </c>
+      <c r="C67" s="8">
         <v>1329.6479999999999</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D67" s="8">
         <v>6139.7550000000001</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E67" s="8">
         <v>3815.7809999999999</v>
       </c>
-      <c r="F67" s="9">
+      <c r="F67" s="8">
         <v>7344.2380000000003</v>
       </c>
     </row>
@@ -17986,16 +18084,19 @@
       <c r="A68" s="14">
         <v>2011</v>
       </c>
-      <c r="C68" s="9">
+      <c r="B68" s="8">
+        <v>281.66102903318341</v>
+      </c>
+      <c r="C68" s="8">
         <v>952.46199999999999</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D68" s="8">
         <v>6475.9620000000004</v>
       </c>
-      <c r="E68" s="9">
+      <c r="E68" s="8">
         <v>3164.152</v>
       </c>
-      <c r="F68" s="9">
+      <c r="F68" s="8">
         <v>7317.8469999999998</v>
       </c>
     </row>
@@ -18003,16 +18104,19 @@
       <c r="A69" s="14">
         <v>2012</v>
       </c>
-      <c r="C69" s="9">
+      <c r="B69" s="8">
+        <v>258.61767788481325</v>
+      </c>
+      <c r="C69" s="8">
         <v>628.72500000000002</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D69" s="8">
         <v>6033.143</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E69" s="8">
         <v>3120.951</v>
       </c>
-      <c r="F69" s="9">
+      <c r="F69" s="8">
         <v>5640.6170000000002</v>
       </c>
     </row>
@@ -18020,16 +18124,19 @@
       <c r="A70" s="14">
         <v>2013</v>
       </c>
-      <c r="C70" s="9">
+      <c r="B70" s="8">
+        <v>240.82834333336518</v>
+      </c>
+      <c r="C70" s="8">
         <v>627.096</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D70" s="8">
         <v>5448.9610000000002</v>
       </c>
-      <c r="E70" s="9">
+      <c r="E70" s="8">
         <v>4281.59</v>
       </c>
-      <c r="F70" s="9">
+      <c r="F70" s="8">
         <v>7345.0559999999996</v>
       </c>
     </row>
@@ -18037,16 +18144,17 @@
       <c r="A71" s="14">
         <v>2014</v>
       </c>
-      <c r="C71" s="9">
+      <c r="B71" s="8"/>
+      <c r="C71" s="8">
         <v>555.11800000000005</v>
       </c>
-      <c r="D71" s="9">
+      <c r="D71" s="8">
         <v>6543.2629999999999</v>
       </c>
-      <c r="E71" s="9">
+      <c r="E71" s="8">
         <v>4083.29</v>
       </c>
-      <c r="F71" s="9">
+      <c r="F71" s="8">
         <v>7129.8689999999997</v>
       </c>
     </row>
@@ -18054,16 +18162,17 @@
       <c r="A72" s="14">
         <v>2015</v>
       </c>
-      <c r="C72" s="9">
+      <c r="B72" s="8"/>
+      <c r="C72" s="8">
         <v>387.24</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D72" s="8">
         <v>6003.8149999999996</v>
       </c>
-      <c r="E72" s="9">
+      <c r="E72" s="8">
         <v>3810.8760000000002</v>
       </c>
-      <c r="F72" s="9">
+      <c r="F72" s="8">
         <v>5698.5159999999996</v>
       </c>
     </row>
@@ -18071,16 +18180,17 @@
       <c r="A73" s="14">
         <v>2016</v>
       </c>
-      <c r="C73" s="9">
+      <c r="B73" s="8"/>
+      <c r="C73" s="8">
         <v>346.61599999999999</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D73" s="8">
         <v>5906.2629999999999</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E73" s="8">
         <v>3707.34</v>
       </c>
-      <c r="F73" s="9">
+      <c r="F73" s="8">
         <v>7545.7790000000005</v>
       </c>
     </row>
@@ -18088,16 +18198,17 @@
       <c r="A74" s="14">
         <v>2017</v>
       </c>
-      <c r="C74" s="9">
+      <c r="B74" s="8"/>
+      <c r="C74" s="8">
         <v>321.06</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D74" s="8">
         <v>6355.4480000000003</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E74" s="8">
         <v>5335.55</v>
       </c>
-      <c r="F74" s="9">
+      <c r="F74" s="8">
         <v>8565.5609999999997</v>
       </c>
     </row>
@@ -18105,16 +18216,17 @@
       <c r="A75" s="14">
         <v>2018</v>
       </c>
-      <c r="C75" s="9">
+      <c r="B75" s="8"/>
+      <c r="C75" s="8">
         <v>437.02</v>
       </c>
-      <c r="D75" s="9">
+      <c r="D75" s="8">
         <v>7094.33</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E75" s="8">
         <v>7508.4030000000002</v>
       </c>
-      <c r="F75" s="9">
+      <c r="F75" s="8">
         <v>6976.6779999999999</v>
       </c>
     </row>
@@ -18122,16 +18234,17 @@
       <c r="A76" s="14">
         <v>2019</v>
       </c>
-      <c r="C76" s="9">
+      <c r="B76" s="8"/>
+      <c r="C76" s="8">
         <v>413.42700000000002</v>
       </c>
-      <c r="D76" s="9">
+      <c r="D76" s="8">
         <v>10045.366</v>
       </c>
-      <c r="E76" s="9">
+      <c r="E76" s="8">
         <v>8350.3739999999998</v>
       </c>
-      <c r="F76" s="9">
+      <c r="F76" s="8">
         <v>5947.47</v>
       </c>
     </row>
@@ -18214,7 +18327,6 @@
     </row>
     <row r="79" spans="1:70" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
-      <c r="B79" s="6"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -18286,7 +18398,6 @@
     </row>
     <row r="80" spans="1:70" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
-      <c r="B80" s="6"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
@@ -18355,6 +18466,26 @@
       <c r="BP80" s="6"/>
       <c r="BQ80" s="6"/>
       <c r="BR80" s="6"/>
+    </row>
+    <row r="82" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="B82" s="19"/>
+      <c r="C82" s="8"/>
+    </row>
+    <row r="83" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="B83" s="19"/>
+      <c r="C83" s="8"/>
+    </row>
+    <row r="84" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="B84" s="19"/>
+      <c r="C84" s="8"/>
+    </row>
+    <row r="85" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="B85" s="19"/>
+      <c r="C85" s="8"/>
+    </row>
+    <row r="86" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="B86" s="19"/>
+      <c r="C86" s="8"/>
     </row>
     <row r="87" spans="1:70" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
@@ -18509,24 +18640,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2629125-5F59-4D2B-B790-D44D45AA199C}">
-  <dimension ref="A1:BQ88"/>
+  <dimension ref="A1:BR88"/>
   <sheetViews>
     <sheetView zoomScale="83" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" style="13" customWidth="1"/>
-    <col min="2" max="4" width="20.7109375" style="8" customWidth="1"/>
-    <col min="5" max="7" width="20.7109375" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="10.7109375" style="6"/>
+    <col min="2" max="5" width="20.7109375" style="8" customWidth="1"/>
+    <col min="6" max="8" width="20.7109375" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="10.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="41" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="41" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -18537,49 +18668,59 @@
         <v>9</v>
       </c>
       <c r="D1" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>1945</v>
       </c>
       <c r="C2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>1946</v>
       </c>
       <c r="C3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>1947</v>
       </c>
       <c r="C4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>1948</v>
       </c>
       <c r="C5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>1949</v>
       </c>
       <c r="C6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>1950</v>
       </c>
@@ -18588,14 +18729,16 @@
         <v>55.599999999999994</v>
       </c>
       <c r="C7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>1951</v>
       </c>
       <c r="C8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>1952</v>
       </c>
@@ -18604,8 +18747,9 @@
         <v>51.661000000000001</v>
       </c>
       <c r="C9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>1953</v>
       </c>
@@ -18614,8 +18758,9 @@
         <v>55.203000000000003</v>
       </c>
       <c r="C10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>1954</v>
       </c>
@@ -18624,8 +18769,9 @@
         <v>51.929000000000002</v>
       </c>
       <c r="C11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>1955</v>
       </c>
@@ -18633,15 +18779,17 @@
         <v>51.9</v>
       </c>
       <c r="C12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>1956</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>1957</v>
       </c>
@@ -18650,32 +18798,37 @@
         <v>48.093075000000006</v>
       </c>
       <c r="C14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>1958</v>
       </c>
       <c r="C15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>1959</v>
       </c>
       <c r="C16" s="9"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>1960</v>
       </c>
       <c r="C17" s="9"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>1961</v>
       </c>
       <c r="C18" s="9"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>1962</v>
       </c>
@@ -18683,26 +18836,30 @@
         <v>142.80000000000001</v>
       </c>
       <c r="C19" s="9"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>1963</v>
       </c>
       <c r="C20" s="9"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>1964</v>
       </c>
       <c r="C21" s="9"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>1965</v>
       </c>
       <c r="C22" s="9"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>1966</v>
       </c>
@@ -18710,14 +18867,16 @@
         <v>137.1</v>
       </c>
       <c r="C23" s="9"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>1967</v>
       </c>
       <c r="C24" s="9"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>1968</v>
       </c>
@@ -18725,147 +18884,183 @@
         <v>159</v>
       </c>
       <c r="C25" s="9"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>1969</v>
       </c>
       <c r="C26" s="9"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>1970</v>
       </c>
       <c r="C27" s="9"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>1971</v>
       </c>
       <c r="C28" s="9"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>1972</v>
       </c>
       <c r="C29" s="9"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>1973</v>
       </c>
       <c r="C30" s="9"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>1974</v>
       </c>
       <c r="C31" s="9"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>1975</v>
       </c>
       <c r="C32" s="9"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>1976</v>
       </c>
       <c r="C33" s="9"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="9"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <v>1977</v>
       </c>
       <c r="C34" s="9"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="9"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>1978</v>
       </c>
       <c r="C35" s="9"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="9"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>1979</v>
       </c>
       <c r="C36" s="9"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="9"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>1980</v>
       </c>
       <c r="C37" s="9"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
         <v>1981</v>
       </c>
       <c r="C38" s="9"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="9"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <v>1982</v>
       </c>
       <c r="C39" s="9"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
         <v>1983</v>
       </c>
       <c r="C40" s="9"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
         <v>1984</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
         <v>1985</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
         <v>1986</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
         <v>1987</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
         <v>1988</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
         <v>1989</v>
       </c>
+      <c r="B46" s="8">
+        <f>2500*0.002*C46/1000</f>
+        <v>223.53</v>
+      </c>
       <c r="C46" s="8">
         <v>44706</v>
       </c>
       <c r="D46" s="8">
         <v>1665</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="8">
+        <f>D46/3</f>
+        <v>555</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
         <v>1990</v>
       </c>
+      <c r="B47" s="8">
+        <f t="shared" ref="B47:B50" si="0">2500*0.002*C47/1000</f>
+        <v>317.02499999999998</v>
+      </c>
       <c r="C47" s="8">
         <v>63405</v>
       </c>
       <c r="D47" s="8">
         <v>2020</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="8">
+        <f t="shared" ref="E47:E50" si="1">D47/3</f>
+        <v>673.33333333333337</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
         <v>1991</v>
+      </c>
+      <c r="B48" s="8">
+        <f t="shared" si="0"/>
+        <v>267.315</v>
       </c>
       <c r="C48" s="8">
         <f>524+52939</f>
@@ -18874,10 +19069,18 @@
       <c r="D48" s="8">
         <v>1528</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E48" s="8">
+        <f t="shared" si="1"/>
+        <v>509.33333333333331</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
         <v>1992</v>
+      </c>
+      <c r="B49" s="8">
+        <f t="shared" si="0"/>
+        <v>296.16500000000002</v>
       </c>
       <c r="C49" s="8">
         <f>678+58555</f>
@@ -18886,10 +19089,18 @@
       <c r="D49" s="8">
         <v>1518</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E49" s="8">
+        <f t="shared" si="1"/>
+        <v>506</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
         <v>1993</v>
+      </c>
+      <c r="B50" s="8">
+        <f t="shared" si="0"/>
+        <v>313.42500000000001</v>
       </c>
       <c r="C50" s="8">
         <f>590+62095</f>
@@ -18898,8 +19109,12 @@
       <c r="D50" s="8">
         <v>1844</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E50" s="8">
+        <f t="shared" si="1"/>
+        <v>614.66666666666663</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>1994</v>
       </c>
@@ -18908,144 +19123,140 @@
         <v>362.90000000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
         <v>1995</v>
       </c>
-      <c r="D52" s="9">
+      <c r="E52" s="9">
         <v>685.298</v>
       </c>
-      <c r="E52" s="9">
+      <c r="F52" s="9">
         <v>320.93</v>
       </c>
-      <c r="F52" s="9">
+      <c r="G52" s="9">
         <v>1162.2539999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
         <v>1996</v>
       </c>
-      <c r="B53" s="8">
-        <f>2.83+5.818+539.536+64.541+13.795</f>
-        <v>626.51999999999987</v>
-      </c>
-      <c r="D53" s="9">
+      <c r="E53" s="9">
         <v>765.65300000000002</v>
       </c>
-      <c r="E53" s="9">
+      <c r="F53" s="9">
         <v>469.85300000000001</v>
       </c>
-      <c r="F53" s="9">
+      <c r="G53" s="9">
         <v>1171.4590000000001</v>
       </c>
-      <c r="G53" s="9">
+      <c r="H53" s="9">
         <v>8358.1959999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="14">
         <v>1997</v>
       </c>
-      <c r="D54" s="9">
+      <c r="E54" s="9">
         <v>654.58600000000001</v>
       </c>
-      <c r="E54" s="9">
+      <c r="F54" s="9">
         <v>719.23299999999995</v>
       </c>
-      <c r="F54" s="9">
+      <c r="G54" s="9">
         <v>1348.1369999999999</v>
       </c>
-      <c r="G54" s="9">
+      <c r="H54" s="9">
         <v>8556.0049999999992</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="14">
         <v>1998</v>
       </c>
-      <c r="D55" s="9">
+      <c r="E55" s="9">
         <v>469.65499999999997</v>
       </c>
-      <c r="E55" s="9">
+      <c r="F55" s="9">
         <v>1594.3130000000001</v>
       </c>
-      <c r="F55" s="9">
+      <c r="G55" s="9">
         <v>1201.1310000000001</v>
       </c>
-      <c r="G55" s="9">
+      <c r="H55" s="9">
         <v>8184.0649999999996</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="14">
         <v>1999</v>
       </c>
-      <c r="D56" s="9">
+      <c r="E56" s="9">
         <v>281.13200000000001</v>
       </c>
-      <c r="E56" s="9">
+      <c r="F56" s="9">
         <v>1488.356</v>
       </c>
-      <c r="F56" s="9">
+      <c r="G56" s="9">
         <v>1173.105</v>
       </c>
-      <c r="G56" s="9">
+      <c r="H56" s="9">
         <v>4940.4719999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="14">
         <v>2000</v>
       </c>
-      <c r="D57" s="9">
+      <c r="E57" s="9">
         <v>268.596</v>
       </c>
-      <c r="E57" s="9">
+      <c r="F57" s="9">
         <v>949.30399999999997</v>
       </c>
-      <c r="F57" s="9">
+      <c r="G57" s="9">
         <v>1237.885</v>
       </c>
-      <c r="G57" s="9">
+      <c r="H57" s="9">
         <v>4888.8850000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="14">
         <v>2001</v>
       </c>
-      <c r="D58" s="9">
+      <c r="E58" s="9">
         <v>169.071</v>
       </c>
-      <c r="E58" s="9">
+      <c r="F58" s="9">
         <v>470.435</v>
       </c>
-      <c r="F58" s="9">
+      <c r="G58" s="9">
         <v>1432.3889999999999</v>
       </c>
-      <c r="G58" s="9">
+      <c r="H58" s="9">
         <v>4584.5640000000003</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="14">
         <v>2002</v>
       </c>
-      <c r="D59" s="9">
+      <c r="E59" s="9">
         <v>284.79199999999997</v>
       </c>
-      <c r="E59" s="9">
+      <c r="F59" s="9">
         <v>822.06100000000004</v>
       </c>
-      <c r="F59" s="9">
+      <c r="G59" s="9">
         <v>1613.0530000000001</v>
       </c>
-      <c r="G59" s="9">
+      <c r="H59" s="9">
         <v>7137.2579999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="14">
         <v>2003</v>
       </c>
@@ -19053,57 +19264,57 @@
         <f>0.32*937.14</f>
         <v>299.88479999999998</v>
       </c>
-      <c r="D60" s="9">
+      <c r="E60" s="9">
         <v>317.03800000000001</v>
       </c>
-      <c r="E60" s="9">
+      <c r="F60" s="9">
         <v>642.14</v>
       </c>
-      <c r="F60" s="9">
+      <c r="G60" s="9">
         <v>1662.3869999999999</v>
       </c>
-      <c r="G60" s="9">
+      <c r="H60" s="9">
         <v>8209.3819999999996</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="14">
         <v>2004</v>
       </c>
       <c r="B61" s="8">
         <v>370</v>
       </c>
-      <c r="D61" s="9">
+      <c r="E61" s="9">
         <v>320.613</v>
       </c>
-      <c r="E61" s="9">
+      <c r="F61" s="9">
         <v>688.61400000000003</v>
       </c>
-      <c r="F61" s="9">
+      <c r="G61" s="9">
         <v>1574.7950000000001</v>
       </c>
-      <c r="G61" s="9">
+      <c r="H61" s="9">
         <v>6358.19</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="14">
         <v>2005</v>
       </c>
-      <c r="D62" s="9">
+      <c r="E62" s="9">
         <v>459.02699999999999</v>
       </c>
-      <c r="E62" s="9">
+      <c r="F62" s="9">
         <v>996.48199999999997</v>
       </c>
-      <c r="F62" s="9">
+      <c r="G62" s="9">
         <v>1585.972</v>
       </c>
-      <c r="G62" s="9">
+      <c r="H62" s="9">
         <v>7072.6540000000005</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="14">
         <v>2006</v>
       </c>
@@ -19111,20 +19322,20 @@
         <f>0.32*1151.222</f>
         <v>368.39103999999998</v>
       </c>
-      <c r="D63" s="9">
+      <c r="E63" s="9">
         <v>497.476</v>
       </c>
-      <c r="E63" s="9">
+      <c r="F63" s="9">
         <v>1451.921</v>
       </c>
-      <c r="F63" s="9">
+      <c r="G63" s="9">
         <v>1912.742</v>
       </c>
-      <c r="G63" s="9">
+      <c r="H63" s="9">
         <v>10086.553</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="14">
         <v>2007</v>
       </c>
@@ -19132,20 +19343,20 @@
         <f>0.28*1154.847</f>
         <v>323.35716000000002</v>
       </c>
-      <c r="D64" s="9">
+      <c r="E64" s="9">
         <v>459.43</v>
       </c>
-      <c r="E64" s="9">
+      <c r="F64" s="9">
         <v>2011.7090000000001</v>
       </c>
-      <c r="F64" s="9">
+      <c r="G64" s="9">
         <v>2279.8539999999998</v>
       </c>
-      <c r="G64" s="9">
+      <c r="H64" s="9">
         <v>11111.138000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
         <v>2008</v>
       </c>
@@ -19153,217 +19364,234 @@
         <f>0.36*992.96</f>
         <v>357.46559999999999</v>
       </c>
-      <c r="D65" s="9">
+      <c r="E65" s="9">
         <v>482.06700000000001</v>
       </c>
-      <c r="E65" s="9">
+      <c r="F65" s="9">
         <v>2247.4259999999999</v>
       </c>
-      <c r="F65" s="9">
+      <c r="G65" s="9">
         <v>1850.7639999999999</v>
       </c>
-      <c r="G65" s="9">
+      <c r="H65" s="9">
         <v>11390.635</v>
       </c>
     </row>
-    <row r="66" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A66" s="14">
         <v>2009</v>
       </c>
-      <c r="D66" s="9">
+      <c r="B66" s="8">
+        <v>184.45625347250299</v>
+      </c>
+      <c r="E66" s="9">
         <v>415.94900000000001</v>
       </c>
-      <c r="E66" s="9">
+      <c r="F66" s="9">
         <v>2851.9110000000001</v>
       </c>
-      <c r="F66" s="9">
+      <c r="G66" s="9">
         <v>1634.904</v>
       </c>
-      <c r="G66" s="9">
+      <c r="H66" s="9">
         <v>10575.946</v>
       </c>
     </row>
-    <row r="67" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
         <v>2010</v>
       </c>
-      <c r="D67" s="9">
+      <c r="B67" s="8">
+        <v>221.58908812859548</v>
+      </c>
+      <c r="E67" s="9">
         <v>492.572</v>
       </c>
-      <c r="E67" s="9">
+      <c r="F67" s="9">
         <v>3346.4029999999998</v>
       </c>
-      <c r="F67" s="9">
+      <c r="G67" s="9">
         <v>1666.403</v>
       </c>
-      <c r="G67" s="9">
+      <c r="H67" s="9">
         <v>9127.5490000000009</v>
       </c>
     </row>
-    <row r="68" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A68" s="14">
         <v>2011</v>
       </c>
-      <c r="D68" s="9">
+      <c r="B68" s="8">
+        <v>376.69107256916789</v>
+      </c>
+      <c r="E68" s="9">
         <v>405.72899999999998</v>
       </c>
-      <c r="E68" s="9">
+      <c r="F68" s="9">
         <v>3783.5909999999999</v>
       </c>
-      <c r="F68" s="9">
+      <c r="G68" s="9">
         <v>1713.635</v>
       </c>
-      <c r="G68" s="9">
+      <c r="H68" s="9">
         <v>14093.241</v>
       </c>
     </row>
-    <row r="69" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
         <v>2012</v>
       </c>
-      <c r="D69" s="9">
+      <c r="B69" s="8">
+        <v>242.89895866299491</v>
+      </c>
+      <c r="E69" s="9">
         <v>429.05399999999997</v>
       </c>
-      <c r="E69" s="9">
+      <c r="F69" s="9">
         <v>2384.326</v>
       </c>
-      <c r="F69" s="9">
+      <c r="G69" s="9">
         <v>2062.5659999999998</v>
       </c>
-      <c r="G69" s="9">
+      <c r="H69" s="9">
         <v>10293.34</v>
       </c>
     </row>
-    <row r="70" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A70" s="14">
         <v>2013</v>
       </c>
-      <c r="D70" s="9">
+      <c r="B70" s="8">
+        <v>231.19263492666246</v>
+      </c>
+      <c r="E70" s="9">
         <v>462.90199999999999</v>
       </c>
-      <c r="E70" s="9">
+      <c r="F70" s="9">
         <v>2389.482</v>
       </c>
-      <c r="F70" s="9">
+      <c r="G70" s="9">
         <v>1346.424</v>
       </c>
-      <c r="G70" s="9">
+      <c r="H70" s="9">
         <v>8659.35</v>
       </c>
     </row>
-    <row r="71" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A71" s="14">
         <v>2014</v>
       </c>
-      <c r="D71" s="9">
+      <c r="E71" s="9">
         <v>498.60500000000002</v>
       </c>
-      <c r="E71" s="9">
+      <c r="F71" s="9">
         <v>3164.163</v>
       </c>
-      <c r="F71" s="9">
+      <c r="G71" s="9">
         <v>1557.3989999999999</v>
       </c>
-      <c r="G71" s="9">
+      <c r="H71" s="9">
         <v>7399.1779999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A72" s="14">
         <v>2015</v>
       </c>
-      <c r="D72" s="9">
+      <c r="E72" s="9">
         <v>476.73</v>
       </c>
-      <c r="E72" s="9">
+      <c r="F72" s="9">
         <v>3996.3409999999999</v>
       </c>
-      <c r="F72" s="9">
+      <c r="G72" s="9">
         <v>1356.471</v>
       </c>
-      <c r="G72" s="9">
+      <c r="H72" s="9">
         <v>6387.3689999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A73" s="14">
         <v>2016</v>
       </c>
-      <c r="D73" s="9">
+      <c r="E73" s="9">
         <v>507.42700000000002</v>
       </c>
-      <c r="E73" s="9">
+      <c r="F73" s="9">
         <v>3935.7730000000001</v>
       </c>
-      <c r="F73" s="9">
+      <c r="G73" s="9">
         <v>1874.9659999999999</v>
       </c>
-      <c r="G73" s="9">
+      <c r="H73" s="9">
         <v>6282.6149999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A74" s="14">
         <v>2017</v>
       </c>
-      <c r="D74" s="9">
+      <c r="E74" s="9">
         <v>630.41999999999996</v>
       </c>
-      <c r="E74" s="9">
+      <c r="F74" s="9">
         <v>4064.4549999999999</v>
       </c>
-      <c r="F74" s="9">
+      <c r="G74" s="9">
         <v>1724.53</v>
       </c>
-      <c r="G74" s="9">
+      <c r="H74" s="9">
         <v>6541.6959999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A75" s="14">
         <v>2018</v>
       </c>
-      <c r="D75" s="9">
+      <c r="E75" s="9">
         <v>651.88099999999997</v>
       </c>
-      <c r="E75" s="9">
+      <c r="F75" s="9">
         <v>4240.027</v>
       </c>
-      <c r="F75" s="9">
+      <c r="G75" s="9">
         <v>2437.5100000000002</v>
       </c>
-      <c r="G75" s="9">
+      <c r="H75" s="9">
         <v>5952.5780000000004</v>
       </c>
     </row>
-    <row r="76" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A76" s="14">
         <v>2019</v>
       </c>
-      <c r="D76" s="9">
+      <c r="B76" s="79"/>
+      <c r="E76" s="9">
         <v>820.09100000000001</v>
       </c>
-      <c r="E76" s="9">
+      <c r="F76" s="9">
         <v>4533.4740000000002</v>
       </c>
-      <c r="F76" s="9">
+      <c r="G76" s="9">
         <v>1895.3720000000001</v>
       </c>
-      <c r="G76" s="9">
+      <c r="H76" s="9">
         <v>6887.3760000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A77" s="14">
         <v>2020</v>
       </c>
-    </row>
-    <row r="78" spans="1:69" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="79"/>
+    </row>
+    <row r="78" spans="1:70" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="13"/>
-      <c r="B78" s="8"/>
+      <c r="B78" s="79"/>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
-      <c r="E78" s="6"/>
+      <c r="E78" s="8"/>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
@@ -19428,13 +19656,14 @@
       <c r="BO78" s="6"/>
       <c r="BP78" s="6"/>
       <c r="BQ78" s="6"/>
-    </row>
-    <row r="79" spans="1:69" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BR78" s="6"/>
+    </row>
+    <row r="79" spans="1:70" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="13"/>
-      <c r="B79" s="8"/>
+      <c r="B79" s="79"/>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
-      <c r="E79" s="6"/>
+      <c r="E79" s="8"/>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
@@ -19499,13 +19728,14 @@
       <c r="BO79" s="6"/>
       <c r="BP79" s="6"/>
       <c r="BQ79" s="6"/>
-    </row>
-    <row r="80" spans="1:69" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BR79" s="6"/>
+    </row>
+    <row r="80" spans="1:70" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="13"/>
-      <c r="B80" s="8"/>
+      <c r="B80" s="79"/>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
-      <c r="E80" s="6"/>
+      <c r="E80" s="8"/>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
@@ -19570,13 +19800,32 @@
       <c r="BO80" s="6"/>
       <c r="BP80" s="6"/>
       <c r="BQ80" s="6"/>
-    </row>
-    <row r="87" spans="1:69" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BR80" s="6"/>
+    </row>
+    <row r="81" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="B81" s="79"/>
+    </row>
+    <row r="82" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="B82" s="79"/>
+    </row>
+    <row r="83" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="B83" s="79"/>
+    </row>
+    <row r="84" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="B84" s="79"/>
+    </row>
+    <row r="85" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="B85" s="79"/>
+    </row>
+    <row r="86" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="B86" s="79"/>
+    </row>
+    <row r="87" spans="1:70" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="13"/>
-      <c r="B87" s="8"/>
+      <c r="B87" s="79"/>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
-      <c r="E87" s="6"/>
+      <c r="E87" s="8"/>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
@@ -19641,13 +19890,14 @@
       <c r="BO87" s="6"/>
       <c r="BP87" s="6"/>
       <c r="BQ87" s="6"/>
-    </row>
-    <row r="88" spans="1:69" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BR87" s="6"/>
+    </row>
+    <row r="88" spans="1:70" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="13"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
-      <c r="E88" s="6"/>
+      <c r="E88" s="8"/>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
@@ -19712,6 +19962,7 @@
       <c r="BO88" s="6"/>
       <c r="BP88" s="6"/>
       <c r="BQ88" s="6"/>
+      <c r="BR88" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RawData/FR_RawData_VPython.xlsx
+++ b/RawData/FR_RawData_VPython.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\01_MFA_GlassIndustry\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86C70F8-B33D-440D-B18C-BEC0EB51708C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB11E9A5-ECEC-479D-86C3-376DCFC7B8DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="600" windowWidth="13125" windowHeight="15600" tabRatio="681" activeTab="5" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="681" activeTab="2" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
   </bookViews>
   <sheets>
     <sheet name="stock" sheetId="17" r:id="rId1"/>
@@ -2049,6 +2049,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{E9284692-4669-4E2A-A11A-AAB7846120C9}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L'industrie du verre, Fédération des chambres syndicales de l'industrie du verre, 1954, p.96</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B3" authorId="0" shapeId="0" xr:uid="{CFF53947-859E-4D1D-A40F-DAC5F83467FC}">
       <text>
         <r>
@@ -2062,33 +2075,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{848C10C8-353A-46AC-9D2A-EBE1DC38168B}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Annuaire statistique de la France, 1961, Institut National de la Statistique et des Études Économiques, Paris, 1962, vol66, no8, p. 145</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{B319E186-9275-461A-81DE-C5E2D710136D}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>L'industrie du verre, Fédération des chambres syndicales de l'industrie du verre, 1954, p.96</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{B5E4E444-EE96-4E94-ADDD-B7C40FCFAB07}">
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{B5E4E444-EE96-4E94-ADDD-B7C40FCFAB07}">
       <text>
         <r>
           <rPr>
@@ -2102,6 +2089,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{848C10C8-353A-46AC-9D2A-EBE1DC38168B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Annuaire statistique de la France, 1961, Institut National de la Statistique et des Études Économiques, Paris, 1962, vol66, no8, p. 145</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B5" authorId="0" shapeId="0" xr:uid="{29B804DD-1BCF-48BE-83E2-E21EB35E03F8}">
       <text>
         <r>
@@ -2531,6 +2531,19 @@
             <family val="2"/>
           </rPr>
           <t>Annuaire statistique de la France, 1961, Institut National de la Statistique et des Études Économiques, Paris, 1962, vol66, no8, p. 145</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{3690CE9E-D22A-4B79-B40F-3BFD4594DE57}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>100.000 insulating glass units intalled in Europe in the year 1955. We suppose an average window area of 1.5x1.5m². It represents 2% of the annual production of the year 1970. We generalise this ratio to France and Belgium.</t>
         </r>
       </text>
     </comment>
@@ -9979,9 +9992,6 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -10016,6 +10026,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -10583,7 +10596,7 @@
       <c r="B26" s="22"/>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
-      <c r="E26" s="62"/>
+      <c r="E26" s="61"/>
     </row>
     <row r="27" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
@@ -10834,7 +10847,7 @@
       <c r="E53" s="23">
         <v>151000</v>
       </c>
-      <c r="F53" s="63"/>
+      <c r="F53" s="62"/>
     </row>
     <row r="54" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="21">
@@ -10850,7 +10863,7 @@
         <v>1998</v>
       </c>
       <c r="B55" s="22"/>
-      <c r="C55" s="62"/>
+      <c r="C55" s="61"/>
       <c r="D55" s="23"/>
       <c r="E55" s="23"/>
     </row>
@@ -10878,7 +10891,7 @@
       <c r="B58" s="22"/>
       <c r="C58" s="23"/>
       <c r="D58" s="23"/>
-      <c r="E58" s="62"/>
+      <c r="E58" s="61"/>
     </row>
     <row r="59" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="21">
@@ -14970,11 +14983,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{984B49BA-6D54-42C1-84EE-7F8663080B50}">
   <dimension ref="A1:BS103"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C75" sqref="C75"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15042,7 +15055,9 @@
       <c r="B2" s="8">
         <v>108.3</v>
       </c>
-      <c r="C2" s="8"/>
+      <c r="C2" s="10">
+        <v>0.9</v>
+      </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -15066,9 +15081,13 @@
       <c r="B3" s="8">
         <v>173.8</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <f>D3*2.5*0.009</f>
+        <v>0</v>
+      </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -15092,16 +15111,7 @@
       <c r="B4" s="8">
         <v>198.3</v>
       </c>
-      <c r="C4" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <f>D4*2.5*0.009</f>
-        <v>0</v>
-      </c>
+      <c r="C4" s="8"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="9"/>
@@ -15166,14 +15176,6 @@
         <v>190.4</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="72">
-        <f>0.0015*D27</f>
-        <v>5.2125000000000004</v>
-      </c>
-      <c r="E7" s="8">
-        <f>D7*2.5*0.009</f>
-        <v>0.11728124999999999</v>
-      </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -15341,8 +15343,14 @@
         <v>260.60000000000002</v>
       </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="D12" s="71">
+        <f>0.02*D27</f>
+        <v>69.5</v>
+      </c>
+      <c r="E12" s="8">
+        <f>D12*2.5*0.009</f>
+        <v>1.56375</v>
+      </c>
       <c r="F12" s="8">
         <v>1373.3109999999999</v>
       </c>
@@ -15411,7 +15419,6 @@
         <v>329.6</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="8">
         <v>1853</v>
@@ -15446,7 +15453,6 @@
         <v>361.2</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="8">
         <v>2207</v>
@@ -16456,7 +16462,7 @@
       <c r="B46" s="8">
         <v>775</v>
       </c>
-      <c r="C46" s="8"/>
+      <c r="C46" s="10"/>
       <c r="D46" s="8">
         <v>6760</v>
       </c>
@@ -16491,7 +16497,7 @@
       <c r="B47" s="8">
         <v>875</v>
       </c>
-      <c r="C47" s="8"/>
+      <c r="C47" s="10"/>
       <c r="D47" s="8">
         <v>7062</v>
       </c>
@@ -16527,7 +16533,7 @@
       <c r="B48" s="8">
         <v>820</v>
       </c>
-      <c r="C48" s="8"/>
+      <c r="C48" s="10"/>
       <c r="D48" s="8">
         <v>8047</v>
       </c>
@@ -16564,7 +16570,7 @@
       <c r="B49" s="8">
         <v>827.68499999999995</v>
       </c>
-      <c r="C49" s="8"/>
+      <c r="C49" s="10"/>
       <c r="D49" s="8">
         <v>7945</v>
       </c>
@@ -16601,7 +16607,7 @@
       <c r="B50" s="8">
         <v>809</v>
       </c>
-      <c r="C50" s="8"/>
+      <c r="C50" s="10"/>
       <c r="D50" s="8">
         <v>8091</v>
       </c>
@@ -16673,7 +16679,7 @@
       <c r="B52" s="8">
         <v>853</v>
       </c>
-      <c r="C52" s="8"/>
+      <c r="C52" s="10"/>
       <c r="D52" s="8">
         <v>9563</v>
       </c>
@@ -16702,7 +16708,7 @@
       <c r="B53" s="8">
         <v>751.61</v>
       </c>
-      <c r="C53" s="25"/>
+      <c r="C53" s="10"/>
       <c r="D53" s="8">
         <v>9768</v>
       </c>
@@ -16733,7 +16739,7 @@
       <c r="B54" s="8">
         <v>1038</v>
       </c>
-      <c r="C54" s="8"/>
+      <c r="C54" s="10"/>
       <c r="D54" s="9">
         <v>10243</v>
       </c>
@@ -16764,7 +16770,7 @@
       <c r="B55" s="8">
         <v>852</v>
       </c>
-      <c r="C55" s="60"/>
+      <c r="C55" s="10"/>
       <c r="D55" s="9">
         <v>10926</v>
       </c>
@@ -16795,7 +16801,7 @@
       <c r="B56" s="8">
         <v>788.13499999999999</v>
       </c>
-      <c r="C56" s="25"/>
+      <c r="C56" s="10"/>
       <c r="D56" s="9">
         <v>12257</v>
       </c>
@@ -16826,7 +16832,7 @@
       <c r="B57" s="8">
         <v>860.58299999999997</v>
       </c>
-      <c r="C57" s="8"/>
+      <c r="C57" s="10"/>
       <c r="D57" s="9">
         <v>13383</v>
       </c>
@@ -16860,7 +16866,7 @@
       <c r="B58" s="8">
         <v>831.524</v>
       </c>
-      <c r="C58" s="25"/>
+      <c r="C58" s="10"/>
       <c r="D58" s="9">
         <v>14400</v>
       </c>
@@ -16916,7 +16922,7 @@
       <c r="B60" s="8">
         <v>937.14</v>
       </c>
-      <c r="C60" s="25"/>
+      <c r="C60" s="10"/>
       <c r="D60" s="9">
         <v>14465</v>
       </c>
@@ -16978,7 +16984,7 @@
       <c r="B62" s="8">
         <v>1098.4649999999999</v>
       </c>
-      <c r="C62" s="8"/>
+      <c r="C62" s="10"/>
       <c r="D62" s="9">
         <v>15318.19</v>
       </c>
@@ -17008,7 +17014,7 @@
       <c r="B63" s="9">
         <v>1151.222</v>
       </c>
-      <c r="C63" s="25"/>
+      <c r="C63" s="10"/>
       <c r="D63" s="9">
         <v>16158</v>
       </c>
@@ -17038,6 +17044,7 @@
       <c r="B64" s="9">
         <v>1154.847</v>
       </c>
+      <c r="C64" s="10"/>
       <c r="D64" s="9">
         <v>16730</v>
       </c>
@@ -17067,6 +17074,7 @@
       <c r="B65" s="9">
         <v>992.96</v>
       </c>
+      <c r="C65" s="10"/>
       <c r="D65" s="9">
         <v>16382.708000000001</v>
       </c>
@@ -17096,6 +17104,10 @@
       <c r="B66" s="9">
         <v>820</v>
       </c>
+      <c r="C66" s="10">
+        <f t="shared" ref="C66:C69" si="3">(0.004*2.5)*(D66*2+G66+H66)/B66</f>
+        <v>0.51686693902439029</v>
+      </c>
       <c r="D66" s="9">
         <v>15460.977999999999</v>
       </c>
@@ -17122,6 +17134,10 @@
       </c>
       <c r="B67" s="9">
         <v>890</v>
+      </c>
+      <c r="C67" s="10">
+        <f t="shared" si="3"/>
+        <v>0.50131951685393261</v>
       </c>
       <c r="D67" s="9">
         <v>16209.016</v>
@@ -17152,6 +17168,10 @@
       <c r="B68" s="9">
         <v>1047</v>
       </c>
+      <c r="C68" s="10">
+        <f t="shared" si="3"/>
+        <v>0.43244143266475649</v>
+      </c>
       <c r="D68" s="9">
         <v>16997.707999999999</v>
       </c>
@@ -17181,6 +17201,10 @@
       <c r="B69" s="9">
         <v>855</v>
       </c>
+      <c r="C69" s="10">
+        <f t="shared" si="3"/>
+        <v>0.50729061988304092</v>
+      </c>
       <c r="D69" s="9">
         <v>16424.399000000001</v>
       </c>
@@ -17210,6 +17234,10 @@
       <c r="B70" s="9">
         <v>778</v>
       </c>
+      <c r="C70" s="10">
+        <f>(0.004*2.5)*(D70*2+G70+H70)/B70</f>
+        <v>0.53746739074550132</v>
+      </c>
       <c r="D70" s="9">
         <v>15763.493</v>
       </c>
@@ -17262,6 +17290,7 @@
       <c r="A72" s="14">
         <v>2015</v>
       </c>
+      <c r="C72" s="72"/>
       <c r="D72" s="9">
         <v>15062.705</v>
       </c>
@@ -17314,6 +17343,7 @@
       <c r="A74" s="14">
         <v>2017</v>
       </c>
+      <c r="C74" s="10"/>
       <c r="D74" s="9">
         <v>15696.879000000001</v>
       </c>
@@ -17340,6 +17370,7 @@
       <c r="A75" s="14">
         <v>2018</v>
       </c>
+      <c r="C75" s="10"/>
       <c r="D75" s="9">
         <v>16462.59</v>
       </c>
@@ -17366,6 +17397,7 @@
       <c r="A76" s="14">
         <v>2019</v>
       </c>
+      <c r="C76" s="10"/>
       <c r="D76" s="9">
         <v>17206.73</v>
       </c>
@@ -17786,8 +17818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B1BC36-79CC-403E-BDAB-F4ACF4DC04E2}">
   <dimension ref="A1:BS88"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18000,7 +18032,7 @@
       <c r="A27" s="14">
         <v>1970</v>
       </c>
-      <c r="B27" s="67">
+      <c r="B27" s="66">
         <v>65</v>
       </c>
       <c r="D27" s="8"/>
@@ -18009,7 +18041,7 @@
       <c r="A28" s="14">
         <v>1971</v>
       </c>
-      <c r="B28" s="67">
+      <c r="B28" s="66">
         <v>72</v>
       </c>
       <c r="D28" s="8"/>
@@ -18018,7 +18050,7 @@
       <c r="A29" s="14">
         <v>1972</v>
       </c>
-      <c r="B29" s="67">
+      <c r="B29" s="66">
         <v>98</v>
       </c>
       <c r="D29" s="8"/>
@@ -18027,7 +18059,7 @@
       <c r="A30" s="14">
         <v>1973</v>
       </c>
-      <c r="B30" s="67">
+      <c r="B30" s="66">
         <v>108</v>
       </c>
       <c r="D30" s="8"/>
@@ -18036,7 +18068,7 @@
       <c r="A31" s="14">
         <v>1974</v>
       </c>
-      <c r="B31" s="67">
+      <c r="B31" s="66">
         <v>125</v>
       </c>
       <c r="D31" s="8"/>
@@ -18045,7 +18077,7 @@
       <c r="A32" s="14">
         <v>1975</v>
       </c>
-      <c r="B32" s="67">
+      <c r="B32" s="66">
         <v>107</v>
       </c>
       <c r="D32" s="8"/>
@@ -18054,7 +18086,7 @@
       <c r="A33" s="14">
         <v>1976</v>
       </c>
-      <c r="B33" s="67">
+      <c r="B33" s="66">
         <v>152</v>
       </c>
       <c r="D33" s="8"/>
@@ -18063,7 +18095,7 @@
       <c r="A34" s="14">
         <v>1977</v>
       </c>
-      <c r="B34" s="67">
+      <c r="B34" s="66">
         <v>156</v>
       </c>
       <c r="D34" s="8"/>
@@ -18072,7 +18104,7 @@
       <c r="A35" s="14">
         <v>1978</v>
       </c>
-      <c r="B35" s="67">
+      <c r="B35" s="66">
         <v>161</v>
       </c>
       <c r="D35" s="8"/>
@@ -18081,7 +18113,7 @@
       <c r="A36" s="14">
         <v>1979</v>
       </c>
-      <c r="B36" s="67">
+      <c r="B36" s="66">
         <v>194</v>
       </c>
       <c r="D36" s="9"/>
@@ -18090,7 +18122,7 @@
       <c r="A37" s="14">
         <v>1980</v>
       </c>
-      <c r="B37" s="67">
+      <c r="B37" s="66">
         <v>211</v>
       </c>
       <c r="D37" s="9"/>
@@ -18099,7 +18131,7 @@
       <c r="A38" s="14">
         <v>1981</v>
       </c>
-      <c r="B38" s="67">
+      <c r="B38" s="66">
         <v>201</v>
       </c>
       <c r="D38" s="9"/>
@@ -18108,7 +18140,7 @@
       <c r="A39" s="14">
         <v>1982</v>
       </c>
-      <c r="B39" s="67">
+      <c r="B39" s="66">
         <v>223</v>
       </c>
       <c r="D39" s="8"/>
@@ -18117,7 +18149,7 @@
       <c r="A40" s="14">
         <v>1983</v>
       </c>
-      <c r="B40" s="67">
+      <c r="B40" s="66">
         <v>234</v>
       </c>
       <c r="D40" s="8"/>
@@ -18126,7 +18158,7 @@
       <c r="A41" s="14">
         <v>1984</v>
       </c>
-      <c r="B41" s="67">
+      <c r="B41" s="66">
         <v>244</v>
       </c>
       <c r="D41" s="8"/>
@@ -18135,7 +18167,7 @@
       <c r="A42" s="14">
         <v>1985</v>
       </c>
-      <c r="B42" s="67">
+      <c r="B42" s="66">
         <v>258</v>
       </c>
       <c r="D42" s="8"/>
@@ -18144,7 +18176,7 @@
       <c r="A43" s="14">
         <v>1986</v>
       </c>
-      <c r="B43" s="67">
+      <c r="B43" s="66">
         <v>278</v>
       </c>
       <c r="D43" s="8"/>
@@ -18153,7 +18185,7 @@
       <c r="A44" s="14">
         <v>1987</v>
       </c>
-      <c r="B44" s="67">
+      <c r="B44" s="66">
         <v>304</v>
       </c>
       <c r="D44" s="8"/>
@@ -19195,10 +19227,10 @@
   <dimension ref="A1:BS88"/>
   <sheetViews>
     <sheetView zoomScale="83" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19473,7 +19505,7 @@
       <c r="A27" s="14">
         <v>1970</v>
       </c>
-      <c r="B27" s="67">
+      <c r="B27" s="66">
         <v>150</v>
       </c>
       <c r="D27" s="9"/>
@@ -19483,7 +19515,7 @@
       <c r="A28" s="14">
         <v>1971</v>
       </c>
-      <c r="B28" s="67">
+      <c r="B28" s="66">
         <v>159.85</v>
       </c>
       <c r="C28" s="1"/>
@@ -19494,7 +19526,7 @@
       <c r="A29" s="14">
         <v>1972</v>
       </c>
-      <c r="B29" s="67">
+      <c r="B29" s="66">
         <v>179.55</v>
       </c>
       <c r="C29" s="1"/>
@@ -19505,7 +19537,7 @@
       <c r="A30" s="14">
         <v>1973</v>
       </c>
-      <c r="B30" s="67">
+      <c r="B30" s="66">
         <v>208.79</v>
       </c>
       <c r="C30" s="1"/>
@@ -19516,7 +19548,7 @@
       <c r="A31" s="14">
         <v>1974</v>
       </c>
-      <c r="B31" s="67">
+      <c r="B31" s="66">
         <v>233.89</v>
       </c>
       <c r="C31" s="1"/>
@@ -19527,7 +19559,7 @@
       <c r="A32" s="14">
         <v>1975</v>
       </c>
-      <c r="B32" s="67">
+      <c r="B32" s="66">
         <v>204.02</v>
       </c>
       <c r="C32" s="1"/>
@@ -19538,7 +19570,7 @@
       <c r="A33" s="14">
         <v>1976</v>
       </c>
-      <c r="B33" s="67">
+      <c r="B33" s="66">
         <v>225.31</v>
       </c>
       <c r="C33" s="1"/>
@@ -19549,7 +19581,7 @@
       <c r="A34" s="14">
         <v>1977</v>
       </c>
-      <c r="B34" s="67">
+      <c r="B34" s="66">
         <v>248.19</v>
       </c>
       <c r="C34" s="1"/>
@@ -19560,7 +19592,7 @@
       <c r="A35" s="14">
         <v>1978</v>
       </c>
-      <c r="B35" s="67">
+      <c r="B35" s="66">
         <v>263.45</v>
       </c>
       <c r="C35" s="1"/>
@@ -19571,7 +19603,7 @@
       <c r="A36" s="14">
         <v>1979</v>
       </c>
-      <c r="B36" s="67">
+      <c r="B36" s="66">
         <v>300.63</v>
       </c>
       <c r="C36" s="1"/>
@@ -19582,7 +19614,7 @@
       <c r="A37" s="14">
         <v>1980</v>
       </c>
-      <c r="B37" s="67">
+      <c r="B37" s="66">
         <v>317.79000000000002</v>
       </c>
       <c r="C37" s="1"/>
@@ -19593,7 +19625,7 @@
       <c r="A38" s="14">
         <v>1981</v>
       </c>
-      <c r="B38" s="67">
+      <c r="B38" s="66">
         <v>333.36</v>
       </c>
       <c r="C38" s="1"/>
@@ -19604,7 +19636,7 @@
       <c r="A39" s="14">
         <v>1982</v>
       </c>
-      <c r="B39" s="67">
+      <c r="B39" s="66">
         <v>332.41</v>
       </c>
       <c r="C39" s="1"/>
@@ -19615,7 +19647,7 @@
       <c r="A40" s="14">
         <v>1983</v>
       </c>
-      <c r="B40" s="67">
+      <c r="B40" s="66">
         <v>358.47</v>
       </c>
       <c r="C40" s="1"/>
@@ -19626,7 +19658,7 @@
       <c r="A41" s="14">
         <v>1984</v>
       </c>
-      <c r="B41" s="67">
+      <c r="B41" s="66">
         <v>381.67</v>
       </c>
       <c r="C41" s="1"/>
@@ -19636,7 +19668,7 @@
       <c r="A42" s="14">
         <v>1985</v>
       </c>
-      <c r="B42" s="67">
+      <c r="B42" s="66">
         <v>395.65</v>
       </c>
       <c r="C42" s="1"/>
@@ -19646,7 +19678,7 @@
       <c r="A43" s="14">
         <v>1986</v>
       </c>
-      <c r="B43" s="67">
+      <c r="B43" s="66">
         <v>360.69</v>
       </c>
       <c r="C43" s="1"/>
@@ -19656,7 +19688,7 @@
       <c r="A44" s="14">
         <v>1987</v>
       </c>
-      <c r="B44" s="67">
+      <c r="B44" s="66">
         <v>382.94</v>
       </c>
       <c r="C44" s="1"/>
@@ -19803,7 +19835,7 @@
       <c r="B52" s="8">
         <v>263.60715000000005</v>
       </c>
-      <c r="D52" s="61"/>
+      <c r="D52" s="60"/>
       <c r="E52" s="9">
         <v>685.298</v>
       </c>
@@ -20767,7 +20799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6548A2BA-3FC0-4741-B7C4-68BAB960C857}">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
@@ -20789,7 +20821,7 @@
       <c r="A2" s="14">
         <v>1945</v>
       </c>
-      <c r="B2" s="69">
+      <c r="B2" s="68">
         <v>39660</v>
       </c>
     </row>
@@ -20797,7 +20829,7 @@
       <c r="A3" s="14">
         <v>1946</v>
       </c>
-      <c r="B3" s="69">
+      <c r="B3" s="68">
         <v>40287</v>
       </c>
     </row>
@@ -20805,7 +20837,7 @@
       <c r="A4" s="14">
         <v>1947</v>
       </c>
-      <c r="B4" s="69">
+      <c r="B4" s="68">
         <v>40679</v>
       </c>
     </row>
@@ -20813,7 +20845,7 @@
       <c r="A5" s="14">
         <v>1948</v>
       </c>
-      <c r="B5" s="69">
+      <c r="B5" s="68">
         <v>41112</v>
       </c>
     </row>
@@ -20821,7 +20853,7 @@
       <c r="A6" s="14">
         <v>1949</v>
       </c>
-      <c r="B6" s="69">
+      <c r="B6" s="68">
         <v>41480</v>
       </c>
     </row>
@@ -20829,156 +20861,156 @@
       <c r="A7" s="14">
         <v>1950</v>
       </c>
-      <c r="B7" s="69">
+      <c r="B7" s="68">
         <v>41647.258000000002</v>
       </c>
-      <c r="F7" s="68"/>
+      <c r="F7" s="67"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>1951</v>
       </c>
-      <c r="B8" s="69">
+      <c r="B8" s="68">
         <v>42010.088000000003</v>
       </c>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>1952</v>
       </c>
-      <c r="B9" s="69">
+      <c r="B9" s="68">
         <v>42300.981</v>
       </c>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>1953</v>
       </c>
-      <c r="B10" s="69">
+      <c r="B10" s="68">
         <v>42618.353999999999</v>
       </c>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>1954</v>
       </c>
-      <c r="B11" s="69">
+      <c r="B11" s="68">
         <v>42885.137999999999</v>
       </c>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>1955</v>
       </c>
-      <c r="B12" s="69">
+      <c r="B12" s="68">
         <v>43227.872000000003</v>
       </c>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>1956</v>
       </c>
-      <c r="B13" s="69">
+      <c r="B13" s="68">
         <v>43627.466999999997</v>
       </c>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>1957</v>
       </c>
-      <c r="B14" s="69">
+      <c r="B14" s="68">
         <v>44058.682999999997</v>
       </c>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>1958</v>
       </c>
-      <c r="B15" s="69">
+      <c r="B15" s="68">
         <v>44563.042999999998</v>
       </c>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>1959</v>
       </c>
-      <c r="B16" s="69">
+      <c r="B16" s="68">
         <v>45014.661999999997</v>
       </c>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>1960</v>
       </c>
-      <c r="B17" s="69">
+      <c r="B17" s="68">
         <v>45684</v>
       </c>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>1961</v>
       </c>
-      <c r="B18" s="69">
+      <c r="B18" s="68">
         <v>46163</v>
       </c>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>1962</v>
       </c>
-      <c r="B19" s="69">
+      <c r="B19" s="68">
         <v>46998</v>
       </c>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>1963</v>
       </c>
-      <c r="B20" s="69">
+      <c r="B20" s="68">
         <v>47816</v>
       </c>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>1964</v>
       </c>
-      <c r="B21" s="69">
+      <c r="B21" s="68">
         <v>48310</v>
       </c>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>1965</v>
       </c>
-      <c r="B22" s="69">
+      <c r="B22" s="68">
         <v>48758</v>
       </c>
     </row>
@@ -20986,7 +21018,7 @@
       <c r="A23" s="14">
         <v>1966</v>
       </c>
-      <c r="B23" s="69">
+      <c r="B23" s="68">
         <v>49164</v>
       </c>
     </row>
@@ -20994,7 +21026,7 @@
       <c r="A24" s="14">
         <v>1967</v>
       </c>
-      <c r="B24" s="69">
+      <c r="B24" s="68">
         <v>49548</v>
       </c>
     </row>
@@ -21002,7 +21034,7 @@
       <c r="A25" s="14">
         <v>1968</v>
       </c>
-      <c r="B25" s="69">
+      <c r="B25" s="68">
         <v>49915</v>
       </c>
     </row>
@@ -21010,7 +21042,7 @@
       <c r="A26" s="14">
         <v>1969</v>
       </c>
-      <c r="B26" s="69">
+      <c r="B26" s="68">
         <v>50318</v>
       </c>
     </row>
@@ -21018,7 +21050,7 @@
       <c r="A27" s="14">
         <v>1970</v>
       </c>
-      <c r="B27" s="69">
+      <c r="B27" s="68">
         <v>50772</v>
       </c>
     </row>
@@ -21026,7 +21058,7 @@
       <c r="A28" s="14">
         <v>1971</v>
       </c>
-      <c r="B28" s="69">
+      <c r="B28" s="68">
         <v>51251</v>
       </c>
     </row>
@@ -21034,7 +21066,7 @@
       <c r="A29" s="14">
         <v>1972</v>
       </c>
-      <c r="B29" s="69">
+      <c r="B29" s="68">
         <v>51701</v>
       </c>
     </row>
@@ -21042,7 +21074,7 @@
       <c r="A30" s="14">
         <v>1973</v>
       </c>
-      <c r="B30" s="69">
+      <c r="B30" s="68">
         <v>52118</v>
       </c>
     </row>
@@ -21050,7 +21082,7 @@
       <c r="A31" s="14">
         <v>1974</v>
       </c>
-      <c r="B31" s="69">
+      <c r="B31" s="68">
         <v>52460</v>
       </c>
     </row>
@@ -21058,7 +21090,7 @@
       <c r="A32" s="14">
         <v>1975</v>
       </c>
-      <c r="B32" s="69">
+      <c r="B32" s="68">
         <v>52699</v>
       </c>
     </row>
@@ -21066,7 +21098,7 @@
       <c r="A33" s="14">
         <v>1976</v>
       </c>
-      <c r="B33" s="69">
+      <c r="B33" s="68">
         <v>52909</v>
       </c>
     </row>
@@ -21074,7 +21106,7 @@
       <c r="A34" s="14">
         <v>1977</v>
       </c>
-      <c r="B34" s="69">
+      <c r="B34" s="68">
         <v>53145</v>
       </c>
     </row>
@@ -21082,7 +21114,7 @@
       <c r="A35" s="14">
         <v>1978</v>
       </c>
-      <c r="B35" s="69">
+      <c r="B35" s="68">
         <v>53376</v>
       </c>
     </row>
@@ -21090,7 +21122,7 @@
       <c r="A36" s="14">
         <v>1979</v>
       </c>
-      <c r="B36" s="69">
+      <c r="B36" s="68">
         <v>53606</v>
       </c>
     </row>
@@ -21098,7 +21130,7 @@
       <c r="A37" s="14">
         <v>1980</v>
       </c>
-      <c r="B37" s="69">
+      <c r="B37" s="68">
         <v>53880</v>
       </c>
     </row>
@@ -21106,7 +21138,7 @@
       <c r="A38" s="14">
         <v>1981</v>
       </c>
-      <c r="B38" s="69">
+      <c r="B38" s="68">
         <v>54182</v>
       </c>
     </row>
@@ -21114,7 +21146,7 @@
       <c r="A39" s="14">
         <v>1982</v>
       </c>
-      <c r="B39" s="69">
+      <c r="B39" s="68">
         <v>54492</v>
       </c>
     </row>
@@ -21122,7 +21154,7 @@
       <c r="A40" s="14">
         <v>1983</v>
       </c>
-      <c r="B40" s="69">
+      <c r="B40" s="68">
         <v>54772</v>
       </c>
     </row>
@@ -21130,7 +21162,7 @@
       <c r="A41" s="14">
         <v>1984</v>
       </c>
-      <c r="B41" s="69">
+      <c r="B41" s="68">
         <v>55026</v>
       </c>
     </row>
@@ -21138,7 +21170,7 @@
       <c r="A42" s="14">
         <v>1985</v>
       </c>
-      <c r="B42" s="69">
+      <c r="B42" s="68">
         <v>55284</v>
       </c>
     </row>
@@ -21146,7 +21178,7 @@
       <c r="A43" s="14">
         <v>1986</v>
       </c>
-      <c r="B43" s="69">
+      <c r="B43" s="68">
         <v>55547</v>
       </c>
     </row>
@@ -21154,7 +21186,7 @@
       <c r="A44" s="14">
         <v>1987</v>
       </c>
-      <c r="B44" s="69">
+      <c r="B44" s="68">
         <v>55824</v>
       </c>
     </row>
@@ -21162,7 +21194,7 @@
       <c r="A45" s="14">
         <v>1988</v>
       </c>
-      <c r="B45" s="69">
+      <c r="B45" s="68">
         <v>56118</v>
       </c>
     </row>
@@ -21170,7 +21202,7 @@
       <c r="A46" s="14">
         <v>1989</v>
       </c>
-      <c r="B46" s="69">
+      <c r="B46" s="68">
         <v>56423</v>
       </c>
     </row>
@@ -21178,7 +21210,7 @@
       <c r="A47" s="14">
         <v>1990</v>
       </c>
-      <c r="B47" s="69">
+      <c r="B47" s="68">
         <v>56709</v>
       </c>
     </row>
@@ -21186,7 +21218,7 @@
       <c r="A48" s="14">
         <v>1991</v>
       </c>
-      <c r="B48" s="69">
+      <c r="B48" s="68">
         <v>58426</v>
       </c>
     </row>
@@ -21194,7 +21226,7 @@
       <c r="A49" s="14">
         <v>1992</v>
       </c>
-      <c r="B49" s="69">
+      <c r="B49" s="68">
         <v>58712</v>
       </c>
     </row>
@@ -21202,7 +21234,7 @@
       <c r="A50" s="14">
         <v>1993</v>
       </c>
-      <c r="B50" s="69">
+      <c r="B50" s="68">
         <v>58961</v>
       </c>
     </row>
@@ -21210,7 +21242,7 @@
       <c r="A51" s="14">
         <v>1994</v>
       </c>
-      <c r="B51" s="69">
+      <c r="B51" s="68">
         <v>59175</v>
       </c>
     </row>
@@ -21218,7 +21250,7 @@
       <c r="A52" s="14">
         <v>1995</v>
       </c>
-      <c r="B52" s="69">
+      <c r="B52" s="68">
         <v>59384</v>
       </c>
     </row>
@@ -21226,7 +21258,7 @@
       <c r="A53" s="14">
         <v>1996</v>
       </c>
-      <c r="B53" s="69">
+      <c r="B53" s="68">
         <v>59589</v>
       </c>
     </row>
@@ -21234,7 +21266,7 @@
       <c r="A54" s="14">
         <v>1997</v>
       </c>
-      <c r="B54" s="69">
+      <c r="B54" s="68">
         <v>59795</v>
       </c>
     </row>
@@ -21242,7 +21274,7 @@
       <c r="A55" s="14">
         <v>1998</v>
       </c>
-      <c r="B55" s="69">
+      <c r="B55" s="68">
         <v>60011</v>
       </c>
     </row>
@@ -21250,7 +21282,7 @@
       <c r="A56" s="14">
         <v>1999</v>
       </c>
-      <c r="B56" s="69">
+      <c r="B56" s="68">
         <v>60315</v>
       </c>
     </row>
@@ -21258,7 +21290,7 @@
       <c r="A57" s="14">
         <v>2000</v>
       </c>
-      <c r="B57" s="69">
+      <c r="B57" s="68">
         <v>60725</v>
       </c>
     </row>
@@ -21266,7 +21298,7 @@
       <c r="A58" s="14">
         <v>2001</v>
       </c>
-      <c r="B58" s="69">
+      <c r="B58" s="68">
         <v>61163</v>
       </c>
     </row>
@@ -21274,7 +21306,7 @@
       <c r="A59" s="14">
         <v>2002</v>
       </c>
-      <c r="B59" s="69">
+      <c r="B59" s="68">
         <v>61605</v>
       </c>
     </row>
@@ -21282,7 +21314,7 @@
       <c r="A60" s="14">
         <v>2003</v>
       </c>
-      <c r="B60" s="69">
+      <c r="B60" s="68">
         <v>62038</v>
       </c>
     </row>
@@ -21290,7 +21322,7 @@
       <c r="A61" s="14">
         <v>2004</v>
       </c>
-      <c r="B61" s="69">
+      <c r="B61" s="68">
         <v>62491</v>
       </c>
     </row>
@@ -21298,7 +21330,7 @@
       <c r="A62" s="14">
         <v>2005</v>
       </c>
-      <c r="B62" s="69">
+      <c r="B62" s="68">
         <v>62958</v>
       </c>
     </row>
@@ -21306,7 +21338,7 @@
       <c r="A63" s="14">
         <v>2006</v>
       </c>
-      <c r="B63" s="69">
+      <c r="B63" s="68">
         <v>63393</v>
       </c>
     </row>
@@ -21314,7 +21346,7 @@
       <c r="A64" s="14">
         <v>2007</v>
       </c>
-      <c r="B64" s="69">
+      <c r="B64" s="68">
         <v>63781</v>
       </c>
     </row>
@@ -21322,7 +21354,7 @@
       <c r="A65" s="14">
         <v>2008</v>
       </c>
-      <c r="B65" s="69">
+      <c r="B65" s="68">
         <v>64133</v>
       </c>
     </row>
@@ -21330,7 +21362,7 @@
       <c r="A66" s="14">
         <v>2009</v>
       </c>
-      <c r="B66" s="69">
+      <c r="B66" s="68">
         <v>64459</v>
       </c>
     </row>
@@ -21338,7 +21370,7 @@
       <c r="A67" s="14">
         <v>2010</v>
       </c>
-      <c r="B67" s="69">
+      <c r="B67" s="68">
         <v>64773</v>
       </c>
     </row>
@@ -21346,7 +21378,7 @@
       <c r="A68" s="14">
         <v>2011</v>
       </c>
-      <c r="B68" s="69">
+      <c r="B68" s="68">
         <v>65087</v>
       </c>
     </row>
@@ -21354,7 +21386,7 @@
       <c r="A69" s="14">
         <v>2012</v>
       </c>
-      <c r="B69" s="69">
+      <c r="B69" s="68">
         <v>65403</v>
       </c>
     </row>
@@ -21362,7 +21394,7 @@
       <c r="A70" s="14">
         <v>2013</v>
       </c>
-      <c r="B70" s="69">
+      <c r="B70" s="68">
         <v>65736</v>
       </c>
     </row>
@@ -21370,7 +21402,7 @@
       <c r="A71" s="14">
         <v>2014</v>
       </c>
-      <c r="B71" s="69">
+      <c r="B71" s="68">
         <v>66277</v>
       </c>
     </row>
@@ -21378,7 +21410,7 @@
       <c r="A72" s="14">
         <v>2015</v>
       </c>
-      <c r="B72" s="69">
+      <c r="B72" s="68">
         <v>66513</v>
       </c>
     </row>
@@ -21386,7 +21418,7 @@
       <c r="A73" s="14">
         <v>2016</v>
       </c>
-      <c r="B73" s="69">
+      <c r="B73" s="68">
         <v>66686</v>
       </c>
     </row>
@@ -21394,7 +21426,7 @@
       <c r="A74" s="14">
         <v>2017</v>
       </c>
-      <c r="B74" s="69">
+      <c r="B74" s="68">
         <v>66830</v>
       </c>
     </row>
@@ -21402,7 +21434,7 @@
       <c r="A75" s="14">
         <v>2018</v>
       </c>
-      <c r="B75" s="69">
+      <c r="B75" s="68">
         <v>66942</v>
       </c>
     </row>
@@ -21410,7 +21442,7 @@
       <c r="A76" s="14">
         <v>2019</v>
       </c>
-      <c r="B76" s="69">
+      <c r="B76" s="68">
         <v>66990</v>
       </c>
     </row>
@@ -21418,7 +21450,7 @@
       <c r="A77" s="14">
         <v>2020</v>
       </c>
-      <c r="B77" s="69">
+      <c r="B77" s="68">
         <v>67064</v>
       </c>
     </row>
@@ -22931,28 +22963,28 @@
       <c r="A42" s="21">
         <v>1985</v>
       </c>
-      <c r="B42" s="71">
+      <c r="B42" s="70">
         <v>0.05</v>
       </c>
-      <c r="C42" s="71">
+      <c r="C42" s="70">
         <v>0.31</v>
       </c>
-      <c r="D42" s="71">
+      <c r="D42" s="70">
         <v>0.46</v>
       </c>
-      <c r="E42" s="71">
+      <c r="E42" s="70">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F42" s="71">
+      <c r="F42" s="70">
         <v>0.01</v>
       </c>
-      <c r="G42" s="71">
+      <c r="G42" s="70">
         <v>0.06</v>
       </c>
-      <c r="H42" s="71">
+      <c r="H42" s="70">
         <v>0.11</v>
       </c>
-      <c r="I42" s="71">
+      <c r="I42" s="70">
         <v>0.05</v>
       </c>
     </row>
@@ -23269,7 +23301,7 @@
       <c r="H67" s="46">
         <v>0.17</v>
       </c>
-      <c r="I67" s="70">
+      <c r="I67" s="69">
         <v>4.3800000000000002E-3</v>
       </c>
     </row>
@@ -23394,7 +23426,7 @@
       <c r="H76" s="46">
         <v>0.17</v>
       </c>
-      <c r="I76" s="70">
+      <c r="I76" s="69">
         <v>4.3800000000000002E-3</v>
       </c>
     </row>
@@ -23844,28 +23876,28 @@
       <c r="A4" s="21">
         <v>1947</v>
       </c>
-      <c r="B4" s="64">
+      <c r="B4" s="63">
         <v>0.96</v>
       </c>
-      <c r="C4" s="64">
+      <c r="C4" s="63">
         <f>B4*H4</f>
         <v>40.32</v>
       </c>
-      <c r="D4" s="64">
+      <c r="D4" s="63">
         <v>0.04</v>
       </c>
-      <c r="E4" s="64">
+      <c r="E4" s="63">
         <f>D4*H4</f>
         <v>1.68</v>
       </c>
-      <c r="F4" s="64">
+      <c r="F4" s="63">
         <v>0</v>
       </c>
-      <c r="G4" s="64">
+      <c r="G4" s="63">
         <f>F4*H4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="64">
+      <c r="H4" s="63">
         <v>42</v>
       </c>
     </row>
@@ -23942,24 +23974,24 @@
       <c r="A12" s="21">
         <v>1955</v>
       </c>
-      <c r="B12" s="64">
+      <c r="B12" s="63">
         <v>0.96</v>
       </c>
-      <c r="C12" s="64">
+      <c r="C12" s="63">
         <f>B12*H12</f>
         <v>33.6</v>
       </c>
-      <c r="D12" s="64">
+      <c r="D12" s="63">
         <v>0.04</v>
       </c>
-      <c r="E12" s="64">
+      <c r="E12" s="63">
         <f>D12*H12</f>
         <v>1.4000000000000001</v>
       </c>
-      <c r="F12" s="64">
+      <c r="F12" s="63">
         <v>0</v>
       </c>
-      <c r="G12" s="64">
+      <c r="G12" s="63">
         <f>F12*H12</f>
         <v>0</v>
       </c>
@@ -24052,88 +24084,88 @@
       <c r="A22" s="21">
         <v>1965</v>
       </c>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="66"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="65"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
         <v>1966</v>
       </c>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="66"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="65"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
         <v>1967</v>
       </c>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="66"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="65"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
         <v>1968</v>
       </c>
-      <c r="B25" s="64"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="66"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="65"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
         <v>1969</v>
       </c>
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="66"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="65"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <v>1970</v>
       </c>
-      <c r="B27" s="64">
+      <c r="B27" s="63">
         <v>0.78500000000000003</v>
       </c>
-      <c r="C27" s="64">
+      <c r="C27" s="63">
         <f>B27*H27</f>
         <v>11.8535</v>
       </c>
-      <c r="D27" s="64">
+      <c r="D27" s="63">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="E27" s="64">
+      <c r="E27" s="63">
         <f>D27*H27</f>
         <v>1.0720999999999998</v>
       </c>
-      <c r="F27" s="64">
+      <c r="F27" s="63">
         <v>0.14399999999999999</v>
       </c>
-      <c r="G27" s="64">
+      <c r="G27" s="63">
         <f>F27*H27</f>
         <v>2.1743999999999999</v>
       </c>
-      <c r="H27" s="66">
+      <c r="H27" s="65">
         <v>15.1</v>
       </c>
     </row>
@@ -24141,73 +24173,73 @@
       <c r="A28" s="21">
         <v>1971</v>
       </c>
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="66"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="65"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
         <v>1972</v>
       </c>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="66"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="65"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
         <v>1973</v>
       </c>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="66"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="65"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="21">
         <v>1974</v>
       </c>
-      <c r="B31" s="64"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="66"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="65"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="21">
         <v>1975</v>
       </c>
-      <c r="B32" s="64"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="66"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="65"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="21">
         <v>1976</v>
       </c>
-      <c r="B33" s="64"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="66"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="65"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="21">
@@ -24218,64 +24250,64 @@
       <c r="A35" s="21">
         <v>1978</v>
       </c>
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="66"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="65"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="21">
         <v>1979</v>
       </c>
-      <c r="B36" s="64"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="66"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="65"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="21">
         <v>1980</v>
       </c>
-      <c r="B37" s="64"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="64"/>
-      <c r="H37" s="66"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="65"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="21">
         <v>1981</v>
       </c>
-      <c r="B38" s="64">
+      <c r="B38" s="63">
         <v>0.52100000000000002</v>
       </c>
-      <c r="C38" s="64">
+      <c r="C38" s="63">
         <f>B38*H38</f>
         <v>6.4083000000000006</v>
       </c>
-      <c r="D38" s="64">
+      <c r="D38" s="63">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="E38" s="64">
+      <c r="E38" s="63">
         <f>D38*H38</f>
         <v>1.1439000000000001</v>
       </c>
-      <c r="F38" s="64">
+      <c r="F38" s="63">
         <v>0.38600000000000001</v>
       </c>
-      <c r="G38" s="64">
+      <c r="G38" s="63">
         <f>F38*H38</f>
         <v>4.7478000000000007</v>
       </c>
-      <c r="H38" s="66">
+      <c r="H38" s="65">
         <v>12.3</v>
       </c>
     </row>
@@ -24283,379 +24315,379 @@
       <c r="A39" s="21">
         <v>1982</v>
       </c>
-      <c r="B39" s="64"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="64"/>
-      <c r="H39" s="66"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="65"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="21">
         <v>1983</v>
       </c>
-      <c r="B40" s="64"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="64"/>
-      <c r="H40" s="66"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="65"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="21">
         <v>1984</v>
       </c>
-      <c r="B41" s="64"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="66"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="65"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="21">
         <v>1985</v>
       </c>
-      <c r="B42" s="64"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="64"/>
-      <c r="H42" s="66"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="65"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="21">
         <v>1986</v>
       </c>
-      <c r="B43" s="64"/>
-      <c r="C43" s="64"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="66"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="65"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="21">
         <v>1987</v>
       </c>
-      <c r="B44" s="64"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="64"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="64"/>
-      <c r="H44" s="66"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="65"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="21">
         <v>1988</v>
       </c>
-      <c r="B45" s="64"/>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="66"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="63"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="65"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="21">
         <v>1989</v>
       </c>
-      <c r="B46" s="64"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="64"/>
-      <c r="H46" s="66"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="63"/>
+      <c r="H46" s="65"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="21">
         <v>1990</v>
       </c>
-      <c r="B47" s="64"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="64"/>
-      <c r="H47" s="66"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="65"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="21">
         <v>1991</v>
       </c>
-      <c r="B48" s="64"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="64"/>
-      <c r="F48" s="64"/>
-      <c r="G48" s="64"/>
-      <c r="H48" s="66"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="65"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="21">
         <v>1992</v>
       </c>
-      <c r="B49" s="64"/>
-      <c r="C49" s="64"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="64"/>
-      <c r="H49" s="66"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="65"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="21">
         <v>1993</v>
       </c>
-      <c r="B50" s="64"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="64"/>
-      <c r="H50" s="66"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="65"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="21">
         <v>1994</v>
       </c>
-      <c r="B51" s="64"/>
-      <c r="C51" s="64"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="64"/>
-      <c r="H51" s="66"/>
+      <c r="B51" s="63"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="63"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="63"/>
+      <c r="H51" s="65"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="21">
         <v>1995</v>
       </c>
-      <c r="B52" s="64"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="64"/>
-      <c r="H52" s="66"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="63"/>
+      <c r="H52" s="65"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="21">
         <v>1996</v>
       </c>
-      <c r="B53" s="64"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="64"/>
-      <c r="F53" s="64"/>
-      <c r="G53" s="64"/>
-      <c r="H53" s="66"/>
+      <c r="B53" s="63"/>
+      <c r="C53" s="63"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="65"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="21">
         <v>1997</v>
       </c>
-      <c r="B54" s="64"/>
-      <c r="C54" s="64"/>
-      <c r="D54" s="64"/>
-      <c r="E54" s="64"/>
-      <c r="F54" s="64"/>
-      <c r="G54" s="64"/>
-      <c r="H54" s="66"/>
+      <c r="B54" s="63"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="63"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="65"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="21">
         <v>1998</v>
       </c>
-      <c r="B55" s="64"/>
-      <c r="C55" s="64"/>
-      <c r="D55" s="64"/>
-      <c r="E55" s="64"/>
-      <c r="F55" s="64"/>
-      <c r="G55" s="64"/>
-      <c r="H55" s="66"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="65"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="21">
         <v>1999</v>
       </c>
-      <c r="B56" s="64"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="64"/>
-      <c r="E56" s="64"/>
-      <c r="F56" s="64"/>
-      <c r="G56" s="64"/>
-      <c r="H56" s="66"/>
+      <c r="B56" s="63"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="65"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="21">
         <v>2000</v>
       </c>
-      <c r="B57" s="64"/>
-      <c r="C57" s="64"/>
-      <c r="D57" s="64"/>
-      <c r="E57" s="64"/>
-      <c r="F57" s="64"/>
-      <c r="G57" s="64"/>
-      <c r="H57" s="66"/>
+      <c r="B57" s="63"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="63"/>
+      <c r="H57" s="65"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="21">
         <v>2001</v>
       </c>
-      <c r="B58" s="64"/>
-      <c r="C58" s="64"/>
-      <c r="D58" s="64"/>
-      <c r="E58" s="64"/>
-      <c r="F58" s="64"/>
-      <c r="G58" s="64"/>
-      <c r="H58" s="66"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="63"/>
+      <c r="D58" s="63"/>
+      <c r="E58" s="63"/>
+      <c r="F58" s="63"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="65"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="21">
         <v>2002</v>
       </c>
-      <c r="B59" s="64"/>
-      <c r="C59" s="64"/>
-      <c r="D59" s="64"/>
-      <c r="E59" s="64"/>
-      <c r="F59" s="64"/>
-      <c r="G59" s="64"/>
-      <c r="H59" s="66"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="63"/>
+      <c r="H59" s="65"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="21">
         <v>2003</v>
       </c>
-      <c r="B60" s="64"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="64"/>
-      <c r="E60" s="64"/>
-      <c r="F60" s="64"/>
-      <c r="G60" s="64"/>
-      <c r="H60" s="66"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="63"/>
+      <c r="D60" s="63"/>
+      <c r="E60" s="63"/>
+      <c r="F60" s="63"/>
+      <c r="G60" s="63"/>
+      <c r="H60" s="65"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="21">
         <v>2004</v>
       </c>
-      <c r="B61" s="64"/>
-      <c r="C61" s="64"/>
-      <c r="D61" s="64"/>
-      <c r="E61" s="64"/>
-      <c r="F61" s="64"/>
-      <c r="G61" s="64"/>
-      <c r="H61" s="66"/>
+      <c r="B61" s="63"/>
+      <c r="C61" s="63"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="63"/>
+      <c r="F61" s="63"/>
+      <c r="G61" s="63"/>
+      <c r="H61" s="65"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="21">
         <v>2005</v>
       </c>
-      <c r="B62" s="64"/>
-      <c r="C62" s="64"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="64"/>
-      <c r="F62" s="64"/>
-      <c r="G62" s="64"/>
-      <c r="H62" s="66"/>
+      <c r="B62" s="63"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="63"/>
+      <c r="F62" s="63"/>
+      <c r="G62" s="63"/>
+      <c r="H62" s="65"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="21">
         <v>2006</v>
       </c>
-      <c r="B63" s="64"/>
-      <c r="C63" s="64"/>
-      <c r="D63" s="64"/>
-      <c r="E63" s="64"/>
-      <c r="F63" s="64"/>
-      <c r="G63" s="64"/>
-      <c r="H63" s="66"/>
+      <c r="B63" s="63"/>
+      <c r="C63" s="63"/>
+      <c r="D63" s="63"/>
+      <c r="E63" s="63"/>
+      <c r="F63" s="63"/>
+      <c r="G63" s="63"/>
+      <c r="H63" s="65"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="21">
         <v>2007</v>
       </c>
-      <c r="B64" s="64"/>
-      <c r="C64" s="64"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="64"/>
-      <c r="F64" s="64"/>
-      <c r="G64" s="64"/>
-      <c r="H64" s="66"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="63"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="63"/>
+      <c r="F64" s="63"/>
+      <c r="G64" s="63"/>
+      <c r="H64" s="65"/>
     </row>
     <row r="65" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A65" s="21">
         <v>2008</v>
       </c>
-      <c r="B65" s="64"/>
-      <c r="C65" s="64"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="64"/>
-      <c r="F65" s="64"/>
-      <c r="G65" s="64"/>
-      <c r="H65" s="66"/>
+      <c r="B65" s="63"/>
+      <c r="C65" s="63"/>
+      <c r="D65" s="63"/>
+      <c r="E65" s="63"/>
+      <c r="F65" s="63"/>
+      <c r="G65" s="63"/>
+      <c r="H65" s="65"/>
     </row>
     <row r="66" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A66" s="21">
         <v>2009</v>
       </c>
-      <c r="B66" s="64"/>
-      <c r="C66" s="64"/>
-      <c r="D66" s="64"/>
-      <c r="E66" s="64"/>
-      <c r="F66" s="64"/>
-      <c r="G66" s="64"/>
-      <c r="H66" s="66"/>
+      <c r="B66" s="63"/>
+      <c r="C66" s="63"/>
+      <c r="D66" s="63"/>
+      <c r="E66" s="63"/>
+      <c r="F66" s="63"/>
+      <c r="G66" s="63"/>
+      <c r="H66" s="65"/>
     </row>
     <row r="67" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A67" s="21">
         <v>2010</v>
       </c>
-      <c r="B67" s="64"/>
-      <c r="C67" s="64"/>
-      <c r="D67" s="64"/>
-      <c r="E67" s="64"/>
-      <c r="F67" s="64"/>
-      <c r="G67" s="64"/>
-      <c r="H67" s="66"/>
+      <c r="B67" s="63"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="63"/>
+      <c r="F67" s="63"/>
+      <c r="G67" s="63"/>
+      <c r="H67" s="65"/>
     </row>
     <row r="68" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A68" s="21">
         <v>2011</v>
       </c>
-      <c r="B68" s="64">
+      <c r="B68" s="63">
         <f>2.1/H68</f>
         <v>0.23333333333333334</v>
       </c>
-      <c r="C68" s="64">
+      <c r="C68" s="63">
         <f>B68*H68</f>
         <v>2.1</v>
       </c>
-      <c r="D68" s="64">
+      <c r="D68" s="63">
         <f>0.8/H68</f>
         <v>8.8888888888888892E-2</v>
       </c>
-      <c r="E68" s="64">
+      <c r="E68" s="63">
         <f>D68*H68</f>
         <v>0.8</v>
       </c>
-      <c r="F68" s="64">
+      <c r="F68" s="63">
         <f>6.1/H68</f>
         <v>0.6777777777777777</v>
       </c>
-      <c r="G68" s="64">
+      <c r="G68" s="63">
         <f>F68*H68</f>
         <v>6.1</v>
       </c>
-      <c r="H68" s="66">
+      <c r="H68" s="65">
         <f>6.1+0.8+2.1</f>
         <v>9</v>
       </c>
@@ -24664,57 +24696,57 @@
       <c r="A69" s="21">
         <v>2012</v>
       </c>
-      <c r="B69" s="64"/>
-      <c r="C69" s="64"/>
-      <c r="D69" s="64"/>
-      <c r="E69" s="64"/>
-      <c r="F69" s="64"/>
-      <c r="G69" s="64"/>
-      <c r="H69" s="66"/>
+      <c r="B69" s="63"/>
+      <c r="C69" s="63"/>
+      <c r="D69" s="63"/>
+      <c r="E69" s="63"/>
+      <c r="F69" s="63"/>
+      <c r="G69" s="63"/>
+      <c r="H69" s="65"/>
     </row>
     <row r="70" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A70" s="21">
         <v>2013</v>
       </c>
-      <c r="B70" s="64"/>
-      <c r="C70" s="64"/>
-      <c r="D70" s="64"/>
-      <c r="E70" s="64"/>
-      <c r="F70" s="64"/>
-      <c r="G70" s="64"/>
+      <c r="B70" s="63"/>
+      <c r="C70" s="63"/>
+      <c r="D70" s="63"/>
+      <c r="E70" s="63"/>
+      <c r="F70" s="63"/>
+      <c r="G70" s="63"/>
     </row>
     <row r="71" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A71" s="21">
         <v>2014</v>
       </c>
-      <c r="B71" s="64"/>
-      <c r="C71" s="64"/>
-      <c r="D71" s="64"/>
-      <c r="E71" s="64"/>
-      <c r="F71" s="64"/>
-      <c r="G71" s="64"/>
+      <c r="B71" s="63"/>
+      <c r="C71" s="63"/>
+      <c r="D71" s="63"/>
+      <c r="E71" s="63"/>
+      <c r="F71" s="63"/>
+      <c r="G71" s="63"/>
     </row>
     <row r="72" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A72" s="21">
         <v>2015</v>
       </c>
-      <c r="B72" s="64"/>
-      <c r="C72" s="64"/>
-      <c r="D72" s="64"/>
-      <c r="E72" s="64"/>
-      <c r="F72" s="64"/>
-      <c r="G72" s="64"/>
+      <c r="B72" s="63"/>
+      <c r="C72" s="63"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="63"/>
+      <c r="F72" s="63"/>
+      <c r="G72" s="63"/>
     </row>
     <row r="73" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A73" s="21">
         <v>2016</v>
       </c>
-      <c r="B73" s="64"/>
-      <c r="C73" s="64"/>
-      <c r="D73" s="64"/>
-      <c r="E73" s="64"/>
-      <c r="F73" s="64"/>
-      <c r="G73" s="64"/>
+      <c r="B73" s="63"/>
+      <c r="C73" s="63"/>
+      <c r="D73" s="63"/>
+      <c r="E73" s="63"/>
+      <c r="F73" s="63"/>
+      <c r="G73" s="63"/>
     </row>
     <row r="74" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A74" s="21">

--- a/RawData/FR_RawData_VPython.xlsx
+++ b/RawData/FR_RawData_VPython.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\01_MFA_GlassIndustry\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4650128C-685C-45FB-840D-4274E431E072}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A05746F-BD86-4BAD-8CF0-6B785AD46C7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="681" activeTab="8" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
+    <workbookView xWindow="1170" yWindow="600" windowWidth="18525" windowHeight="15600" tabRatio="681" firstSheet="5" activeTab="8" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
   </bookViews>
   <sheets>
     <sheet name="References" sheetId="26" r:id="rId1"/>
@@ -6043,7 +6043,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="76">
   <si>
     <t>year</t>
   </si>
@@ -6268,6 +6268,9 @@
   </si>
   <si>
     <t>REFERENCES</t>
+  </si>
+  <si>
+    <t>fuel oil, GJ/t</t>
   </si>
 </sst>
 </file>
@@ -20387,10 +20390,10 @@
   <dimension ref="A1:BR88"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B35" sqref="B35:J41"/>
+      <selection pane="bottomRight" activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20537,38 +20540,14 @@
       <c r="A8" s="16">
         <v>1951</v>
       </c>
-      <c r="B8" s="25">
-        <f>(prod!$G8*MatEnergy_PlateGlass!B8)+((prod!$I8+prod!$K8)*MatEnergy_WindowGlass!B8)</f>
-        <v>0.30338212842388862</v>
-      </c>
-      <c r="C8" s="25">
-        <f>(prod!$G8*MatEnergy_PlateGlass!C8)+((prod!$I8+prod!$K8)*MatEnergy_WindowGlass!C8)</f>
-        <v>9.7797036371800636E-2</v>
-      </c>
-      <c r="D8" s="25">
-        <f>(prod!$G8*MatEnergy_PlateGlass!D8)+((prod!$I8+prod!$K8)*MatEnergy_WindowGlass!D8)</f>
-        <v>0.65150606196677152</v>
-      </c>
-      <c r="E8" s="25">
-        <f>(prod!$G8*MatEnergy_PlateGlass!E8)+((prod!$I8+prod!$K8)*MatEnergy_WindowGlass!E8)</f>
-        <v>0.19948271216883701</v>
-      </c>
-      <c r="F8" s="25">
-        <f>(prod!$G8*MatEnergy_PlateGlass!F8)+((prod!$I8+prod!$K8)*MatEnergy_WindowGlass!F8)</f>
-        <v>3.5800628648405927E-2</v>
-      </c>
-      <c r="G8" s="25">
-        <f>(prod!$G8*MatEnergy_PlateGlass!G8)+((prod!$I8+prod!$K8)*MatEnergy_WindowGlass!G8)</f>
-        <v>7.4994162550516386E-2</v>
-      </c>
-      <c r="H8" s="25">
-        <f>(prod!$G8*MatEnergy_PlateGlass!H8)+((prod!$I8+prod!$K8)*MatEnergy_WindowGlass!H8)</f>
-        <v>0.13084687920969915</v>
-      </c>
-      <c r="I8" s="25">
-        <f>(prod!$G8*MatEnergy_PlateGlass!I8)+((prod!$I8+prod!$K8)*MatEnergy_WindowGlass!I8)</f>
-        <v>2.1748540637629099E-2</v>
-      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
       <c r="K8" s="25"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -20613,38 +20592,14 @@
       <c r="A10" s="16">
         <v>1953</v>
       </c>
-      <c r="B10" s="25">
-        <f>(prod!$G10*MatEnergy_PlateGlass!B10)+((prod!$I10+prod!$K10)*MatEnergy_WindowGlass!B10)</f>
-        <v>0.28613922859830665</v>
-      </c>
-      <c r="C10" s="25">
-        <f>(prod!$G10*MatEnergy_PlateGlass!C10)+((prod!$I10+prod!$K10)*MatEnergy_WindowGlass!C10)</f>
-        <v>0.11575540921919097</v>
-      </c>
-      <c r="D10" s="25">
-        <f>(prod!$G10*MatEnergy_PlateGlass!D10)+((prod!$I10+prod!$K10)*MatEnergy_WindowGlass!D10)</f>
-        <v>0.64374317968015049</v>
-      </c>
-      <c r="E10" s="25">
-        <f>(prod!$G10*MatEnergy_PlateGlass!E10)+((prod!$I10+prod!$K10)*MatEnergy_WindowGlass!E10)</f>
-        <v>0.19801599247412982</v>
-      </c>
-      <c r="F10" s="25">
-        <f>(prod!$G10*MatEnergy_PlateGlass!F10)+((prod!$I10+prod!$K10)*MatEnergy_WindowGlass!F10)</f>
-        <v>3.4405456255879582E-2</v>
-      </c>
-      <c r="G10" s="25">
-        <f>(prod!$G10*MatEnergy_PlateGlass!G10)+((prod!$I10+prod!$K10)*MatEnergy_WindowGlass!G10)</f>
-        <v>7.6568203198494833E-2</v>
-      </c>
-      <c r="H10" s="25">
-        <f>(prod!$G10*MatEnergy_PlateGlass!H10)+((prod!$I10+prod!$K10)*MatEnergy_WindowGlass!H10)</f>
-        <v>0.12923706491063028</v>
-      </c>
-      <c r="I10" s="25">
-        <f>(prod!$G10*MatEnergy_PlateGlass!I10)+((prod!$I10+prod!$K10)*MatEnergy_WindowGlass!I10)</f>
-        <v>2.2142050799623704E-2</v>
-      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
       <c r="K10" s="25"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -20689,38 +20644,14 @@
       <c r="A12" s="16">
         <v>1955</v>
       </c>
-      <c r="B12" s="25">
-        <f>(prod!$G12*MatEnergy_PlateGlass!B12)+((prod!$I12+prod!$K12)*MatEnergy_WindowGlass!B12)</f>
-        <v>0.30441391660271161</v>
-      </c>
-      <c r="C12" s="25">
-        <f>(prod!$G12*MatEnergy_PlateGlass!C12)+((prod!$I12+prod!$K12)*MatEnergy_WindowGlass!C12)</f>
-        <v>9.6722435405474538E-2</v>
-      </c>
-      <c r="D12" s="25">
-        <f>(prod!$G12*MatEnergy_PlateGlass!D12)+((prod!$I12+prod!$K12)*MatEnergy_WindowGlass!D12)</f>
-        <v>0.6519705807111793</v>
-      </c>
-      <c r="E12" s="25">
-        <f>(prod!$G12*MatEnergy_PlateGlass!E12)+((prod!$I12+prod!$K12)*MatEnergy_WindowGlass!E12)</f>
-        <v>0.1995704783832182</v>
-      </c>
-      <c r="F12" s="25">
-        <f>(prod!$G12*MatEnergy_PlateGlass!F12)+((prod!$I12+prod!$K12)*MatEnergy_WindowGlass!F12)</f>
-        <v>3.5884113584036828E-2</v>
-      </c>
-      <c r="G12" s="25">
-        <f>(prod!$G12*MatEnergy_PlateGlass!G12)+((prod!$I12+prod!$K12)*MatEnergy_WindowGlass!G12)</f>
-        <v>7.4899974418009704E-2</v>
-      </c>
-      <c r="H12" s="25">
-        <f>(prod!$G12*MatEnergy_PlateGlass!H12)+((prod!$I12+prod!$K12)*MatEnergy_WindowGlass!H12)</f>
-        <v>0.13094320798158093</v>
-      </c>
-      <c r="I12" s="25">
-        <f>(prod!$G12*MatEnergy_PlateGlass!I12)+((prod!$I12+prod!$K12)*MatEnergy_WindowGlass!I12)</f>
-        <v>2.1724993604502425E-2</v>
-      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
       <c r="K12" s="25"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -20765,38 +20696,14 @@
       <c r="A14" s="16">
         <v>1957</v>
       </c>
-      <c r="B14" s="25">
-        <f>(prod!$G14*MatEnergy_PlateGlass!B14)+((prod!$I14+prod!$K14)*MatEnergy_WindowGlass!B14)</f>
-        <v>0.2663244336569579</v>
-      </c>
-      <c r="C14" s="25">
-        <f>(prod!$G14*MatEnergy_PlateGlass!C14)+((prod!$I14+prod!$K14)*MatEnergy_WindowGlass!C14)</f>
-        <v>0.13639239482200646</v>
-      </c>
-      <c r="D14" s="25">
-        <f>(prod!$G14*MatEnergy_PlateGlass!D14)+((prod!$I14+prod!$K14)*MatEnergy_WindowGlass!D14)</f>
-        <v>0.63482241100323622</v>
-      </c>
-      <c r="E14" s="25">
-        <f>(prod!$G14*MatEnergy_PlateGlass!E14)+((prod!$I14+prod!$K14)*MatEnergy_WindowGlass!E14)</f>
-        <v>0.19633050161812299</v>
-      </c>
-      <c r="F14" s="25">
-        <f>(prod!$G14*MatEnergy_PlateGlass!F14)+((prod!$I14+prod!$K14)*MatEnergy_WindowGlass!F14)</f>
-        <v>3.2802184466019409E-2</v>
-      </c>
-      <c r="G14" s="25">
-        <f>(prod!$G14*MatEnergy_PlateGlass!G14)+((prod!$I14+prod!$K14)*MatEnergy_WindowGlass!G14)</f>
-        <v>7.8377022653721679E-2</v>
-      </c>
-      <c r="H14" s="25">
-        <f>(prod!$G14*MatEnergy_PlateGlass!H14)+((prod!$I14+prod!$K14)*MatEnergy_WindowGlass!H14)</f>
-        <v>0.12738713592233009</v>
-      </c>
-      <c r="I14" s="25">
-        <f>(prod!$G14*MatEnergy_PlateGlass!I14)+((prod!$I14+prod!$K14)*MatEnergy_WindowGlass!I14)</f>
-        <v>2.2594255663430419E-2</v>
-      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
       <c r="K14" s="25"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -20841,38 +20748,14 @@
       <c r="A16" s="16">
         <v>1959</v>
       </c>
-      <c r="B16" s="25">
-        <f>(prod!$G16*MatEnergy_PlateGlass!B16)+((prod!$I16+prod!$K16)*MatEnergy_WindowGlass!B16)</f>
-        <v>0.23878347372643402</v>
-      </c>
-      <c r="C16" s="25">
-        <f>(prod!$G16*MatEnergy_PlateGlass!C16)+((prod!$I16+prod!$K16)*MatEnergy_WindowGlass!C16)</f>
-        <v>0.16507613317288408</v>
-      </c>
-      <c r="D16" s="25">
-        <f>(prod!$G16*MatEnergy_PlateGlass!D16)+((prod!$I16+prod!$K16)*MatEnergy_WindowGlass!D16)</f>
-        <v>0.62242326514239876</v>
-      </c>
-      <c r="E16" s="25">
-        <f>(prod!$G16*MatEnergy_PlateGlass!E16)+((prod!$I16+prod!$K16)*MatEnergy_WindowGlass!E16)</f>
-        <v>0.19398780585639791</v>
-      </c>
-      <c r="F16" s="25">
-        <f>(prod!$G16*MatEnergy_PlateGlass!F16)+((prod!$I16+prod!$K16)*MatEnergy_WindowGlass!F16)</f>
-        <v>3.057376654632972E-2</v>
-      </c>
-      <c r="G16" s="25">
-        <f>(prod!$G16*MatEnergy_PlateGlass!G16)+((prod!$I16+prod!$K16)*MatEnergy_WindowGlass!G16)</f>
-        <v>8.0891135178499801E-2</v>
-      </c>
-      <c r="H16" s="25">
-        <f>(prod!$G16*MatEnergy_PlateGlass!H16)+((prod!$I16+prod!$K16)*MatEnergy_WindowGlass!H16)</f>
-        <v>0.12481588447653429</v>
-      </c>
-      <c r="I16" s="25">
-        <f>(prod!$G16*MatEnergy_PlateGlass!I16)+((prod!$I16+prod!$K16)*MatEnergy_WindowGlass!I16)</f>
-        <v>2.3222783794624949E-2</v>
-      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
       <c r="K16" s="25"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -20917,38 +20800,14 @@
       <c r="A18" s="16">
         <v>1961</v>
       </c>
-      <c r="B18" s="25">
-        <f>(prod!$G18*MatEnergy_PlateGlass!B18)+((prod!$I18+prod!$K18)*MatEnergy_WindowGlass!B18)</f>
-        <v>0.24741410129096325</v>
-      </c>
-      <c r="C18" s="25">
-        <f>(prod!$G18*MatEnergy_PlateGlass!C18)+((prod!$I18+prod!$K18)*MatEnergy_WindowGlass!C18)</f>
-        <v>0.15608738828202581</v>
-      </c>
-      <c r="D18" s="25">
-        <f>(prod!$G18*MatEnergy_PlateGlass!D18)+((prod!$I18+prod!$K18)*MatEnergy_WindowGlass!D18)</f>
-        <v>0.62630883813306859</v>
-      </c>
-      <c r="E18" s="25">
-        <f>(prod!$G18*MatEnergy_PlateGlass!E18)+((prod!$I18+prod!$K18)*MatEnergy_WindowGlass!E18)</f>
-        <v>0.19472194637537238</v>
-      </c>
-      <c r="F18" s="25">
-        <f>(prod!$G18*MatEnergy_PlateGlass!F18)+((prod!$I18+prod!$K18)*MatEnergy_WindowGlass!F18)</f>
-        <v>3.12720953326713E-2</v>
-      </c>
-      <c r="G18" s="25">
-        <f>(prod!$G18*MatEnergy_PlateGlass!G18)+((prod!$I18+prod!$K18)*MatEnergy_WindowGlass!G18)</f>
-        <v>8.0103277060575961E-2</v>
-      </c>
-      <c r="H18" s="25">
-        <f>(prod!$G18*MatEnergy_PlateGlass!H18)+((prod!$I18+prod!$K18)*MatEnergy_WindowGlass!H18)</f>
-        <v>0.12562164846077456</v>
-      </c>
-      <c r="I18" s="25">
-        <f>(prod!$G18*MatEnergy_PlateGlass!I18)+((prod!$I18+prod!$K18)*MatEnergy_WindowGlass!I18)</f>
-        <v>2.302581926514399E-2</v>
-      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
       <c r="K18" s="25"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -20993,38 +20852,14 @@
       <c r="A20" s="16">
         <v>1963</v>
       </c>
-      <c r="B20" s="25">
-        <f>(prod!$G20*MatEnergy_PlateGlass!B20)+((prod!$I20+prod!$K20)*MatEnergy_WindowGlass!B20)</f>
-        <v>0.23006188925081433</v>
-      </c>
-      <c r="C20" s="25">
-        <f>(prod!$G20*MatEnergy_PlateGlass!C20)+((prod!$I20+prod!$K20)*MatEnergy_WindowGlass!C20)</f>
-        <v>0.17415960912052117</v>
-      </c>
-      <c r="D20" s="25">
-        <f>(prod!$G20*MatEnergy_PlateGlass!D20)+((prod!$I20+prod!$K20)*MatEnergy_WindowGlass!D20)</f>
-        <v>0.61849674267100974</v>
-      </c>
-      <c r="E20" s="25">
-        <f>(prod!$G20*MatEnergy_PlateGlass!E20)+((prod!$I20+prod!$K20)*MatEnergy_WindowGlass!E20)</f>
-        <v>0.19324592833876222</v>
-      </c>
-      <c r="F20" s="25">
-        <f>(prod!$G20*MatEnergy_PlateGlass!F20)+((prod!$I20+prod!$K20)*MatEnergy_WindowGlass!F20)</f>
-        <v>2.9868078175895763E-2</v>
-      </c>
-      <c r="G20" s="25">
-        <f>(prod!$G20*MatEnergy_PlateGlass!G20)+((prod!$I20+prod!$K20)*MatEnergy_WindowGlass!G20)</f>
-        <v>8.1687296416938115E-2</v>
-      </c>
-      <c r="H20" s="25">
-        <f>(prod!$G20*MatEnergy_PlateGlass!H20)+((prod!$I20+prod!$K20)*MatEnergy_WindowGlass!H20)</f>
-        <v>0.12400162866449511</v>
-      </c>
-      <c r="I20" s="25">
-        <f>(prod!$G20*MatEnergy_PlateGlass!I20)+((prod!$I20+prod!$K20)*MatEnergy_WindowGlass!I20)</f>
-        <v>2.3421824104234525E-2</v>
-      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
       <c r="K20" s="25"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -21069,38 +20904,14 @@
       <c r="A22" s="16">
         <v>1965</v>
       </c>
-      <c r="B22" s="25">
-        <f>(prod!$G22*MatEnergy_PlateGlass!B22)+((prod!$I22+prod!$K22)*MatEnergy_WindowGlass!B22)</f>
-        <v>0.24235899255054988</v>
-      </c>
-      <c r="C22" s="25">
-        <f>(prod!$G22*MatEnergy_PlateGlass!C22)+((prod!$I22+prod!$K22)*MatEnergy_WindowGlass!C22)</f>
-        <v>0.16135225257183397</v>
-      </c>
-      <c r="D22" s="25">
-        <f>(prod!$G22*MatEnergy_PlateGlass!D22)+((prod!$I22+prod!$K22)*MatEnergy_WindowGlass!D22)</f>
-        <v>0.62403299042213556</v>
-      </c>
-      <c r="E22" s="25">
-        <f>(prod!$G22*MatEnergy_PlateGlass!E22)+((prod!$I22+prod!$K22)*MatEnergy_WindowGlass!E22)</f>
-        <v>0.19429194749911319</v>
-      </c>
-      <c r="F22" s="25">
-        <f>(prod!$G22*MatEnergy_PlateGlass!F22)+((prod!$I22+prod!$K22)*MatEnergy_WindowGlass!F22)</f>
-        <v>3.0863072011351543E-2</v>
-      </c>
-      <c r="G22" s="25">
-        <f>(prod!$G22*MatEnergy_PlateGlass!G22)+((prod!$I22+prod!$K22)*MatEnergy_WindowGlass!G22)</f>
-        <v>8.0564739269244429E-2</v>
-      </c>
-      <c r="H22" s="25">
-        <f>(prod!$G22*MatEnergy_PlateGlass!H22)+((prod!$I22+prod!$K22)*MatEnergy_WindowGlass!H22)</f>
-        <v>0.12514969847463642</v>
-      </c>
-      <c r="I22" s="25">
-        <f>(prod!$G22*MatEnergy_PlateGlass!I22)+((prod!$I22+prod!$K22)*MatEnergy_WindowGlass!I22)</f>
-        <v>2.3141184817311103E-2</v>
-      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
       <c r="K22" s="25"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -21145,38 +20956,14 @@
       <c r="A24" s="16">
         <v>1967</v>
       </c>
-      <c r="B24" s="25">
-        <f>(prod!$G24*MatEnergy_PlateGlass!B24)+((prod!$I24+prod!$K24)*MatEnergy_WindowGlass!B24)</f>
-        <v>0.24180917782026765</v>
-      </c>
-      <c r="C24" s="25">
-        <f>(prod!$G24*MatEnergy_PlateGlass!C24)+((prod!$I24+prod!$K24)*MatEnergy_WindowGlass!C24)</f>
-        <v>0.13993307839388147</v>
-      </c>
-      <c r="D24" s="25">
-        <f>(prod!$G24*MatEnergy_PlateGlass!D24)+((prod!$I24+prod!$K24)*MatEnergy_WindowGlass!D24)</f>
-        <v>0.58901414913957928</v>
-      </c>
-      <c r="E24" s="25">
-        <f>(prod!$G24*MatEnergy_PlateGlass!E24)+((prod!$I24+prod!$K24)*MatEnergy_WindowGlass!E24)</f>
-        <v>0.17881032504780114</v>
-      </c>
-      <c r="F24" s="25">
-        <f>(prod!$G24*MatEnergy_PlateGlass!F24)+((prod!$I24+prod!$K24)*MatEnergy_WindowGlass!F24)</f>
-        <v>1.3719694072657744E-2</v>
-      </c>
-      <c r="G24" s="25">
-        <f>(prod!$G24*MatEnergy_PlateGlass!G24)+((prod!$I24+prod!$K24)*MatEnergy_WindowGlass!G24)</f>
-        <v>6.4916634799235179E-2</v>
-      </c>
-      <c r="H24" s="25">
-        <f>(prod!$G24*MatEnergy_PlateGlass!H24)+((prod!$I24+prod!$K24)*MatEnergy_WindowGlass!H24)</f>
-        <v>0.12790898661567876</v>
-      </c>
-      <c r="I24" s="25">
-        <f>(prod!$G24*MatEnergy_PlateGlass!I24)+((prod!$I24+prod!$K24)*MatEnergy_WindowGlass!I24)</f>
-        <v>3.4575908221797319E-2</v>
-      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
       <c r="K24" s="25"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -21221,38 +21008,14 @@
       <c r="A26" s="16">
         <v>1969</v>
       </c>
-      <c r="B26" s="25">
-        <f>(prod!$G26*MatEnergy_PlateGlass!B26)+((prod!$I26+prod!$K26)*MatEnergy_WindowGlass!B26)</f>
-        <v>0.22401784902228286</v>
-      </c>
-      <c r="C26" s="25">
-        <f>(prod!$G26*MatEnergy_PlateGlass!C26)+((prod!$I26+prod!$K26)*MatEnergy_WindowGlass!C26)</f>
-        <v>0.15563130968622099</v>
-      </c>
-      <c r="D26" s="25">
-        <f>(prod!$G26*MatEnergy_PlateGlass!D26)+((prod!$I26+prod!$K26)*MatEnergy_WindowGlass!D26)</f>
-        <v>0.57652773988176442</v>
-      </c>
-      <c r="E26" s="25">
-        <f>(prod!$G26*MatEnergy_PlateGlass!E26)+((prod!$I26+prod!$K26)*MatEnergy_WindowGlass!E26)</f>
-        <v>0.17530979990904957</v>
-      </c>
-      <c r="F26" s="25">
-        <f>(prod!$G26*MatEnergy_PlateGlass!F26)+((prod!$I26+prod!$K26)*MatEnergy_WindowGlass!F26)</f>
-        <v>1.3683606184629379E-2</v>
-      </c>
-      <c r="G26" s="25">
-        <f>(prod!$G26*MatEnergy_PlateGlass!G26)+((prod!$I26+prod!$K26)*MatEnergy_WindowGlass!G26)</f>
-        <v>6.4519668030923155E-2</v>
-      </c>
-      <c r="H26" s="25">
-        <f>(prod!$G26*MatEnergy_PlateGlass!H26)+((prod!$I26+prod!$K26)*MatEnergy_WindowGlass!H26)</f>
-        <v>0.12660982264665757</v>
-      </c>
-      <c r="I26" s="25">
-        <f>(prod!$G26*MatEnergy_PlateGlass!I26)+((prod!$I26+prod!$K26)*MatEnergy_WindowGlass!I26)</f>
-        <v>3.6452478399272396E-2</v>
-      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
       <c r="K26" s="25"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -21297,38 +21060,14 @@
       <c r="A28" s="16">
         <v>1971</v>
       </c>
-      <c r="B28" s="25">
-        <f>(prod!$G28*MatEnergy_PlateGlass!B28)+((prod!$I28+prod!$K28)*MatEnergy_WindowGlass!B28)</f>
-        <v>0.25286726435064127</v>
-      </c>
-      <c r="C28" s="25">
-        <f>(prod!$G28*MatEnergy_PlateGlass!C28)+((prod!$I28+prod!$K28)*MatEnergy_WindowGlass!C28)</f>
-        <v>0.13017594322002243</v>
-      </c>
-      <c r="D28" s="25">
-        <f>(prod!$G28*MatEnergy_PlateGlass!D28)+((prod!$I28+prod!$K28)*MatEnergy_WindowGlass!D28)</f>
-        <v>0.5967749968870627</v>
-      </c>
-      <c r="E28" s="25">
-        <f>(prod!$G28*MatEnergy_PlateGlass!E28)+((prod!$I28+prod!$K28)*MatEnergy_WindowGlass!E28)</f>
-        <v>0.1809860540405927</v>
-      </c>
-      <c r="F28" s="25">
-        <f>(prod!$G28*MatEnergy_PlateGlass!F28)+((prod!$I28+prod!$K28)*MatEnergy_WindowGlass!F28)</f>
-        <v>1.3742124268459721E-2</v>
-      </c>
-      <c r="G28" s="25">
-        <f>(prod!$G28*MatEnergy_PlateGlass!G28)+((prod!$I28+prod!$K28)*MatEnergy_WindowGlass!G28)</f>
-        <v>6.5163366953056912E-2</v>
-      </c>
-      <c r="H28" s="25">
-        <f>(prod!$G28*MatEnergy_PlateGlass!H28)+((prod!$I28+prod!$K28)*MatEnergy_WindowGlass!H28)</f>
-        <v>0.12871647366454986</v>
-      </c>
-      <c r="I28" s="25">
-        <f>(prod!$G28*MatEnergy_PlateGlass!I28)+((prod!$I28+prod!$K28)*MatEnergy_WindowGlass!I28)</f>
-        <v>3.3409538040094632E-2</v>
-      </c>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
       <c r="K28" s="25"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -21373,38 +21112,14 @@
       <c r="A30" s="16">
         <v>1973</v>
       </c>
-      <c r="B30" s="25">
-        <f>(prod!$G30*MatEnergy_PlateGlass!B30)+((prod!$I30+prod!$K30)*MatEnergy_WindowGlass!B$29)</f>
-        <v>0.21036243740393676</v>
-      </c>
-      <c r="C30" s="25">
-        <f>(prod!$G30*MatEnergy_PlateGlass!C30)+((prod!$I30+prod!$K30)*MatEnergy_WindowGlass!C$29)</f>
-        <v>0.16768020229064406</v>
-      </c>
-      <c r="D30" s="25">
-        <f>(prod!$G30*MatEnergy_PlateGlass!D30)+((prod!$I30+prod!$K30)*MatEnergy_WindowGlass!D$29)</f>
-        <v>0.56694402300560276</v>
-      </c>
-      <c r="E30" s="25">
-        <f>(prod!$G30*MatEnergy_PlateGlass!E30)+((prod!$I30+prod!$K30)*MatEnergy_WindowGlass!E$29)</f>
-        <v>0.17262303535128171</v>
-      </c>
-      <c r="F30" s="25">
-        <f>(prod!$G30*MatEnergy_PlateGlass!F30)+((prod!$I30+prod!$K30)*MatEnergy_WindowGlass!F$29)</f>
-        <v>1.3655907580941051E-2</v>
-      </c>
-      <c r="G30" s="25">
-        <f>(prod!$G30*MatEnergy_PlateGlass!G30)+((prod!$I30+prod!$K30)*MatEnergy_WindowGlass!G$29)</f>
-        <v>6.4214983390351532E-2</v>
-      </c>
-      <c r="H30" s="25">
-        <f>(prod!$G30*MatEnergy_PlateGlass!H30)+((prod!$I30+prod!$K30)*MatEnergy_WindowGlass!H$29)</f>
-        <v>0.12561267291387773</v>
-      </c>
-      <c r="I30" s="25">
-        <f>(prod!$G30*MatEnergy_PlateGlass!I30)+((prod!$I30+prod!$K30)*MatEnergy_WindowGlass!I$29)</f>
-        <v>3.7892805791065499E-2</v>
-      </c>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
       <c r="K30" s="25"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -21449,76 +21164,28 @@
       <c r="A32" s="16">
         <v>1975</v>
       </c>
-      <c r="B32" s="25">
-        <f>(prod!$G32*MatEnergy_PlateGlass!B32)+((prod!$I32+prod!$K32)*MatEnergy_WindowGlass!B$29)</f>
-        <v>0.21804830917874396</v>
-      </c>
-      <c r="C32" s="25">
-        <f>(prod!$G32*MatEnergy_PlateGlass!C32)+((prod!$I32+prod!$K32)*MatEnergy_WindowGlass!C$29)</f>
-        <v>0.16089855072463768</v>
-      </c>
-      <c r="D32" s="25">
-        <f>(prod!$G32*MatEnergy_PlateGlass!D32)+((prod!$I32+prod!$K32)*MatEnergy_WindowGlass!D$29)</f>
-        <v>0.57233816425120776</v>
-      </c>
-      <c r="E32" s="25">
-        <f>(prod!$G32*MatEnergy_PlateGlass!E32)+((prod!$I32+prod!$K32)*MatEnergy_WindowGlass!E$29)</f>
-        <v>0.1741352657004831</v>
-      </c>
-      <c r="F32" s="25">
-        <f>(prod!$G32*MatEnergy_PlateGlass!F32)+((prod!$I32+prod!$K32)*MatEnergy_WindowGlass!F$29)</f>
-        <v>1.3671497584541066E-2</v>
-      </c>
-      <c r="G32" s="25">
-        <f>(prod!$G32*MatEnergy_PlateGlass!G32)+((prod!$I32+prod!$K32)*MatEnergy_WindowGlass!G$29)</f>
-        <v>6.4386473429951699E-2</v>
-      </c>
-      <c r="H32" s="25">
-        <f>(prod!$G32*MatEnergy_PlateGlass!H32)+((prod!$I32+prod!$K32)*MatEnergy_WindowGlass!H$29)</f>
-        <v>0.12617391304347825</v>
-      </c>
-      <c r="I32" s="25">
-        <f>(prod!$G32*MatEnergy_PlateGlass!I32)+((prod!$I32+prod!$K32)*MatEnergy_WindowGlass!I$29)</f>
-        <v>3.7082125603864736E-2</v>
-      </c>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
       <c r="K32" s="25"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <v>1976</v>
       </c>
-      <c r="B33" s="25">
-        <f>(prod!$G33*MatEnergy_PlateGlass!B33)+((prod!$I33+prod!$K33)*MatEnergy_WindowGlass!B$29)</f>
-        <v>0.2032412054912055</v>
-      </c>
-      <c r="C33" s="25">
-        <f>(prod!$G33*MatEnergy_PlateGlass!C33)+((prod!$I33+prod!$K33)*MatEnergy_WindowGlass!C$29)</f>
-        <v>0.17396364221364219</v>
-      </c>
-      <c r="D33" s="25">
-        <f>(prod!$G33*MatEnergy_PlateGlass!D33)+((prod!$I33+prod!$K33)*MatEnergy_WindowGlass!D$29)</f>
-        <v>0.56194616044616041</v>
-      </c>
-      <c r="E33" s="25">
-        <f>(prod!$G33*MatEnergy_PlateGlass!E33)+((prod!$I33+prod!$K33)*MatEnergy_WindowGlass!E$29)</f>
-        <v>0.1712219004719005</v>
-      </c>
-      <c r="F33" s="25">
-        <f>(prod!$G33*MatEnergy_PlateGlass!F33)+((prod!$I33+prod!$K33)*MatEnergy_WindowGlass!F$29)</f>
-        <v>1.3641462891462893E-2</v>
-      </c>
-      <c r="G33" s="25">
-        <f>(prod!$G33*MatEnergy_PlateGlass!G33)+((prod!$I33+prod!$K33)*MatEnergy_WindowGlass!G$29)</f>
-        <v>6.4056091806091814E-2</v>
-      </c>
-      <c r="H33" s="25">
-        <f>(prod!$G33*MatEnergy_PlateGlass!H33)+((prod!$I33+prod!$K33)*MatEnergy_WindowGlass!H$29)</f>
-        <v>0.12509266409266409</v>
-      </c>
-      <c r="I33" s="25">
-        <f>(prod!$G33*MatEnergy_PlateGlass!I33)+((prod!$I33+prod!$K33)*MatEnergy_WindowGlass!I$29)</f>
-        <v>3.8643929643929639E-2</v>
-      </c>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
       <c r="K33" s="25"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -22611,7 +22278,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M41" sqref="M41"/>
+      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22626,7 +22293,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="69" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="C1" s="69" t="s">
         <v>19</v>

--- a/RawData/FR_RawData_VPython.xlsx
+++ b/RawData/FR_RawData_VPython.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\01_MFA_GlassIndustry\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A05746F-BD86-4BAD-8CF0-6B785AD46C7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96E4CA4-1FDA-44A1-9D85-1943258C9BC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="600" windowWidth="18525" windowHeight="15600" tabRatio="681" firstSheet="5" activeTab="8" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
+    <workbookView xWindow="3510" yWindow="600" windowWidth="18525" windowHeight="15600" tabRatio="681" firstSheet="6" activeTab="7" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
   </bookViews>
   <sheets>
     <sheet name="References" sheetId="26" r:id="rId1"/>
@@ -6043,7 +6043,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="75">
   <si>
     <t>year</t>
   </si>
@@ -6099,9 +6099,6 @@
     <t>sodium carbonate, kg/kg</t>
   </si>
   <si>
-    <t>fuel, GJ/t</t>
-  </si>
-  <si>
     <t>electricity, GJ/t</t>
   </si>
   <si>
@@ -6112,9 +6109,6 @@
   </si>
   <si>
     <t>Population, x1000</t>
-  </si>
-  <si>
-    <t>fuel, kg/kg</t>
   </si>
   <si>
     <t>electricity, kWh/kg</t>
@@ -6271,6 +6265,9 @@
   </si>
   <si>
     <t>fuel oil, GJ/t</t>
+  </si>
+  <si>
+    <t>fuel oil, kg/kg</t>
   </si>
 </sst>
 </file>
@@ -8632,23 +8629,23 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="78" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="72"/>
       <c r="B3" s="77"/>
       <c r="C3" s="73" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" s="72"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="76" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C7" s="71" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
@@ -8657,10 +8654,10 @@
     </row>
     <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="76" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C9" s="71" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
@@ -8669,10 +8666,10 @@
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="76" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C11" s="71" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
@@ -8681,13 +8678,13 @@
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="76" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C13" s="65" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" s="75" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
@@ -8696,10 +8693,10 @@
     </row>
     <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="76" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C15" s="71" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -8707,13 +8704,13 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="76" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D17" s="75" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
@@ -8721,10 +8718,10 @@
     </row>
     <row r="19" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="76" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C19" s="71" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
@@ -8732,13 +8729,13 @@
     </row>
     <row r="21" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="76" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C21" s="65" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D21" s="75" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="2:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
@@ -8748,13 +8745,13 @@
     </row>
     <row r="23" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="76" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C23" s="65" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D23" s="74" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="2:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
@@ -8764,13 +8761,13 @@
     </row>
     <row r="25" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B25" s="76" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C25" s="65" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D25" s="74" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="2:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
@@ -8780,13 +8777,13 @@
     </row>
     <row r="27" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B27" s="76" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C27" s="65" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D27" s="75" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="2:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
@@ -8796,13 +8793,13 @@
     </row>
     <row r="29" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B29" s="76" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C29" s="65" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D29" s="75" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="2:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
@@ -8812,10 +8809,10 @@
     </row>
     <row r="31" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="76" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C31" s="71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="2:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
@@ -8824,10 +8821,10 @@
     </row>
     <row r="33" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" s="76" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C33" s="71" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="2:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
@@ -8836,13 +8833,13 @@
     </row>
     <row r="35" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="76" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C35" s="65" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D35" s="74" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
@@ -8850,13 +8847,13 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="76" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C37" s="65" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D37" s="75" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="2:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
@@ -8866,10 +8863,10 @@
     </row>
     <row r="39" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B39" s="76" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C39" s="71" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="2:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
@@ -8878,13 +8875,13 @@
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="76" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C41" s="65" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D41" s="75" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -9734,25 +9731,25 @@
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J1" s="67" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>3</v>
@@ -12265,7 +12262,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -13438,7 +13435,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -14618,7 +14615,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -15269,10 +15266,10 @@
   <dimension ref="A1:BF88"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15314,19 +15311,19 @@
       </c>
       <c r="J1" s="51"/>
       <c r="K1" s="5" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="L1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -17505,7 +17502,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17548,19 +17545,19 @@
       </c>
       <c r="J1" s="45"/>
       <c r="K1" s="5" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="L1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -20389,11 +20386,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{621D97B3-9416-45F1-8919-6CB0D3F82407}">
   <dimension ref="A1:BR88"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L29" sqref="L29"/>
+      <selection pane="bottomRight" activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22274,11 +22271,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D689AC4E-6DA8-4485-9988-F432D0671361}">
   <dimension ref="A1:BM88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22293,13 +22290,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="69" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C1" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="69" t="s">
         <v>19</v>
-      </c>
-      <c r="D1" s="69" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">

--- a/RawData/FR_RawData_VPython.xlsx
+++ b/RawData/FR_RawData_VPython.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\01_MFA_GlassIndustry\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96E4CA4-1FDA-44A1-9D85-1943258C9BC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3F1F65-3B98-45E2-88F7-32ACA24958E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="600" windowWidth="18525" windowHeight="15600" tabRatio="681" firstSheet="6" activeTab="7" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
+    <workbookView xWindow="3900" yWindow="600" windowWidth="21165" windowHeight="15600" tabRatio="681" firstSheet="7" activeTab="9" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
   </bookViews>
   <sheets>
     <sheet name="References" sheetId="26" r:id="rId1"/>
@@ -5841,111 +5841,225 @@
         </r>
       </text>
     </comment>
-    <comment ref="B67" authorId="0" shapeId="0" xr:uid="{EE75B1FD-415B-4638-A5F0-0E49ADB308ED}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Average between:
-Ligeron 2011
-and
-Life Cycle Assessment of Float Glass, PE International, 2011
-https://glassforeurope.com/report-life-cycle-assessment-of-float-glass/
-(accessed September 30, 2020)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C67" authorId="0" shapeId="0" xr:uid="{DB06A4B3-5FF5-42F5-AD88-9A55BF07684A}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Average between:
-Ligeron 2011
-and
-Life Cycle Assessment of Float Glass, PE International, 2011
-https://glassforeurope.com/report-life-cycle-assessment-of-float-glass/
-(accessed September 30, 2020)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D67" authorId="0" shapeId="0" xr:uid="{E2AE733A-3164-40DB-BAA6-464E1B814C4C}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Average between:
-Ligeron 2011
-and
-Life Cycle Assessment of Float Glass, PE International, 2011
-https://glassforeurope.com/report-life-cycle-assessment-of-float-glass/
-(accessed September 30, 2020)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B76" authorId="0" shapeId="0" xr:uid="{3EAEF132-4C31-413C-9468-4289F40B04C3}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Average between:
-Ligeron 2011
-and
-Life Cycle Assessment of Float Glass, PE International, 2011
-https://glassforeurope.com/report-life-cycle-assessment-of-float-glass/
-(accessed September 30, 2020)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C76" authorId="0" shapeId="0" xr:uid="{2AC34046-059A-4CCC-AF95-7FB68A039DE0}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Average between:
-Ligeron 2011
-and
-Life Cycle Assessment of Float Glass, PE International, 2011
-https://glassforeurope.com/report-life-cycle-assessment-of-float-glass/
-(accessed September 30, 2020)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D76" authorId="0" shapeId="0" xr:uid="{EB28F2EA-5977-4F3B-ADB7-A711697F86E8}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Average between:
-Ligeron 2011
-and
-Life Cycle Assessment of Float Glass, PE International, 2011
-https://glassforeurope.com/report-life-cycle-assessment-of-float-glass/
-(accessed September 30, 2020)</t>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{8F523441-3690-4779-B902-A83ACDDF530D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Unless otherwise indicated in a note attached to the cell, all data collected in this column comes from:
+(Tackels, 1993)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B37" authorId="0" shapeId="0" xr:uid="{FB98D243-C457-434D-A901-C90661DFAD34}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>see also: (VGI-FIV, 2012)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C37" authorId="0" shapeId="0" xr:uid="{5F5C70AD-DBC8-4915-ADB6-D1EE9103CE41}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>see also: (VGI-FIV, 2012)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D37" authorId="0" shapeId="0" xr:uid="{974D3BE9-D00E-4006-8E52-F225ADC17D54}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>see also: (VGI-FIV, 2012)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B42" authorId="0" shapeId="0" xr:uid="{2BDD7A47-EEC8-4DF8-A553-7356A9AB1F2B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(VGI-FIV, 2012)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C42" authorId="0" shapeId="0" xr:uid="{F2C4AD74-C84B-4B41-869E-6977936325CA}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(VGI-FIV, 2012)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D42" authorId="0" shapeId="0" xr:uid="{103843C7-10D6-47D5-96E2-2254BB48476B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(VGI-FIV, 2012)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B48" authorId="0" shapeId="0" xr:uid="{3F27AABD-C7FC-4484-B390-5C7DBF056BBF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Tackels, 1993)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D48" authorId="0" shapeId="0" xr:uid="{F0397DF9-6213-417B-AC3B-0A6F05D46692}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Tackels, 1993)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B67" authorId="0" shapeId="0" xr:uid="{5888522F-1215-46E6-9F51-1DFAE3147FF5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(PE International, 2011) and (Schmitz et al., 2011)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C67" authorId="0" shapeId="0" xr:uid="{4E1BDD1B-34EF-408E-A213-57D62F2A0FEE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(PE International, 2011) and (Schmitz et al., 2011)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D67" authorId="0" shapeId="0" xr:uid="{2B29EAAC-0007-4DEC-81A9-2224FF0876E0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(PE International, 2011) and (Schmitz et al., 2011)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E67" authorId="0" shapeId="0" xr:uid="{429DA46A-A99A-4B22-AC7D-241780C5B0A8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(PE International, 2011) and (Schmitz et al., 2011)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B76" authorId="0" shapeId="0" xr:uid="{37FFF814-7BEE-4CAC-B41E-4BA987842EFD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(PE International, 2011) and (Schmitz et al., 2011)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C76" authorId="0" shapeId="0" xr:uid="{3E93209E-E3DE-4837-8EA7-99E7DA2907E9}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(PE International, 2011) and (Schmitz et al., 2011)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D76" authorId="0" shapeId="0" xr:uid="{F7A37CF1-0F25-4B65-89EF-53A5450C0760}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(PE International, 2011) and (Schmitz et al., 2011)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E76" authorId="0" shapeId="0" xr:uid="{49F34713-3569-4A3B-BE6B-73311B6A3CCC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(PE International, 2011) and (Schmitz et al., 2011)</t>
         </r>
       </text>
     </comment>
@@ -5969,7 +6083,7 @@
             <family val="2"/>
           </rPr>
           <t>Unless otherwise indicated in a note attached to the cell, all data collected in this column comes from:
-"Lindustrie verrière française en 2006", Verre, vol.13, no. 6, dec 2007, 66-9</t>
+(Anon., 2007) and (Schmitz et al., 2011)</t>
         </r>
       </text>
     </comment>
@@ -5996,6 +6110,20 @@
             <family val="2"/>
           </rPr>
           <t>Boaglio, Evolution des conditions de production dans l'industrie du verre en France de la révolution à nos jours, 1990</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B64" authorId="0" shapeId="0" xr:uid="{B1716C47-418F-4EF7-B42E-163DFB23B514}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>550 tCO2/tp (Anon., 2007)
+760 tCO2/tp (Schmitz et al., 2011)</t>
         </r>
       </text>
     </comment>
@@ -6043,7 +6171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="83">
   <si>
     <t>year</t>
   </si>
@@ -6192,13 +6320,7 @@
     <t>http://catalogue.bnf.fr/ark:/12148/cb35674554t</t>
   </si>
   <si>
-    <t>Ligeron Sonovision, 2011. Analyse de Cycle de Vie ‘cradle to gate’ d’un verre plat type float (Online EPD). for Glass for Europe.</t>
-  </si>
-  <si>
     <t>https://glassforeurope.com/report-life-cycle-assessment-of-float-glass/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE International, 2011. Life Cycle Assessment of Float Glass. for Glass for Europe. </t>
   </si>
   <si>
     <t xml:space="preserve">Verre Online, 2004. Industrie du verre [WWW Document]. Verre Online. </t>
@@ -6268,6 +6390,36 @@
   </si>
   <si>
     <t>fuel oil, kg/kg</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>(Tackels, 1993)</t>
+  </si>
+  <si>
+    <t>Ligeron Sonovision, 2011. Analyse de Cycle de Vie ‘cradle to gate’ d’un verre plat type float (Online EPD). Brussels: Glass for Europe.</t>
+  </si>
+  <si>
+    <t>Total, GJ/t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE International, 2011. Life Cycle Assessment of Float Glass. EPD for Glass for Europe. </t>
+  </si>
+  <si>
+    <t>Tackels, Guy, 1993. La dépollution des fours de verrerie : un nouveau défi pour les verriers français. Verre, 7 (5), 433-441.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anon., 2007. L'industrie verrière française en 2006. Verre, 13 (6), 66-9. </t>
+  </si>
+  <si>
+    <t>(Anon., 2007)</t>
+  </si>
+  <si>
+    <t>Fédération de l'industrie du verre (VGI-FIV), 2001. La réduction des émissions de gaz à effet de serre.</t>
+  </si>
+  <si>
+    <t>(VGI-FIV, 2001)</t>
   </si>
 </sst>
 </file>
@@ -6430,7 +6582,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -6647,10 +6799,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -6659,6 +6807,33 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -8613,289 +8788,332 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C68D57F-0F45-4FFC-9D40-2D0FFB63D294}">
-  <dimension ref="A2:D41"/>
+  <dimension ref="A2:D47"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="118.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="60.5703125" style="76" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.5703125" style="74" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="88.5703125" style="65" customWidth="1"/>
-    <col min="4" max="4" width="86.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="86.140625" style="74" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="78" t="s">
-        <v>72</v>
+      <c r="B2" s="76" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="72"/>
-      <c r="B3" s="77"/>
+      <c r="B3" s="75"/>
       <c r="C3" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="72"/>
+      <c r="D3" s="75"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="76" t="s">
-        <v>66</v>
+      <c r="B7" s="74" t="s">
+        <v>64</v>
       </c>
       <c r="C7" s="71" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="76"/>
+      <c r="B8" s="74"/>
       <c r="C8" s="71"/>
-    </row>
-    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="76" t="s">
-        <v>61</v>
+      <c r="D8" s="74"/>
+    </row>
+    <row r="9" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="74" t="s">
+        <v>80</v>
       </c>
       <c r="C9" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="74"/>
+    </row>
+    <row r="10" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="74"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="74"/>
+    </row>
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B11" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="71" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="76"/>
-      <c r="C10" s="71"/>
-    </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="76" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="71" t="s">
+    <row r="12" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="74"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="74"/>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="74" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="71" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="76"/>
-      <c r="C12" s="71"/>
-    </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="76" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="65" t="s">
+    <row r="14" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="74"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="74"/>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="75" t="s">
+      <c r="D15" s="80" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="76"/>
-      <c r="C14" s="65"/>
-    </row>
-    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B15" s="76" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="71" t="s">
+    <row r="16" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="74"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="74"/>
+    </row>
+    <row r="17" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B17" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="71" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="71"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="76" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="65" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="75" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C18" s="71"/>
     </row>
-    <row r="19" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="76" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="71" t="s">
-        <v>31</v>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="80" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C20" s="71"/>
     </row>
     <row r="21" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="76" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="65" t="s">
+      <c r="B21" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="71" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="71"/>
+    </row>
+    <row r="23" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="75" t="s">
+      <c r="D23" s="80" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="2:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="76"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="75"/>
-    </row>
-    <row r="23" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="76" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="65" t="s">
+    <row r="24" spans="2:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="74"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="80"/>
+    </row>
+    <row r="25" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="74" t="s">
+      <c r="D25" s="80" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="2:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="76"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="74"/>
-    </row>
-    <row r="25" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B25" s="76" t="s">
+    <row r="26" spans="2:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="74"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="80"/>
+    </row>
+    <row r="27" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B27" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="80" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="74"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="80"/>
+    </row>
+    <row r="29" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B29" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="80" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="74"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="80"/>
+    </row>
+    <row r="31" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B31" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="80" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="74"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="80"/>
+    </row>
+    <row r="33" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B33" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="71" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="74"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="74"/>
+    </row>
+    <row r="35" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B35" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="65" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="74" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="76"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="74"/>
-    </row>
-    <row r="27" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B27" s="76" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="75" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="76"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="75"/>
-    </row>
-    <row r="29" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B29" s="76" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="75" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="76"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="75"/>
-    </row>
-    <row r="31" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B31" s="76" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="71" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="76"/>
-      <c r="C32" s="71"/>
-    </row>
-    <row r="33" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B33" s="76" t="s">
+      <c r="C35" s="71" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="74"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="74"/>
+    </row>
+    <row r="37" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B37" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="80" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C38" s="71"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="80" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="74"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="80"/>
+    </row>
+    <row r="41" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B41" s="74" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="71" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="74"/>
+      <c r="C42" s="71"/>
+      <c r="D42" s="74"/>
+    </row>
+    <row r="43" spans="2:4" s="66" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B43" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="74"/>
+    </row>
+    <row r="44" spans="2:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="74"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="74"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="71" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="76"/>
-      <c r="C34" s="71"/>
-    </row>
-    <row r="35" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B35" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="74" t="s">
+      <c r="C45" s="65" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C36" s="71"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="76" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="65" t="s">
+      <c r="D45" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="75" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="76"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="75"/>
-    </row>
-    <row r="39" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B39" s="76" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" s="71" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="76"/>
-      <c r="C40" s="71"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="76" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="D41" s="75" t="s">
-        <v>53</v>
+    </row>
+    <row r="47" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B47" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="71" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D17" r:id="rId1" xr:uid="{8AFB5A1E-4A65-4E17-BC63-AA40BB88DEF1}"/>
-    <hyperlink ref="D21" r:id="rId2" xr:uid="{5B146D8D-1110-4A3F-8903-939DEFCC84D0}"/>
-    <hyperlink ref="D23" r:id="rId3" xr:uid="{7D9DE34B-3258-45D8-A0C2-5168AC1BF268}"/>
-    <hyperlink ref="D25" r:id="rId4" xr:uid="{9E42D6CA-6407-4471-9356-8E52666C77C8}"/>
-    <hyperlink ref="D27" r:id="rId5" xr:uid="{0823426B-1810-4F0D-A091-3BBF2EB2491B}"/>
-    <hyperlink ref="D29" r:id="rId6" xr:uid="{45E5C5B1-4D6D-4994-BCA6-3332EB5D4737}"/>
-    <hyperlink ref="D35" r:id="rId7" xr:uid="{49A06CAD-3A74-49F2-872F-F381C7189FED}"/>
-    <hyperlink ref="D37" r:id="rId8" xr:uid="{71EF4F7F-653D-4821-A59E-E866D0C503A3}"/>
-    <hyperlink ref="D41" r:id="rId9" display="http://www.verreonline.fr/" xr:uid="{D6BD6815-88F5-4551-83DE-03DBB71B66BD}"/>
-    <hyperlink ref="D13" r:id="rId10" xr:uid="{958412F8-BDDA-4523-96C5-EAD7F64408B9}"/>
+    <hyperlink ref="D19" r:id="rId1" xr:uid="{8AFB5A1E-4A65-4E17-BC63-AA40BB88DEF1}"/>
+    <hyperlink ref="D23" r:id="rId2" xr:uid="{5B146D8D-1110-4A3F-8903-939DEFCC84D0}"/>
+    <hyperlink ref="D25" r:id="rId3" xr:uid="{7D9DE34B-3258-45D8-A0C2-5168AC1BF268}"/>
+    <hyperlink ref="D27" r:id="rId4" xr:uid="{9E42D6CA-6407-4471-9356-8E52666C77C8}"/>
+    <hyperlink ref="D29" r:id="rId5" xr:uid="{0823426B-1810-4F0D-A091-3BBF2EB2491B}"/>
+    <hyperlink ref="D31" r:id="rId6" xr:uid="{45E5C5B1-4D6D-4994-BCA6-3332EB5D4737}"/>
+    <hyperlink ref="D37" r:id="rId7" xr:uid="{49A06CAD-3A74-49F2-872F-F381C7189FED}"/>
+    <hyperlink ref="D39" r:id="rId8" xr:uid="{71EF4F7F-653D-4821-A59E-E866D0C503A3}"/>
+    <hyperlink ref="D45" r:id="rId9" display="http://www.verreonline.fr/" xr:uid="{D6BD6815-88F5-4551-83DE-03DBB71B66BD}"/>
+    <hyperlink ref="D15" r:id="rId10" xr:uid="{958412F8-BDDA-4523-96C5-EAD7F64408B9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId11"/>
@@ -8904,13 +9122,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70AADF96-AA57-46CE-950B-FAE3AC3D5FD3}">
-  <dimension ref="A1:BM88"/>
+  <dimension ref="A1:BB88"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G67" sqref="G67"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8920,7 +9138,7 @@
     <col min="3" max="16384" width="10.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -8928,442 +9146,493 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>1945</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1946</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>1947</v>
       </c>
       <c r="B4" s="1">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>1948</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>1949</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>1950</v>
       </c>
       <c r="B7" s="1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2950</v>
+      </c>
+      <c r="D7" s="85"/>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>1951</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="85"/>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>1952</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="85"/>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>1953</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="85"/>
+    </row>
+    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>1954</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="85"/>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>1955</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="85"/>
+    </row>
+    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>1956</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="85"/>
+    </row>
+    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>1957</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="85"/>
+    </row>
+    <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>1958</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="85"/>
+    </row>
+    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>1959</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="85"/>
+    </row>
+    <row r="17" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>1960</v>
       </c>
-      <c r="B17" s="1">
-        <v>1725</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="85">
+        <v>2055</v>
+      </c>
+      <c r="D17" s="85"/>
+    </row>
+    <row r="18" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>1961</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="85"/>
+    </row>
+    <row r="19" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>1962</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="85"/>
+    </row>
+    <row r="20" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>1963</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="85"/>
+    </row>
+    <row r="21" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>1964</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="85"/>
+    </row>
+    <row r="22" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>1965</v>
       </c>
-      <c r="B22" s="1">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="85">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>1966</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="85"/>
+      <c r="Z23" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>1967</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="85"/>
+    </row>
+    <row r="25" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>1968</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="85"/>
+    </row>
+    <row r="26" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>1969</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="85"/>
+    </row>
+    <row r="27" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>1970</v>
       </c>
-      <c r="B27" s="1">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="85">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>1971</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="85"/>
+    </row>
+    <row r="29" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>1972</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="85"/>
+    </row>
+    <row r="30" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>1973</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="85"/>
+    </row>
+    <row r="31" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>1974</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="85"/>
+    </row>
+    <row r="32" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>1975</v>
       </c>
-      <c r="B32" s="1">
-        <v>1075</v>
+      <c r="B32" s="85">
+        <v>1280</v>
       </c>
     </row>
     <row r="33" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>1976</v>
       </c>
+      <c r="B33" s="85"/>
     </row>
     <row r="34" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>1977</v>
       </c>
+      <c r="B34" s="85"/>
     </row>
     <row r="35" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>1978</v>
       </c>
+      <c r="B35" s="85"/>
     </row>
     <row r="36" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>1979</v>
       </c>
+      <c r="B36" s="85"/>
     </row>
     <row r="37" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>1980</v>
       </c>
-      <c r="B37" s="1">
-        <v>900</v>
+      <c r="B37" s="85">
+        <v>1070</v>
       </c>
     </row>
     <row r="38" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>1981</v>
       </c>
+      <c r="B38" s="85"/>
     </row>
     <row r="39" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>1982</v>
       </c>
+      <c r="B39" s="85"/>
     </row>
     <row r="40" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>1983</v>
       </c>
+      <c r="B40" s="85"/>
     </row>
     <row r="41" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>1984</v>
       </c>
+      <c r="B41" s="85"/>
     </row>
     <row r="42" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>1985</v>
       </c>
-      <c r="B42" s="1">
-        <v>800</v>
+      <c r="B42" s="85">
+        <v>950</v>
       </c>
     </row>
     <row r="43" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>1986</v>
       </c>
+      <c r="B43" s="85"/>
     </row>
     <row r="44" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>1987</v>
       </c>
+      <c r="B44" s="85"/>
     </row>
     <row r="45" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>1988</v>
       </c>
+      <c r="B45" s="85"/>
     </row>
     <row r="46" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>1989</v>
       </c>
+      <c r="B46" s="85"/>
     </row>
     <row r="47" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>1990</v>
       </c>
-      <c r="B47" s="1">
-        <v>690</v>
+      <c r="B47" s="85">
+        <v>820</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>1991</v>
       </c>
+      <c r="B48" s="85"/>
     </row>
     <row r="49" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <v>1992</v>
       </c>
+      <c r="B49" s="85"/>
     </row>
     <row r="50" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>1993</v>
       </c>
+      <c r="B50" s="85"/>
     </row>
     <row r="51" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <v>1994</v>
       </c>
+      <c r="B51" s="85"/>
     </row>
     <row r="52" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
         <v>1995</v>
       </c>
-      <c r="B52" s="1">
-        <v>710</v>
+      <c r="B52" s="85">
+        <v>845</v>
       </c>
     </row>
     <row r="53" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <v>1996</v>
       </c>
+      <c r="B53" s="85"/>
     </row>
     <row r="54" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>1997</v>
       </c>
+      <c r="B54" s="85"/>
     </row>
     <row r="55" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
         <v>1998</v>
       </c>
+      <c r="B55" s="85"/>
     </row>
     <row r="56" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>1999</v>
       </c>
+      <c r="B56" s="85"/>
     </row>
     <row r="57" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
         <v>2000</v>
       </c>
-      <c r="B57" s="1">
-        <v>610</v>
+      <c r="B57" s="85">
+        <v>725</v>
       </c>
     </row>
     <row r="58" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11">
         <v>2001</v>
       </c>
+      <c r="B58" s="85"/>
     </row>
     <row r="59" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
         <v>2002</v>
       </c>
+      <c r="B59" s="85"/>
     </row>
     <row r="60" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
         <v>2003</v>
       </c>
+      <c r="B60" s="85"/>
     </row>
     <row r="61" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
         <v>2004</v>
       </c>
+      <c r="B61" s="85"/>
     </row>
     <row r="62" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
         <v>2005</v>
       </c>
-      <c r="B62" s="1">
-        <v>580</v>
+      <c r="B62" s="85">
+        <v>690</v>
       </c>
     </row>
     <row r="63" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11">
         <v>2006</v>
       </c>
-      <c r="B63" s="1">
-        <v>550</v>
-      </c>
+      <c r="B63" s="85"/>
     </row>
     <row r="64" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
         <v>2007</v>
       </c>
-    </row>
-    <row r="65" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="1">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="65" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
         <v>2008</v>
       </c>
     </row>
-    <row r="66" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>2009</v>
       </c>
     </row>
-    <row r="67" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11">
         <v>2010</v>
       </c>
       <c r="B67" s="1">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="68" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="68" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
         <v>2011</v>
       </c>
     </row>
-    <row r="69" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11">
         <v>2012</v>
       </c>
     </row>
-    <row r="70" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
         <v>2013</v>
       </c>
     </row>
-    <row r="71" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11">
         <v>2014</v>
       </c>
     </row>
-    <row r="72" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11">
         <v>2015</v>
       </c>
       <c r="B72" s="1">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="73" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="73" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11">
         <v>2016</v>
       </c>
     </row>
-    <row r="74" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11">
         <v>2017</v>
       </c>
     </row>
-    <row r="75" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11">
         <v>2018</v>
       </c>
       <c r="B75" s="1">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="76" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="76" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11">
         <v>2019</v>
       </c>
     </row>
-    <row r="77" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11">
         <v>2020</v>
       </c>
-    </row>
-    <row r="78" spans="1:65" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E77" s="6"/>
+    </row>
+    <row r="78" spans="1:54" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
@@ -9411,26 +9680,14 @@
       <c r="AZ78" s="6"/>
       <c r="BA78" s="6"/>
       <c r="BB78" s="6"/>
-      <c r="BC78" s="6"/>
-      <c r="BD78" s="6"/>
-      <c r="BE78" s="6"/>
-      <c r="BF78" s="6"/>
-      <c r="BG78" s="6"/>
-      <c r="BH78" s="6"/>
-      <c r="BI78" s="6"/>
-      <c r="BJ78" s="6"/>
-      <c r="BK78" s="6"/>
-      <c r="BL78" s="6"/>
-      <c r="BM78" s="6"/>
-    </row>
-    <row r="79" spans="1:65" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:54" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
@@ -9478,26 +9735,14 @@
       <c r="AZ79" s="6"/>
       <c r="BA79" s="6"/>
       <c r="BB79" s="6"/>
-      <c r="BC79" s="6"/>
-      <c r="BD79" s="6"/>
-      <c r="BE79" s="6"/>
-      <c r="BF79" s="6"/>
-      <c r="BG79" s="6"/>
-      <c r="BH79" s="6"/>
-      <c r="BI79" s="6"/>
-      <c r="BJ79" s="6"/>
-      <c r="BK79" s="6"/>
-      <c r="BL79" s="6"/>
-      <c r="BM79" s="6"/>
-    </row>
-    <row r="80" spans="1:65" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:54" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
@@ -9545,19 +9790,8 @@
       <c r="AZ80" s="6"/>
       <c r="BA80" s="6"/>
       <c r="BB80" s="6"/>
-      <c r="BC80" s="6"/>
-      <c r="BD80" s="6"/>
-      <c r="BE80" s="6"/>
-      <c r="BF80" s="6"/>
-      <c r="BG80" s="6"/>
-      <c r="BH80" s="6"/>
-      <c r="BI80" s="6"/>
-      <c r="BJ80" s="6"/>
-      <c r="BK80" s="6"/>
-      <c r="BL80" s="6"/>
-      <c r="BM80" s="6"/>
-    </row>
-    <row r="87" spans="1:65" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:54" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -9612,19 +9846,8 @@
       <c r="AZ87" s="6"/>
       <c r="BA87" s="6"/>
       <c r="BB87" s="6"/>
-      <c r="BC87" s="6"/>
-      <c r="BD87" s="6"/>
-      <c r="BE87" s="6"/>
-      <c r="BF87" s="6"/>
-      <c r="BG87" s="6"/>
-      <c r="BH87" s="6"/>
-      <c r="BI87" s="6"/>
-      <c r="BJ87" s="6"/>
-      <c r="BK87" s="6"/>
-      <c r="BL87" s="6"/>
-      <c r="BM87" s="6"/>
-    </row>
-    <row r="88" spans="1:65" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:54" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -9679,17 +9902,6 @@
       <c r="AZ88" s="6"/>
       <c r="BA88" s="6"/>
       <c r="BB88" s="6"/>
-      <c r="BC88" s="6"/>
-      <c r="BD88" s="6"/>
-      <c r="BE88" s="6"/>
-      <c r="BF88" s="6"/>
-      <c r="BG88" s="6"/>
-      <c r="BH88" s="6"/>
-      <c r="BI88" s="6"/>
-      <c r="BJ88" s="6"/>
-      <c r="BK88" s="6"/>
-      <c r="BL88" s="6"/>
-      <c r="BM88" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15266,10 +15478,10 @@
   <dimension ref="A1:BF88"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomRight" activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15311,10 +15523,10 @@
       </c>
       <c r="J1" s="51"/>
       <c r="K1" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>22</v>
@@ -15444,16 +15656,16 @@
         <v>0.71399999999999997</v>
       </c>
       <c r="L4" s="59">
-        <f>K4*0.05*1000</f>
-        <v>35.700000000000003</v>
+        <f>K4*11.2*0.0036*1000</f>
+        <v>28.78848</v>
       </c>
       <c r="M4" s="40">
         <f>0.4/5</f>
         <v>0.08</v>
       </c>
       <c r="N4" s="59">
-        <f>M4/278*1000</f>
-        <v>0.28776978417266186</v>
+        <f>M4*0.0036*1000</f>
+        <v>0.28800000000000003</v>
       </c>
       <c r="O4" s="24">
         <v>0</v>
@@ -15584,16 +15796,16 @@
         <v>0.66200000000000003</v>
       </c>
       <c r="L7" s="59">
-        <f>K7*0.05*1000</f>
-        <v>33.1</v>
+        <f>K7*11.2*0.0036*1000</f>
+        <v>26.691839999999999</v>
       </c>
       <c r="M7" s="40">
         <f>0.5/5</f>
         <v>0.1</v>
       </c>
       <c r="N7" s="59">
-        <f>M7/278*1000</f>
-        <v>0.35971223021582732</v>
+        <f>M7*0.0036*1000</f>
+        <v>0.36000000000000004</v>
       </c>
       <c r="O7" s="24">
         <v>0</v>
@@ -15996,16 +16208,16 @@
         <v>0.57000000000000006</v>
       </c>
       <c r="L17" s="59">
-        <f>K17*0.05*1000</f>
-        <v>28.500000000000004</v>
+        <f>K17*11.2*0.0036*1000</f>
+        <v>22.982399999999998</v>
       </c>
       <c r="M17" s="40">
         <f>0.6/5</f>
         <v>0.12</v>
       </c>
       <c r="N17" s="59">
-        <f>M17/278*1000</f>
-        <v>0.43165467625899279</v>
+        <f>M17*0.0036*1000</f>
+        <v>0.432</v>
       </c>
       <c r="O17" s="24">
         <v>0</v>
@@ -16423,16 +16635,16 @@
         <v>0.42199999999999999</v>
       </c>
       <c r="L27" s="59">
-        <f>K27*0.05*1000</f>
-        <v>21.1</v>
+        <f>K27*11.2*0.0036*1000</f>
+        <v>17.015039999999999</v>
       </c>
       <c r="M27" s="40">
         <f>1/5</f>
         <v>0.2</v>
       </c>
       <c r="N27" s="59">
-        <f>M27/278*1000</f>
-        <v>0.71942446043165464</v>
+        <f>M27*0.0036*1000</f>
+        <v>0.72000000000000008</v>
       </c>
       <c r="O27" s="23">
         <v>2.1743999999999999</v>
@@ -16557,16 +16769,16 @@
         <v>0.36199999999999999</v>
       </c>
       <c r="L32" s="59">
-        <f>K32*0.05*1000</f>
-        <v>18.100000000000001</v>
+        <f>K32*11.2*0.0036*1000</f>
+        <v>14.595839999999997</v>
       </c>
       <c r="M32" s="40">
         <f>1/5</f>
         <v>0.2</v>
       </c>
       <c r="N32" s="59">
-        <f>M32/278*1000</f>
-        <v>0.71942446043165464</v>
+        <f>M32*0.0036*1000</f>
+        <v>0.72000000000000008</v>
       </c>
       <c r="P32" s="25"/>
     </row>
@@ -16664,9 +16876,7 @@
       <c r="H38" s="25"/>
       <c r="I38" s="25"/>
       <c r="J38" s="53"/>
-      <c r="O38" s="23">
-        <v>4.7478000000000007</v>
-      </c>
+      <c r="O38" s="23"/>
       <c r="P38" s="25"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -17499,10 +17709,10 @@
   <dimension ref="A1:BQ88"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
+      <selection pane="bottomRight" activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17545,10 +17755,10 @@
       </c>
       <c r="J1" s="45"/>
       <c r="K1" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>22</v>
@@ -17686,16 +17896,16 @@
         <v>1.2926666666666666</v>
       </c>
       <c r="L4" s="59">
-        <f>K4*0.05*1000</f>
-        <v>64.63333333333334</v>
+        <f>K4*11.2*0.0036*1000</f>
+        <v>52.12032</v>
       </c>
       <c r="M4" s="34">
         <f>10.05/15</f>
         <v>0.67</v>
       </c>
       <c r="N4" s="59">
-        <f>M4/278*1000</f>
-        <v>2.4100719424460433</v>
+        <f>M4*0.0036*1000</f>
+        <v>2.4119999999999999</v>
       </c>
       <c r="O4" s="24">
         <v>0</v>
@@ -17741,7 +17951,7 @@
       </c>
       <c r="J5" s="46"/>
       <c r="K5" s="34"/>
-      <c r="L5" s="58"/>
+      <c r="L5" s="81"/>
       <c r="M5" s="34"/>
       <c r="N5" s="34"/>
       <c r="Q5" s="40"/>
@@ -17833,16 +18043,16 @@
         <v>1.0766666666666667</v>
       </c>
       <c r="L7" s="59">
-        <f>K7*0.05*1000</f>
-        <v>53.833333333333336</v>
+        <f>K7*11.2*0.0036*1000</f>
+        <v>43.411199999999994</v>
       </c>
       <c r="M7" s="34">
         <f>7.5/15</f>
         <v>0.5</v>
       </c>
       <c r="N7" s="59">
-        <f>M7/278*1000</f>
-        <v>1.7985611510791368</v>
+        <f>M7*0.0036*1000</f>
+        <v>1.8</v>
       </c>
       <c r="O7" s="24">
         <v>0</v>
@@ -18288,16 +18498,16 @@
         <v>0.62</v>
       </c>
       <c r="L17" s="59">
-        <f>K17*0.05*1000</f>
-        <v>31</v>
+        <f>K17*11.2*0.0036*1000</f>
+        <v>24.9984</v>
       </c>
       <c r="M17" s="34">
         <f>5.24/15</f>
         <v>0.34933333333333333</v>
       </c>
       <c r="N17" s="59">
-        <f>M17/278*1000</f>
-        <v>1.2565947242206235</v>
+        <f>M17*0.0036*1000</f>
+        <v>1.2576000000000001</v>
       </c>
       <c r="O17" s="24">
         <v>0</v>
@@ -18743,16 +18953,16 @@
         <v>0.44933333333333336</v>
       </c>
       <c r="L27" s="59">
-        <f>K27*0.05*1000</f>
-        <v>22.466666666666669</v>
+        <f>K27*11.2*0.0036*1000</f>
+        <v>18.11712</v>
       </c>
       <c r="M27" s="34">
         <f>5.4/15</f>
         <v>0.36000000000000004</v>
       </c>
       <c r="N27" s="59">
-        <f>M27/278*1000</f>
-        <v>1.2949640287769786</v>
+        <f>M27*0.0036*1000</f>
+        <v>1.296</v>
       </c>
       <c r="O27" s="23">
         <v>2.1743999999999999</v>
@@ -18978,16 +19188,16 @@
         <v>0.3686666666666667</v>
       </c>
       <c r="L32" s="59">
-        <f>K32*0.05*1000</f>
-        <v>18.433333333333337</v>
+        <f>K32*11.2*0.0036*1000</f>
+        <v>14.86464</v>
       </c>
       <c r="M32" s="34">
         <f>5.42/15</f>
         <v>0.36133333333333334</v>
       </c>
       <c r="N32" s="59">
-        <f>M32/278*1000</f>
-        <v>1.2997601918465229</v>
+        <f>M32*0.0036*1000</f>
+        <v>1.3008</v>
       </c>
       <c r="Q32" s="40"/>
       <c r="R32" s="40"/>
@@ -19219,9 +19429,7 @@
         <f t="shared" si="15"/>
         <v>5.4666666666666662E-2</v>
       </c>
-      <c r="O38" s="23">
-        <v>4.7478000000000007</v>
-      </c>
+      <c r="O38" s="23"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
@@ -20386,11 +20594,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{621D97B3-9416-45F1-8919-6CB0D3F82407}">
   <dimension ref="A1:BR88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G45" sqref="G45"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22269,13 +22477,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D689AC4E-6DA8-4485-9988-F432D0671361}">
-  <dimension ref="A1:BM88"/>
+  <dimension ref="A1:BK88"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22285,12 +22493,12 @@
     <col min="5" max="16384" width="10.7109375" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="69" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C1" s="69" t="s">
         <v>18</v>
@@ -22298,22 +22506,25 @@
       <c r="D1" s="69" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>1945</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>1946</v>
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="70"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>1947</v>
       </c>
@@ -22321,39 +22532,42 @@
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>1948</v>
       </c>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>1949</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>1950</v>
       </c>
       <c r="B7" s="25">
         <f>(prod!$G7*MatEnergy_PlateGlass!L7)+((prod!$I7+prod!$K7)*MatEnergy_WindowGlass!L7)</f>
-        <v>38.414005602240891</v>
+        <v>30.977054117647054</v>
       </c>
       <c r="C7" s="25">
         <f>(prod!$G7*MatEnergy_PlateGlass!N7)+((prod!$I7+prod!$K7)*MatEnergy_WindowGlass!N7)</f>
-        <v>0.72849283598331416</v>
+        <v>0.72907563025210087</v>
       </c>
       <c r="D7" s="25">
         <f>(prod!$G7*MatEnergy_PlateGlass!O7)+((prod!$I7+prod!$K7)*MatEnergy_WindowGlass!O7)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="25"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="40">
+        <f>SUM(B7:D7)</f>
+        <v>31.706129747899155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>1951</v>
       </c>
@@ -22361,7 +22575,7 @@
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>1952</v>
       </c>
@@ -22369,7 +22583,7 @@
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>1953</v>
       </c>
@@ -22377,7 +22591,7 @@
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>1954</v>
       </c>
@@ -22385,7 +22599,7 @@
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>1955</v>
       </c>
@@ -22393,7 +22607,7 @@
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>1956</v>
       </c>
@@ -22401,7 +22615,7 @@
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>1957</v>
       </c>
@@ -22409,554 +22623,852 @@
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>1958</v>
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="70"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>1959</v>
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="70"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>1960</v>
       </c>
       <c r="B17" s="25">
-        <f>(prod!$G17*MatEnergy_PlateGlass!L17)+((prod!$I17+prod!$K17)*MatEnergy_WindowGlass!L17)</f>
-        <v>29.554968795007206</v>
+        <v>21.25</v>
       </c>
       <c r="C17" s="25">
-        <f>(prod!$G17*MatEnergy_PlateGlass!N17)+((prod!$I17+prod!$K17)*MatEnergy_WindowGlass!N17)</f>
-        <v>0.77976907959949848</v>
+        <v>0.71</v>
       </c>
       <c r="D17" s="25">
-        <f>(prod!$G17*MatEnergy_PlateGlass!O17)+((prod!$I17+prod!$K17)*MatEnergy_WindowGlass!O17)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="83">
+        <v>21.96</v>
+      </c>
+      <c r="F17" s="70"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>1961</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" s="83">
+        <v>21.78</v>
+      </c>
+      <c r="F18" s="70"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>1962</v>
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" s="83">
+        <v>21.419999999999998</v>
+      </c>
+      <c r="F19" s="70"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>1963</v>
       </c>
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" s="83">
+        <v>20.52</v>
+      </c>
+      <c r="F20" s="70"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>1964</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21" s="83">
+        <v>19.439999999999998</v>
+      </c>
+      <c r="F21" s="70"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>1965</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="25">
+        <v>19.12</v>
+      </c>
+      <c r="C22" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="25">
+        <v>0</v>
+      </c>
+      <c r="E22" s="83">
+        <v>19.62</v>
+      </c>
+      <c r="F22" s="70"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>1966</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E23" s="83">
+        <v>19.439999999999998</v>
+      </c>
+      <c r="F23" s="70"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>1967</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" s="83">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="F24" s="70"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>1968</v>
       </c>
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25" s="83">
+        <v>18.72</v>
+      </c>
+      <c r="F25" s="70"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <v>1969</v>
       </c>
       <c r="B26" s="25"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E26" s="83">
+        <v>17.28</v>
+      </c>
+      <c r="F26" s="35"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>1970</v>
       </c>
       <c r="B27" s="25">
-        <f>(prod!$G27*MatEnergy_PlateGlass!L27)+((prod!$I27+prod!$K27)*MatEnergy_WindowGlass!L27)</f>
-        <v>21.660017399950291</v>
+        <v>14.61</v>
       </c>
       <c r="C27" s="25">
-        <f>(prod!$G27*MatEnergy_PlateGlass!N27)+((prod!$I27+prod!$K27)*MatEnergy_WindowGlass!N27)</f>
-        <v>0.95526263552916069</v>
+        <v>0.81</v>
       </c>
       <c r="D27" s="25">
-        <f>(prod!$G27*MatEnergy_PlateGlass!O27)+((prod!$I27+prod!$K27)*MatEnergy_WindowGlass!O27)</f>
-        <v>2.1743999999999999</v>
-      </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.85</v>
+      </c>
+      <c r="E27" s="83">
+        <v>17.28</v>
+      </c>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="78"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>1971</v>
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" s="83">
+        <v>16.919999999999998</v>
+      </c>
+      <c r="F28" s="70"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="79"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>1972</v>
       </c>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" s="83">
+        <v>15.12</v>
+      </c>
+      <c r="F29" s="35"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="79"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <v>1973</v>
       </c>
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E30" s="83">
+        <v>14.94</v>
+      </c>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="78"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <v>1974</v>
       </c>
       <c r="B31" s="25"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E31" s="83">
+        <v>14.219999999999999</v>
+      </c>
+      <c r="F31" s="70"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="79"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
         <v>1975</v>
       </c>
       <c r="B32" s="25">
-        <f>(prod!$G32*MatEnergy_PlateGlass!L32)+((prod!$I32+prod!$K32)*MatEnergy_WindowGlass!L32)</f>
-        <v>18.264251207729473</v>
+        <v>11.1</v>
       </c>
       <c r="C32" s="25">
-        <f>(prod!$G32*MatEnergy_PlateGlass!N32)+((prod!$I32+prod!$K32)*MatEnergy_WindowGlass!N32)</f>
-        <v>1.0053869947520244</v>
-      </c>
-      <c r="D32" s="25"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.77</v>
+      </c>
+      <c r="D32" s="25">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="E32" s="83">
+        <v>14.4</v>
+      </c>
+      <c r="F32" s="70"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="79"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <v>1976</v>
       </c>
       <c r="B33" s="25"/>
       <c r="C33" s="25"/>
       <c r="D33" s="25"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="83">
+        <v>16.02</v>
+      </c>
+      <c r="F33" s="70"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="79"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
         <v>1977</v>
       </c>
       <c r="B34" s="25"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="83">
+        <v>13.68</v>
+      </c>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="79"/>
+      <c r="J34" s="79"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
         <v>1978</v>
       </c>
       <c r="B35" s="25"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="83">
+        <v>13.68</v>
+      </c>
+      <c r="F35" s="70"/>
+      <c r="G35" s="70"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="79"/>
+      <c r="J35" s="79"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
         <v>1979</v>
       </c>
       <c r="B36" s="25"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="83">
+        <v>13.68</v>
+      </c>
+      <c r="F36" s="70"/>
+      <c r="G36" s="70"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="79"/>
+      <c r="J36" s="79"/>
+      <c r="Q36" s="77"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
         <v>1980</v>
       </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="25">
+        <v>9.08</v>
+      </c>
+      <c r="C37" s="25">
+        <v>0.77</v>
+      </c>
+      <c r="D37" s="25">
+        <v>2.75</v>
+      </c>
+      <c r="E37" s="83">
+        <v>12.6</v>
+      </c>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="79"/>
+      <c r="I37" s="79"/>
+      <c r="J37" s="79"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
         <v>1981</v>
       </c>
       <c r="B38" s="25"/>
       <c r="C38" s="25"/>
-      <c r="D38" s="35">
-        <v>4.7478000000000007</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="35"/>
+      <c r="E38" s="83">
+        <v>12.6</v>
+      </c>
+      <c r="F38" s="23"/>
+      <c r="G38" s="70"/>
+      <c r="H38" s="79"/>
+      <c r="I38" s="79"/>
+      <c r="J38" s="79"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
         <v>1982</v>
       </c>
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="83">
+        <v>12.6</v>
+      </c>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="J39" s="23"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
         <v>1983</v>
       </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="83">
+        <v>11.879999999999999</v>
+      </c>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="35"/>
+      <c r="R40" s="35"/>
+      <c r="S40" s="35"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
         <v>1984</v>
       </c>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="83">
+        <v>11.879999999999999</v>
+      </c>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="P41" s="70"/>
+      <c r="Q41" s="70"/>
+      <c r="R41" s="70"/>
+      <c r="S41" s="70"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
         <v>1985</v>
       </c>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="25">
+        <v>7.8</v>
+      </c>
+      <c r="C42" s="25">
+        <v>0.97</v>
+      </c>
+      <c r="D42" s="25">
+        <v>3.48</v>
+      </c>
+      <c r="E42" s="83">
+        <v>12.24</v>
+      </c>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="P42" s="70"/>
+      <c r="Q42" s="70"/>
+      <c r="R42" s="70"/>
+      <c r="S42" s="70"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
         <v>1986</v>
       </c>
       <c r="B43" s="35"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="83">
+        <v>11.16</v>
+      </c>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="P43" s="70"/>
+      <c r="Q43" s="70"/>
+      <c r="R43" s="70"/>
+      <c r="S43" s="70"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
         <v>1987</v>
       </c>
       <c r="B44" s="35"/>
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="83">
+        <v>10.799999999999999</v>
+      </c>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="P44" s="70"/>
+      <c r="Q44" s="70"/>
+      <c r="R44" s="70"/>
+      <c r="S44" s="70"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
         <v>1988</v>
       </c>
       <c r="B45" s="35"/>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="83">
+        <v>10.799999999999999</v>
+      </c>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="P45" s="70"/>
+      <c r="Q45" s="70"/>
+      <c r="R45" s="70"/>
+      <c r="S45" s="70"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
         <v>1989</v>
       </c>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="83">
+        <v>10.62</v>
+      </c>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="P46" s="70"/>
+      <c r="Q46" s="70"/>
+      <c r="R46" s="70"/>
+      <c r="S46" s="70"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
         <v>1990</v>
       </c>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="83">
+        <v>10.44</v>
+      </c>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="P47" s="70"/>
+      <c r="Q47" s="70"/>
+      <c r="R47" s="70"/>
+      <c r="S47" s="70"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
         <v>1991</v>
       </c>
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="35">
+        <v>4.78</v>
+      </c>
+      <c r="C48" s="35">
+        <v>1.05</v>
+      </c>
+      <c r="D48" s="35">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="E48" s="83">
+        <v>10.44</v>
+      </c>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="P48" s="70"/>
+      <c r="Q48" s="70"/>
+      <c r="R48" s="70"/>
+      <c r="S48" s="70"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
         <v>1992</v>
       </c>
       <c r="B49" s="35"/>
       <c r="C49" s="35"/>
       <c r="D49" s="35"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="P49" s="70"/>
+      <c r="Q49" s="70"/>
+      <c r="R49" s="70"/>
+      <c r="S49" s="70"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="16">
         <v>1993</v>
       </c>
       <c r="B50" s="35"/>
       <c r="C50" s="35"/>
       <c r="D50" s="35"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F50" s="70"/>
+      <c r="G50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="70"/>
+      <c r="L50" s="70"/>
+      <c r="M50" s="70"/>
+      <c r="N50" s="70"/>
+      <c r="O50" s="70"/>
+      <c r="P50" s="70"/>
+      <c r="Q50" s="70"/>
+      <c r="R50" s="70"/>
+      <c r="S50" s="70"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="16">
         <v>1994</v>
       </c>
       <c r="B51" s="35"/>
       <c r="C51" s="35"/>
       <c r="D51" s="35"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="35"/>
+      <c r="F51" s="70"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
         <v>1995</v>
       </c>
-      <c r="B52" s="35"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="16">
         <v>1996</v>
       </c>
       <c r="B53" s="35"/>
       <c r="C53" s="35"/>
       <c r="D53" s="35"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="35"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="16">
         <v>1997</v>
       </c>
       <c r="B54" s="35"/>
       <c r="C54" s="35"/>
       <c r="D54" s="35"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" s="35"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="16">
         <v>1998</v>
       </c>
       <c r="B55" s="35"/>
       <c r="C55" s="35"/>
       <c r="D55" s="35"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="35"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="16">
         <v>1999</v>
       </c>
       <c r="B56" s="35"/>
       <c r="C56" s="35"/>
       <c r="D56" s="35"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="35"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="16">
         <v>2000</v>
       </c>
-      <c r="B57" s="35"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="82"/>
+      <c r="C57" s="82"/>
+      <c r="D57" s="82"/>
+      <c r="E57" s="82"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="16">
         <v>2001</v>
       </c>
-      <c r="B58" s="35"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="82"/>
+      <c r="C58" s="82"/>
+      <c r="D58" s="82"/>
+      <c r="E58" s="82"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="16">
         <v>2002</v>
       </c>
-      <c r="B59" s="35"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="82"/>
+      <c r="C59" s="82"/>
+      <c r="D59" s="82"/>
+      <c r="E59" s="82"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="16">
         <v>2003</v>
       </c>
-      <c r="B60" s="35"/>
-      <c r="C60" s="35"/>
-      <c r="D60" s="35"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="82"/>
+      <c r="C60" s="82"/>
+      <c r="D60" s="82"/>
+      <c r="E60" s="82"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="16">
         <v>2004</v>
       </c>
-      <c r="B61" s="35"/>
-      <c r="C61" s="35"/>
-      <c r="D61" s="35"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="82"/>
+      <c r="C61" s="82"/>
+      <c r="D61" s="82"/>
+      <c r="E61" s="82"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="16">
         <v>2005</v>
       </c>
-      <c r="B62" s="35"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="82"/>
+      <c r="C62" s="82"/>
+      <c r="D62" s="82"/>
+      <c r="E62" s="82"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="16">
         <v>2006</v>
       </c>
-      <c r="B63" s="35"/>
-      <c r="C63" s="35"/>
-      <c r="D63" s="35"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="82"/>
+      <c r="C63" s="82"/>
+      <c r="D63" s="82"/>
+      <c r="E63" s="82"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="16">
         <v>2007</v>
       </c>
       <c r="B64" s="35"/>
       <c r="C64" s="35"/>
       <c r="D64" s="35"/>
-    </row>
-    <row r="65" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="E64" s="35"/>
+    </row>
+    <row r="65" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A65" s="16">
         <v>2008</v>
       </c>
-      <c r="B65" s="35"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
-    </row>
-    <row r="66" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="B65" s="82"/>
+      <c r="C65" s="82"/>
+      <c r="D65" s="82"/>
+      <c r="E65" s="82"/>
+    </row>
+    <row r="66" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A66" s="16">
         <v>2009</v>
       </c>
       <c r="B66" s="35"/>
       <c r="C66" s="35"/>
       <c r="D66" s="35"/>
-    </row>
-    <row r="67" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="E66" s="84"/>
+    </row>
+    <row r="67" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A67" s="16">
         <v>2010</v>
       </c>
       <c r="B67" s="35">
-        <f>(2.8+2.1)/2</f>
-        <v>2.4500000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="C67" s="35">
-        <f>(0.8+2.87)/2</f>
-        <v>1.835</v>
+        <v>0.9</v>
       </c>
       <c r="D67" s="35">
-        <f>(6.1+7.58)/2</f>
-        <v>6.84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:65" x14ac:dyDescent="0.25">
+        <v>6.1</v>
+      </c>
+      <c r="E67" s="40">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A68" s="16">
         <v>2011</v>
       </c>
-    </row>
-    <row r="69" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="B68" s="82"/>
+      <c r="C68" s="82"/>
+      <c r="D68" s="82"/>
+      <c r="E68" s="82"/>
+    </row>
+    <row r="69" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A69" s="16">
         <v>2012</v>
       </c>
       <c r="B69" s="35"/>
       <c r="C69" s="35"/>
       <c r="D69" s="35"/>
-    </row>
-    <row r="70" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="E69" s="82"/>
+    </row>
+    <row r="70" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A70" s="16">
         <v>2013</v>
       </c>
       <c r="B70" s="35"/>
       <c r="C70" s="35"/>
       <c r="D70" s="35"/>
-    </row>
-    <row r="71" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="E70" s="82"/>
+    </row>
+    <row r="71" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A71" s="16">
         <v>2014</v>
       </c>
       <c r="B71" s="35"/>
       <c r="C71" s="35"/>
       <c r="D71" s="35"/>
-    </row>
-    <row r="72" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="E71" s="82"/>
+    </row>
+    <row r="72" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A72" s="16">
         <v>2015</v>
       </c>
       <c r="B72" s="35"/>
       <c r="C72" s="35"/>
       <c r="D72" s="35"/>
-    </row>
-    <row r="73" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="E72" s="82"/>
+    </row>
+    <row r="73" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A73" s="16">
         <v>2016</v>
       </c>
       <c r="B73" s="35"/>
       <c r="C73" s="35"/>
       <c r="D73" s="35"/>
-    </row>
-    <row r="74" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="E73" s="82"/>
+    </row>
+    <row r="74" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A74" s="16">
         <v>2017</v>
       </c>
-    </row>
-    <row r="75" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="B74" s="82"/>
+      <c r="C74" s="82"/>
+      <c r="D74" s="82"/>
+      <c r="E74" s="82"/>
+    </row>
+    <row r="75" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A75" s="16">
         <v>2018</v>
       </c>
-    </row>
-    <row r="76" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="B75" s="82"/>
+      <c r="C75" s="82"/>
+      <c r="D75" s="82"/>
+      <c r="E75" s="82"/>
+    </row>
+    <row r="76" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A76" s="16">
         <v>2019</v>
       </c>
       <c r="B76" s="35">
-        <f>(2.8+2.1)/2</f>
-        <v>2.4500000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="C76" s="35">
-        <f>(0.8+2.87)/2</f>
-        <v>1.835</v>
+        <v>0.9</v>
       </c>
       <c r="D76" s="35">
-        <f>(6.1+7.58)/2</f>
-        <v>6.84</v>
-      </c>
-    </row>
-    <row r="77" spans="1:65" x14ac:dyDescent="0.25">
+        <v>6.1</v>
+      </c>
+      <c r="E76" s="40">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A77" s="16">
         <v>2020</v>
       </c>
     </row>
-    <row r="78" spans="1:65" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:63" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="27"/>
       <c r="B78" s="24"/>
       <c r="C78" s="24"/>
       <c r="D78" s="24"/>
       <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="24"/>
-      <c r="I78" s="24"/>
       <c r="J78" s="24"/>
       <c r="K78" s="24"/>
       <c r="L78" s="24"/>
@@ -23011,19 +23523,13 @@
       <c r="BI78" s="24"/>
       <c r="BJ78" s="24"/>
       <c r="BK78" s="24"/>
-      <c r="BL78" s="24"/>
-      <c r="BM78" s="24"/>
-    </row>
-    <row r="79" spans="1:65" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:63" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="27"/>
       <c r="B79" s="24"/>
       <c r="C79" s="24"/>
       <c r="D79" s="24"/>
       <c r="E79" s="24"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="24"/>
-      <c r="H79" s="24"/>
-      <c r="I79" s="24"/>
       <c r="J79" s="24"/>
       <c r="K79" s="24"/>
       <c r="L79" s="24"/>
@@ -23078,19 +23584,13 @@
       <c r="BI79" s="24"/>
       <c r="BJ79" s="24"/>
       <c r="BK79" s="24"/>
-      <c r="BL79" s="24"/>
-      <c r="BM79" s="24"/>
-    </row>
-    <row r="80" spans="1:65" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:63" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="27"/>
       <c r="B80" s="24"/>
       <c r="C80" s="24"/>
       <c r="D80" s="24"/>
       <c r="E80" s="24"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="24"/>
-      <c r="H80" s="24"/>
-      <c r="I80" s="24"/>
       <c r="J80" s="24"/>
       <c r="K80" s="24"/>
       <c r="L80" s="24"/>
@@ -23145,17 +23645,13 @@
       <c r="BI80" s="24"/>
       <c r="BJ80" s="24"/>
       <c r="BK80" s="24"/>
-      <c r="BL80" s="24"/>
-      <c r="BM80" s="24"/>
-    </row>
-    <row r="87" spans="1:65" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:63" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="27"/>
       <c r="B87" s="24"/>
       <c r="C87" s="24"/>
       <c r="D87" s="24"/>
       <c r="E87" s="24"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="24"/>
       <c r="H87" s="24"/>
       <c r="I87" s="24"/>
       <c r="J87" s="24"/>
@@ -23212,17 +23708,13 @@
       <c r="BI87" s="24"/>
       <c r="BJ87" s="24"/>
       <c r="BK87" s="24"/>
-      <c r="BL87" s="24"/>
-      <c r="BM87" s="24"/>
-    </row>
-    <row r="88" spans="1:65" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:63" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="27"/>
       <c r="B88" s="24"/>
       <c r="C88" s="24"/>
       <c r="D88" s="24"/>
       <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="24"/>
       <c r="H88" s="24"/>
       <c r="I88" s="24"/>
       <c r="J88" s="24"/>
@@ -23279,8 +23771,6 @@
       <c r="BI88" s="24"/>
       <c r="BJ88" s="24"/>
       <c r="BK88" s="24"/>
-      <c r="BL88" s="24"/>
-      <c r="BM88" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RawData/FR_RawData_VPython.xlsx
+++ b/RawData/FR_RawData_VPython.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\01_MFA_GlassIndustry\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3F1F65-3B98-45E2-88F7-32ACA24958E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F84284A-8C74-4E49-A0E7-1F03CA5811C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="600" windowWidth="21165" windowHeight="15600" tabRatio="681" firstSheet="7" activeTab="9" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
+    <workbookView xWindow="3900" yWindow="600" windowWidth="21165" windowHeight="15600" tabRatio="681" activeTab="1" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
   </bookViews>
   <sheets>
     <sheet name="References" sheetId="26" r:id="rId1"/>
@@ -8791,7 +8791,7 @@
   <dimension ref="A2:D47"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="118.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9124,7 +9124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70AADF96-AA57-46CE-950B-FAE3AC3D5FD3}">
   <dimension ref="A1:BB88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -9914,11 +9914,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{984B49BA-6D54-42C1-84EE-7F8663080B50}">
   <dimension ref="A1:BP88"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H43" sqref="H43"/>
+      <selection pane="bottomRight" activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RawData/FR_RawData_VPython.xlsx
+++ b/RawData/FR_RawData_VPython.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\01_MFA_GlassIndustry\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F84284A-8C74-4E49-A0E7-1F03CA5811C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991BC1A9-9BE0-4F55-813F-0BBCF240FDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="600" windowWidth="21165" windowHeight="15600" tabRatio="681" activeTab="1" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="681" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
   </bookViews>
   <sheets>
     <sheet name="References" sheetId="26" r:id="rId1"/>
@@ -8790,9 +8790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C68D57F-0F45-4FFC-9D40-2D0FFB63D294}">
   <dimension ref="A2:D47"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="118.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9914,7 +9912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{984B49BA-6D54-42C1-84EE-7F8663080B50}">
   <dimension ref="A1:BP88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -22483,7 +22481,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7:E17"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RawData/FR_RawData_VPython.xlsx
+++ b/RawData/FR_RawData_VPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\01_MFA_GlassIndustry\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991BC1A9-9BE0-4F55-813F-0BBCF240FDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670DCB5C-76CD-4E16-8DF8-36BE1DA3740E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="681" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
   </bookViews>
